--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauva\Documents\SIMULACION\SimulationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlospenaloza/Universidad/Simulación/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026838F-1DA7-444C-8262-2477544B3930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Toma1y2" sheetId="2" r:id="rId2"/>
     <sheet name="Toma3y4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
   <si>
     <t>Recepción2</t>
   </si>
@@ -56,9 +65,6 @@
     <t>Gamma</t>
   </si>
   <si>
-    <t>Llogis</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -88,12 +94,24 @@
   <si>
     <t>Duración</t>
   </si>
+  <si>
+    <t>Mean log</t>
+  </si>
+  <si>
+    <t>SD log</t>
+  </si>
+  <si>
+    <t>Weibull</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +242,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,7 +712,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -699,6 +724,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,57 +751,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,38 +1071,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
@@ -1094,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1104,23 +1140,29 @@
       <c r="C2">
         <v>2.4</v>
       </c>
-      <c r="D2">
-        <v>15</v>
+      <c r="D2" s="20">
+        <f>Toma1y2!J3</f>
+        <v>12.72</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <f>Toma1y2!M3</f>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
+        <f>Toma1y2!P3</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="20">
+        <f>Toma1y2!S3</f>
+        <v>13.78</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
+        <f>Toma1y2!V3</f>
+        <v>3.48</v>
+      </c>
+      <c r="I2" s="12">
+        <f>Toma1y2!Y3</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -1135,22 +1177,22 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1160,26 +1202,32 @@
       <c r="C3">
         <v>1.9</v>
       </c>
-      <c r="D3">
-        <v>15</v>
+      <c r="D3" s="20">
+        <f>Toma1y2!J4</f>
+        <v>14.45</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <f>Toma1y2!M4</f>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
+        <f>Toma1y2!P4</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="20">
+        <f>Toma1y2!S4</f>
+        <v>14.27</v>
       </c>
       <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
+        <f>Toma1y2!V4</f>
+        <v>4.22</v>
+      </c>
+      <c r="I3" s="12">
+        <f>Toma1y2!Y4</f>
+        <v>1.23</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <v>2.2162919999999999E-2</v>
@@ -1188,7 +1236,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1198,26 +1246,32 @@
       <c r="C4">
         <v>1.6</v>
       </c>
-      <c r="D4">
-        <v>15</v>
+      <c r="D4" s="20">
+        <f>Toma1y2!J5</f>
+        <v>13.4</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <f>Toma1y2!M5</f>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
+        <f>Toma1y2!P5</f>
         <v>12</v>
       </c>
+      <c r="G4" s="20">
+        <f>Toma1y2!S5</f>
+        <v>15.02</v>
+      </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <f>Toma1y2!V5</f>
+        <v>1.07</v>
+      </c>
+      <c r="I4" s="12">
+        <f>Toma1y2!Y5</f>
+        <v>3.47</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>0.1158785</v>
@@ -1226,7 +1280,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1236,47 +1290,47 @@
       <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="D5">
-        <v>16</v>
+      <c r="D5" s="20">
+        <f>Toma1y2!J6</f>
+        <v>16.48</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <f>Toma1y2!M6</f>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
+        <f>Toma1y2!P6</f>
+        <v>9</v>
+      </c>
+      <c r="G5" s="20">
+        <f>Toma1y2!S6</f>
+        <v>11.7</v>
       </c>
       <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
+        <f>Toma1y2!V6</f>
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="12">
+        <f>Toma1y2!Y6</f>
+        <v>4.13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5">
-        <v>147.03474299999999</v>
-      </c>
-      <c r="O5">
-        <v>6.110665</v>
+        <v>167.19970000000001</v>
       </c>
       <c r="P5">
-        <v>12.054455000000001</v>
+        <v>3.9979619999999998</v>
       </c>
       <c r="Q5">
-        <v>105.942446</v>
-      </c>
-      <c r="R5">
-        <v>4.5413209999999999</v>
+        <v>101.38073900000001</v>
       </c>
       <c r="S5">
-        <v>3.1407370000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4.360474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1286,41 +1340,47 @@
       <c r="C6">
         <v>1.6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="20">
+        <f>Toma1y2!J7</f>
+        <v>15.53</v>
+      </c>
+      <c r="E6">
+        <f>Toma1y2!M7</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>Toma1y2!P7</f>
+        <v>15</v>
+      </c>
+      <c r="G6" s="20">
+        <f>Toma1y2!S7</f>
+        <v>14.5</v>
+      </c>
+      <c r="H6">
+        <f>Toma1y2!V7</f>
+        <v>2.7</v>
+      </c>
+      <c r="I6" s="12">
+        <f>Toma1y2!Y7</f>
+        <v>2.78</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
       <c r="N6">
-        <v>9.7872029999999999</v>
+        <v>10.5906</v>
       </c>
       <c r="P6">
-        <v>1.453355</v>
+        <v>9.5546209999999991</v>
       </c>
       <c r="Q6">
-        <v>7.7835520000000002</v>
-      </c>
-      <c r="R6">
-        <v>4.5413209999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7.4195859999999998</v>
+      </c>
+      <c r="S6">
+        <v>3.7475960000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1330,35 +1390,35 @@
       <c r="C7">
         <v>1.4</v>
       </c>
-      <c r="D7">
-        <v>14</v>
+      <c r="D7" s="20">
+        <f>Toma1y2!J8</f>
+        <v>17.38</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <f>Toma1y2!M8</f>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
+        <f>Toma1y2!P8</f>
+        <v>8</v>
+      </c>
+      <c r="G7" s="20">
+        <f>Toma1y2!S8</f>
+        <v>13.48</v>
       </c>
       <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
+        <f>Toma1y2!V8</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="12">
+        <f>Toma1y2!Y8</f>
+        <v>3.57</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7">
-        <v>7.5805639999999999</v>
-      </c>
-      <c r="S7">
-        <v>2.3203740000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1368,26 +1428,47 @@
       <c r="C8">
         <v>1.7</v>
       </c>
-      <c r="D8">
-        <v>15</v>
+      <c r="D8" s="20">
+        <f>Toma1y2!J9</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <f>Toma1y2!M9</f>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
+        <f>Toma1y2!P9</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="20">
+        <f>Toma1y2!S9</f>
+        <v>13.7</v>
       </c>
       <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V9</f>
+        <v>1.85</v>
+      </c>
+      <c r="I8" s="12">
+        <f>Toma1y2!Y9</f>
+        <v>3.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>1.029298</v>
+      </c>
+      <c r="M8">
+        <v>0.67246850000000002</v>
+      </c>
+      <c r="O8">
+        <v>2.0473758000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.98660530000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1397,26 +1478,47 @@
       <c r="C9">
         <v>2.4</v>
       </c>
-      <c r="D9">
-        <v>14</v>
+      <c r="D9" s="20">
+        <f>Toma1y2!J10</f>
+        <v>15.78</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <f>Toma1y2!M10</f>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
+        <f>Toma1y2!P10</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="20">
+        <f>Toma1y2!S10</f>
+        <v>13.87</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V10</f>
+        <v>1.37</v>
+      </c>
+      <c r="I9" s="12">
+        <f>Toma1y2!Y10</f>
+        <v>3.7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>0.119675</v>
+      </c>
+      <c r="M9">
+        <v>0.16408700000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.25420150000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.47770590000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1426,26 +1528,32 @@
       <c r="C10">
         <v>1.8</v>
       </c>
-      <c r="D10">
-        <v>14</v>
+      <c r="D10" s="20">
+        <f>Toma1y2!J11</f>
+        <v>15.92</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <f>Toma1y2!M11</f>
+        <v>8</v>
       </c>
       <c r="F10">
+        <f>Toma1y2!P11</f>
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>12</v>
+      <c r="G10" s="20">
+        <f>Toma1y2!S11</f>
+        <v>11.48</v>
       </c>
       <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V11</f>
+        <v>2.13</v>
+      </c>
+      <c r="I10" s="12">
+        <f>Toma1y2!Y11</f>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1455,26 +1563,32 @@
       <c r="C11">
         <v>2.8</v>
       </c>
-      <c r="D11">
-        <v>14</v>
+      <c r="D11" s="20">
+        <f>Toma1y2!J12</f>
+        <v>15.55</v>
       </c>
       <c r="E11">
+        <f>Toma1y2!M12</f>
         <v>8</v>
       </c>
       <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
+        <f>Toma1y2!P12</f>
+        <v>11</v>
+      </c>
+      <c r="G11" s="20">
+        <f>Toma1y2!S12</f>
+        <v>13.15</v>
       </c>
       <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V12</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I11" s="12">
+        <f>Toma1y2!Y12</f>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1484,26 +1598,32 @@
       <c r="C12">
         <v>1.9</v>
       </c>
-      <c r="D12">
-        <v>16</v>
+      <c r="D12" s="20">
+        <f>Toma1y2!J13</f>
+        <v>16.55</v>
       </c>
       <c r="E12">
+        <f>Toma1y2!M13</f>
         <v>6</v>
       </c>
       <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
+        <f>Toma1y2!P13</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="20">
+        <f>Toma1y2!S13</f>
+        <v>14.05</v>
       </c>
       <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V13</f>
+        <v>3.18</v>
+      </c>
+      <c r="I12" s="12">
+        <f>Toma1y2!Y13</f>
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1513,26 +1633,32 @@
       <c r="C13">
         <v>1.7</v>
       </c>
-      <c r="D13">
-        <v>15</v>
+      <c r="D13" s="20">
+        <f>Toma1y2!J14</f>
+        <v>15.18</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <f>Toma1y2!M14</f>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
+        <f>Toma1y2!P14</f>
+        <v>11</v>
+      </c>
+      <c r="G13" s="20">
+        <f>Toma1y2!S14</f>
+        <v>16.62</v>
       </c>
       <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V14</f>
+        <v>5.2</v>
+      </c>
+      <c r="I13" s="12">
+        <f>Toma1y2!Y14</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1542,26 +1668,32 @@
       <c r="C14">
         <v>1.9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="20">
+        <f>Toma1y2!J15</f>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E14">
+        <f>Toma1y2!M15</f>
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
       <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
+        <f>Toma1y2!P15</f>
+        <v>9</v>
+      </c>
+      <c r="G14" s="20">
+        <f>Toma1y2!S15</f>
+        <v>13.78</v>
       </c>
       <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V15</f>
+        <v>3.47</v>
+      </c>
+      <c r="I14" s="12">
+        <f>Toma1y2!Y15</f>
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1571,26 +1703,32 @@
       <c r="C15">
         <v>1.8</v>
       </c>
-      <c r="D15">
-        <v>16</v>
+      <c r="D15" s="20">
+        <f>Toma1y2!J16</f>
+        <v>17.149999999999999</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <f>Toma1y2!M16</f>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
+        <f>Toma1y2!P16</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="20">
+        <f>Toma1y2!S16</f>
+        <v>14.27</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V16</f>
+        <v>3.12</v>
+      </c>
+      <c r="I15" s="12">
+        <f>Toma1y2!Y16</f>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1600,26 +1738,32 @@
       <c r="C16">
         <v>1.8</v>
       </c>
-      <c r="D16">
-        <v>15</v>
+      <c r="D16" s="20">
+        <f>Toma1y2!J17</f>
+        <v>16.350000000000001</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <f>Toma1y2!M17</f>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
+        <f>Toma1y2!P17</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="20">
+        <f>Toma1y2!S17</f>
+        <v>15.02</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V17</f>
+        <v>4.78</v>
+      </c>
+      <c r="I16" s="12">
+        <f>Toma3y4!Y3</f>
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1629,26 +1773,32 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>17</v>
+      <c r="D17" s="20">
+        <f>Toma1y2!J18</f>
+        <v>16.78</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <f>Toma1y2!M18</f>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
+        <f>Toma1y2!P18</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="20">
+        <f>Toma1y2!S18</f>
+        <v>11.7</v>
       </c>
       <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V18</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I17" s="12">
+        <f>Toma3y4!Y4</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1658,26 +1808,32 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>14</v>
+      <c r="D18" s="20">
+        <f>Toma1y2!J19</f>
+        <v>15.58</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <f>Toma1y2!M19</f>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
+        <f>Toma1y2!P19</f>
+        <v>9</v>
+      </c>
+      <c r="G18" s="20">
+        <f>Toma1y2!S19</f>
+        <v>14.5</v>
       </c>
       <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V19</f>
+        <v>2.65</v>
+      </c>
+      <c r="I18" s="12">
+        <f>Toma3y4!Y5</f>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1687,26 +1843,32 @@
       <c r="C19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D19">
-        <v>14</v>
+      <c r="D19" s="20">
+        <f>Toma1y2!J20</f>
+        <v>15.52</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <f>Toma1y2!M20</f>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
+        <f>Toma1y2!P20</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="20">
+        <f>Toma1y2!S20</f>
+        <v>13.48</v>
       </c>
       <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V20</f>
+        <v>1.62</v>
+      </c>
+      <c r="I19" s="12">
+        <f>Toma3y4!Y6</f>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1716,26 +1878,32 @@
       <c r="C20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D20">
-        <v>17</v>
+      <c r="D20" s="20">
+        <f>Toma1y2!J21</f>
+        <v>17.23</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <f>Toma1y2!M21</f>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>11</v>
+        <f>Toma3y4!P3</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="20">
+        <f>Toma1y2!S21</f>
+        <v>13.7</v>
       </c>
       <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma1y2!V21</f>
+        <v>1.93</v>
+      </c>
+      <c r="I20" s="12">
+        <f>Toma3y4!Y7</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1745,26 +1913,32 @@
       <c r="C21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D21">
-        <v>14</v>
+      <c r="D21" s="20">
+        <f>Toma3y4!J3</f>
+        <v>15.22</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <f>Toma1y2!M22</f>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>14</v>
+        <f>Toma3y4!P4</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="20">
+        <f>Toma1y2!S22</f>
+        <v>13.87</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V3</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I21" s="12">
+        <f>Toma3y4!Y8</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1774,26 +1948,32 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>15</v>
+      <c r="D22" s="20">
+        <f>Toma3y4!J4</f>
+        <v>15.67</v>
       </c>
       <c r="E22">
+        <f>Toma1y2!M23</f>
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <f>Toma3y4!P5</f>
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
+      <c r="G22" s="20">
+        <f>Toma1y2!S23</f>
+        <v>11.48</v>
       </c>
       <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V4</f>
+        <v>4.37</v>
+      </c>
+      <c r="I22" s="12">
+        <f>Toma3y4!Y9</f>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1803,26 +1983,32 @@
       <c r="C23">
         <v>1.7</v>
       </c>
-      <c r="D23">
-        <v>14</v>
+      <c r="D23" s="20">
+        <f>Toma3y4!J5</f>
+        <v>15.73</v>
       </c>
       <c r="E23">
+        <f>Toma3y4!M3</f>
         <v>6</v>
       </c>
       <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
+        <f>Toma3y4!P6</f>
+        <v>7</v>
+      </c>
+      <c r="G23" s="20">
+        <f>Toma1y2!S24</f>
+        <v>13.15</v>
       </c>
       <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V5</f>
+        <v>3.95</v>
+      </c>
+      <c r="I23" s="12">
+        <f>Toma3y4!Y10</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1832,26 +2018,32 @@
       <c r="C24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D24">
-        <v>15</v>
+      <c r="D24" s="20">
+        <f>Toma3y4!J6</f>
+        <v>16.5</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <f>Toma3y4!M4</f>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>14</v>
+        <f>Toma3y4!P7</f>
+        <v>8</v>
+      </c>
+      <c r="G24" s="20">
+        <f>Toma3y4!S3</f>
+        <v>14.38</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V6</f>
+        <v>2.38</v>
+      </c>
+      <c r="I24" s="12">
+        <f>Toma3y4!Y11</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1861,26 +2053,32 @@
       <c r="C25">
         <v>2.1</v>
       </c>
-      <c r="D25">
-        <v>13</v>
+      <c r="D25" s="20">
+        <f>Toma3y4!J7</f>
+        <v>14.17</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <f>Toma3y4!M5</f>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>13</v>
+        <f>Toma3y4!P8</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="20">
+        <f>Toma3y4!S4</f>
+        <v>15.9</v>
       </c>
       <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V7</f>
+        <v>3.08</v>
+      </c>
+      <c r="I25" s="12">
+        <f>Toma3y4!Y12</f>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1890,26 +2088,32 @@
       <c r="C26">
         <v>1.8</v>
       </c>
-      <c r="D26">
-        <v>13</v>
+      <c r="D26" s="20">
+        <f>Toma3y4!J8</f>
+        <v>15.37</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <f>Toma3y4!M6</f>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>13</v>
+        <f>Toma3y4!P9</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="20">
+        <f>Toma3y4!S5</f>
+        <v>12.6</v>
       </c>
       <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V8</f>
+        <v>3.27</v>
+      </c>
+      <c r="I26" s="12">
+        <f>Toma3y4!Y13</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1919,26 +2123,32 @@
       <c r="C27">
         <v>1.8</v>
       </c>
-      <c r="D27">
-        <v>15</v>
+      <c r="D27" s="20">
+        <f>Toma3y4!J9</f>
+        <v>15.05</v>
       </c>
       <c r="E27">
+        <f>Toma3y4!M7</f>
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <f>Toma3y4!P10</f>
         <v>8</v>
       </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>14</v>
+      <c r="G27" s="20">
+        <f>Toma3y4!S6</f>
+        <v>14.33</v>
       </c>
       <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V9</f>
+        <v>4.97</v>
+      </c>
+      <c r="I27" s="12">
+        <f>Toma3y4!Y14</f>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1948,26 +2158,32 @@
       <c r="C28">
         <v>2.4</v>
       </c>
-      <c r="D28">
-        <v>14</v>
+      <c r="D28" s="20">
+        <f>Toma3y4!J10</f>
+        <v>14.67</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <f>Toma3y4!M8</f>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
+        <f>Toma3y4!P11</f>
+        <v>7</v>
+      </c>
+      <c r="G28" s="20">
+        <f>Toma3y4!S7</f>
+        <v>15.7</v>
       </c>
       <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V10</f>
+        <v>1.25</v>
+      </c>
+      <c r="I28" s="12">
+        <f>Toma3y4!Y15</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1977,26 +2193,32 @@
       <c r="C29">
         <v>2.6</v>
       </c>
-      <c r="D29">
-        <v>17</v>
+      <c r="D29" s="20">
+        <f>Toma3y4!J11</f>
+        <v>15.15</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <f>Toma3y4!M9</f>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
+        <f>Toma3y4!P12</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="20">
+        <f>Toma3y4!S8</f>
+        <v>13.15</v>
       </c>
       <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V11</f>
+        <v>3.9</v>
+      </c>
+      <c r="I29" s="12">
+        <f>Toma3y4!Y16</f>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2006,26 +2228,32 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>16</v>
+      <c r="D30" s="20">
+        <f>Toma3y4!J12</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <f>Toma3y4!M10</f>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>15</v>
+        <f>Toma3y4!P13</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="20">
+        <f>Toma3y4!S9</f>
+        <v>17.329999999999998</v>
       </c>
       <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V12</f>
+        <v>3.8</v>
+      </c>
+      <c r="I30" s="12">
+        <f>Toma3y4!Y17</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2035,26 +2263,32 @@
       <c r="C31">
         <v>1.8</v>
       </c>
-      <c r="D31">
-        <v>18</v>
+      <c r="D31" s="20">
+        <f>Toma3y4!J13</f>
+        <v>15.97</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <f>Toma3y4!M11</f>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>14</v>
+        <f>Toma3y4!P14</f>
+        <v>6</v>
+      </c>
+      <c r="G31" s="20">
+        <f>Toma3y4!S10</f>
+        <v>14.37</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V13</f>
+        <v>5.87</v>
+      </c>
+      <c r="I31" s="12">
+        <f>Toma3y4!Y18</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2064,23 +2298,29 @@
       <c r="C32">
         <v>2.7</v>
       </c>
-      <c r="D32">
-        <v>17</v>
+      <c r="D32" s="20">
+        <f>Toma3y4!J14</f>
+        <v>14.92</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <f>Toma3y4!M12</f>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>14</v>
+        <f>Toma3y4!P15</f>
+        <v>8</v>
+      </c>
+      <c r="G32" s="20">
+        <f>Toma3y4!S11</f>
+        <v>12.12</v>
       </c>
       <c r="H32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V14</f>
+        <v>5.22</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2090,23 +2330,29 @@
       <c r="C33">
         <v>1.6</v>
       </c>
-      <c r="D33">
-        <v>16</v>
+      <c r="D33" s="20">
+        <f>Toma3y4!J15</f>
+        <v>12.85</v>
       </c>
       <c r="E33">
+        <f>Toma3y4!M13</f>
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <f>Toma3y4!P16</f>
         <v>8</v>
       </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>14</v>
+      <c r="G33" s="20">
+        <f>Toma3y4!S12</f>
+        <v>15.17</v>
       </c>
       <c r="H33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V15</f>
+        <v>3.13</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2116,23 +2362,29 @@
       <c r="C34">
         <v>1.7</v>
       </c>
-      <c r="D34">
-        <v>15</v>
+      <c r="D34" s="20">
+        <f>Toma3y4!J16</f>
+        <v>15.97</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <f>Toma3y4!M14</f>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34">
-        <v>12</v>
+        <f>Toma3y4!P17</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="20">
+        <f>Toma3y4!S13</f>
+        <v>14.67</v>
       </c>
       <c r="H34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V16</f>
+        <v>1.05</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2142,23 +2394,29 @@
       <c r="C35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D35">
-        <v>15</v>
+      <c r="D35" s="20">
+        <f>Toma3y4!J17</f>
+        <v>14.8</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <f>Toma3y4!M15</f>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>13</v>
+        <f>Toma3y4!P18</f>
+        <v>9</v>
+      </c>
+      <c r="G35" s="20">
+        <f>Toma3y4!S14</f>
+        <v>12.33</v>
       </c>
       <c r="H35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V17</f>
+        <v>1.18</v>
+      </c>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2168,20 +2426,24 @@
       <c r="C36">
         <v>1.7</v>
       </c>
-      <c r="D36">
-        <v>15</v>
+      <c r="D36" s="20">
+        <f>Toma3y4!J18</f>
+        <v>16.98</v>
       </c>
       <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="G36">
-        <v>14</v>
+        <f>Toma3y4!M16</f>
+        <v>11</v>
+      </c>
+      <c r="G36" s="20">
+        <f>Toma3y4!S15</f>
+        <v>13.1</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V18</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2191,20 +2453,24 @@
       <c r="C37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D37">
-        <v>15</v>
+      <c r="D37" s="20">
+        <f>Toma3y4!J19</f>
+        <v>16.07</v>
       </c>
       <c r="E37">
-        <v>9</v>
-      </c>
-      <c r="G37">
-        <v>16</v>
+        <f>Toma3y4!M17</f>
+        <v>10</v>
+      </c>
+      <c r="G37" s="20">
+        <f>Toma3y4!S16</f>
+        <v>11.83</v>
       </c>
       <c r="H37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V19</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2214,17 +2480,24 @@
       <c r="C38">
         <v>1.7</v>
       </c>
-      <c r="D38">
-        <v>14</v>
+      <c r="D38" s="20">
+        <f>Toma3y4!J20</f>
+        <v>16.079999999999998</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <f>Toma3y4!M18</f>
+        <v>8</v>
+      </c>
+      <c r="G38" s="20">
+        <f>Toma3y4!S17</f>
+        <v>13.33</v>
       </c>
       <c r="H38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V20</f>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2234,17 +2507,20 @@
       <c r="C39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D39">
-        <v>17</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
+      <c r="D39" s="20">
+        <f>Toma3y4!J21</f>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G39" s="20">
+        <f>Toma3y4!S18</f>
+        <v>12.92</v>
       </c>
       <c r="H39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V21</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2254,14 +2530,20 @@
       <c r="C40">
         <v>1.9</v>
       </c>
-      <c r="D40">
-        <v>14</v>
+      <c r="D40" s="20">
+        <f>Toma3y4!J22</f>
+        <v>14.93</v>
+      </c>
+      <c r="G40" s="20">
+        <f>Toma3y4!S19</f>
+        <v>13.82</v>
       </c>
       <c r="H40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V22</f>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2271,14 +2553,20 @@
       <c r="C41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D41">
-        <v>17</v>
+      <c r="D41" s="20">
+        <f>Toma3y4!J23</f>
+        <v>15.38</v>
+      </c>
+      <c r="G41" s="20">
+        <f>Toma3y4!S20</f>
+        <v>13.88</v>
       </c>
       <c r="H41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V23</f>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2288,14 +2576,20 @@
       <c r="C42">
         <v>2.5</v>
       </c>
-      <c r="D42">
-        <v>15</v>
+      <c r="D42" s="20">
+        <f>Toma3y4!J24</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="G42" s="20">
+        <f>Toma3y4!S21</f>
+        <v>10.87</v>
       </c>
       <c r="H42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V24</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2305,77 +2599,92 @@
       <c r="C43">
         <v>1.9</v>
       </c>
-      <c r="D43">
-        <v>13</v>
+      <c r="D43" s="20">
+        <f>Toma3y4!J25</f>
+        <v>16.12</v>
+      </c>
+      <c r="G43" s="20">
+        <f>Toma3y4!S22</f>
+        <v>13.72</v>
       </c>
       <c r="H43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V25</f>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D44">
-        <v>16</v>
+      <c r="D44" s="20">
+        <f>Toma3y4!J26</f>
+        <v>16.07</v>
+      </c>
+      <c r="G44" s="20">
+        <f>Toma3y4!S23</f>
+        <v>11.82</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V26</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45">
         <v>1.4</v>
       </c>
+      <c r="G45" s="20">
+        <f>Toma3y4!S24</f>
+        <v>13.3</v>
+      </c>
       <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <f>Toma3y4!V27</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="C46">
         <v>1.9</v>
       </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="C47">
         <v>1.6</v>
       </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="C48">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2389,136 +2698,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" thickBot="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="W2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2528,7 +2840,7 @@
       <c r="C3" s="7">
         <v>0.50194444444444442</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>2.8</v>
       </c>
       <c r="E3" s="6">
@@ -2537,17 +2849,17 @@
       <c r="F3" s="7">
         <v>0.50138888888888888</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="11">
         <v>2</v>
       </c>
       <c r="H3" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="I3" s="7">
-        <v>0.42569444444444449</v>
+        <v>0.42549768518518521</v>
       </c>
       <c r="J3" s="5">
-        <v>13</v>
+        <v>12.72</v>
       </c>
       <c r="K3" s="6">
         <v>0.5</v>
@@ -2568,34 +2880,36 @@
         <v>12</v>
       </c>
       <c r="Q3" s="6">
-        <v>0.5</v>
+        <v>0.50005787037037031</v>
       </c>
       <c r="R3" s="7">
-        <v>0.50902777777777775</v>
+        <v>0.50893518518518521</v>
       </c>
       <c r="S3" s="5">
-        <v>13</v>
+        <v>13.78</v>
       </c>
       <c r="T3" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.54175925925925927</v>
       </c>
       <c r="U3" s="7">
-        <v>0.54374999999999996</v>
+        <v>0.54417824074074073</v>
       </c>
       <c r="V3" s="5">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="W3" s="6">
         <v>0.625</v>
       </c>
       <c r="X3" s="7">
-        <v>0.62777777777777777</v>
+        <v>0.62802083333333336</v>
       </c>
       <c r="Y3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2605,7 +2919,7 @@
       <c r="C4" s="7">
         <v>0.50861111111111101</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>2.6</v>
       </c>
       <c r="E4" s="6">
@@ -2614,17 +2928,17 @@
       <c r="F4" s="7">
         <v>0.50555555555555554</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>2</v>
       </c>
       <c r="H4" s="6">
-        <v>0.42569444444444449</v>
+        <v>0.42600694444444448</v>
       </c>
       <c r="I4" s="7">
-        <v>0.43611111111111117</v>
+        <v>0.43604166666666666</v>
       </c>
       <c r="J4" s="5">
-        <v>15</v>
+        <v>14.45</v>
       </c>
       <c r="K4" s="6">
         <v>0.50902777777777775</v>
@@ -2645,34 +2959,36 @@
         <v>5</v>
       </c>
       <c r="Q4" s="6">
-        <v>0.51180555555555551</v>
+        <v>0.51194444444444442</v>
       </c>
       <c r="R4" s="7">
-        <v>0.5215277777777777</v>
+        <v>0.5218518518518519</v>
       </c>
       <c r="S4" s="5">
-        <v>14</v>
+        <v>14.27</v>
       </c>
       <c r="T4" s="6">
-        <v>0.54583333333333328</v>
+        <v>0.54594907407407411</v>
       </c>
       <c r="U4" s="7">
-        <v>0.54861111111111105</v>
+        <v>0.54887731481481483</v>
       </c>
       <c r="V4" s="5">
-        <v>4</v>
+        <v>4.22</v>
       </c>
       <c r="W4" s="6">
         <v>0.62847222222222221</v>
       </c>
       <c r="X4" s="7">
-        <v>0.62916666666666665</v>
+        <v>0.62932870370370375</v>
       </c>
       <c r="Y4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.23</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2682,7 +2998,7 @@
       <c r="C5" s="7">
         <v>0.51548611111111098</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>2.9</v>
       </c>
       <c r="E5" s="6">
@@ -2691,17 +3007,17 @@
       <c r="F5" s="7">
         <v>0.50923611111111111</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="H5" s="6">
-        <v>0.43611111111111117</v>
+        <v>0.43626157407407407</v>
       </c>
       <c r="I5" s="7">
-        <v>0.44583333333333341</v>
+        <v>0.44556712962962958</v>
       </c>
       <c r="J5" s="5">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="K5" s="6">
         <v>0.51458333333333328</v>
@@ -2722,34 +3038,36 @@
         <v>12</v>
       </c>
       <c r="Q5" s="6">
-        <v>0.52430555555555547</v>
+        <v>0.52459490740740744</v>
       </c>
       <c r="R5" s="7">
-        <v>0.5347222222222221</v>
+        <v>0.53502314814814811</v>
       </c>
       <c r="S5" s="5">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="T5" s="6">
-        <v>0.55069444444444438</v>
+        <v>0.5509722222222222</v>
       </c>
       <c r="U5" s="7">
-        <v>0.55138888888888882</v>
+        <v>0.55171296296296302</v>
       </c>
       <c r="V5" s="5">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="W5" s="6">
         <v>0.62986111111111109</v>
       </c>
       <c r="X5" s="7">
-        <v>0.63124999999999998</v>
+        <v>0.63226851851851851</v>
       </c>
       <c r="Y5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.47</v>
+      </c>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2759,7 +3077,7 @@
       <c r="C6" s="7">
         <v>0.52284722222222202</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>2.6</v>
       </c>
       <c r="E6" s="6">
@@ -2768,17 +3086,17 @@
       <c r="F6" s="7">
         <v>0.51354166666666667</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>2.2000000000000002</v>
       </c>
       <c r="H6" s="6">
-        <v>0.44583333333333341</v>
+        <v>0.44592592592592589</v>
       </c>
       <c r="I6" s="7">
-        <v>0.45763888888888898</v>
+        <v>0.4573726851851852</v>
       </c>
       <c r="J6" s="5">
-        <v>17</v>
+        <v>16.48</v>
       </c>
       <c r="K6" s="6">
         <v>0.52569444444444435</v>
@@ -2799,34 +3117,36 @@
         <v>9</v>
       </c>
       <c r="Q6" s="6">
-        <v>0.53749999999999987</v>
+        <v>0.53758101851851847</v>
       </c>
       <c r="R6" s="7">
-        <v>0.54513888888888873</v>
+        <v>0.54570601851851852</v>
       </c>
       <c r="S6" s="5">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="T6" s="6">
-        <v>0.55347222222222214</v>
+        <v>0.55364583333333328</v>
       </c>
       <c r="U6" s="7">
-        <v>0.55624999999999991</v>
+        <v>0.55677083333333333</v>
       </c>
       <c r="V6" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W6" s="6">
         <v>0.6333333333333333</v>
       </c>
       <c r="X6" s="7">
-        <v>0.63402777777777775</v>
+        <v>0.63620370370370372</v>
       </c>
       <c r="Y6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4.13</v>
+      </c>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2836,7 +3156,7 @@
       <c r="C7" s="7">
         <v>0.52958333333333307</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>2.7</v>
       </c>
       <c r="E7" s="6">
@@ -2845,17 +3165,17 @@
       <c r="F7" s="7">
         <v>0.51791666666666669</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="H7" s="6">
-        <v>0.45763888888888898</v>
+        <v>0.45770833333333333</v>
       </c>
       <c r="I7" s="7">
-        <v>0.46875000000000011</v>
+        <v>0.46849537037037042</v>
       </c>
       <c r="J7" s="5">
-        <v>16</v>
+        <v>15.53</v>
       </c>
       <c r="K7" s="6">
         <v>0.53402777777777766</v>
@@ -2876,34 +3196,36 @@
         <v>15</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.54722222222222205</v>
+        <v>0.54771990740740739</v>
       </c>
       <c r="R7" s="7">
-        <v>0.55763888888888868</v>
+        <v>0.55778935185185186</v>
       </c>
       <c r="S7" s="5">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="T7" s="6">
-        <v>0.55902777777777768</v>
+        <v>0.55938657407407411</v>
       </c>
       <c r="U7" s="7">
-        <v>0.56111111111111101</v>
+        <v>0.56126157407407407</v>
       </c>
       <c r="V7" s="5">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="W7" s="6">
         <v>0.63611111111111107</v>
       </c>
       <c r="X7" s="7">
-        <v>0.63749999999999996</v>
+        <v>0.63804398148148145</v>
       </c>
       <c r="Y7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.78</v>
+      </c>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2913,7 +3235,7 @@
       <c r="C8" s="7">
         <v>0.53631944444444413</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>2.7</v>
       </c>
       <c r="E8" s="6">
@@ -2922,17 +3244,17 @@
       <c r="F8" s="7">
         <v>0.5213888888888889</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>2</v>
       </c>
       <c r="H8" s="6">
-        <v>0.46875000000000011</v>
+        <v>0.46880787037037036</v>
       </c>
       <c r="I8" s="7">
-        <v>0.48125000000000012</v>
+        <v>0.4808796296296296</v>
       </c>
       <c r="J8" s="5">
-        <v>18</v>
+        <v>17.38</v>
       </c>
       <c r="K8" s="6">
         <v>0.54027777777777763</v>
@@ -2953,19 +3275,19 @@
         <v>8</v>
       </c>
       <c r="Q8" s="6">
-        <v>0.56041666666666645</v>
+        <v>0.56106481481481485</v>
       </c>
       <c r="R8" s="7">
-        <v>0.57013888888888864</v>
+        <v>0.56973379629629628</v>
       </c>
       <c r="S8" s="5">
-        <v>14</v>
+        <v>13.48</v>
       </c>
       <c r="T8" s="6">
-        <v>0.56388888888888877</v>
+        <v>0.56422453703703701</v>
       </c>
       <c r="U8" s="7">
-        <v>0.56527777777777766</v>
+        <v>0.56561342592592589</v>
       </c>
       <c r="V8" s="5">
         <v>2</v>
@@ -2974,13 +3296,15 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="X8" s="7">
-        <v>0.64097222222222217</v>
+        <v>0.64136574074074071</v>
       </c>
       <c r="Y8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.57</v>
+      </c>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2990,7 +3314,7 @@
       <c r="C9" s="7">
         <v>0.543333333333333</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>3.1</v>
       </c>
       <c r="E9" s="6">
@@ -2999,17 +3323,17 @@
       <c r="F9" s="7">
         <v>0.52534722222222219</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>1.7</v>
       </c>
       <c r="H9" s="6">
-        <v>0.48125000000000012</v>
+        <v>0.481412037037037</v>
       </c>
       <c r="I9" s="7">
-        <v>0.49305555555555569</v>
+        <v>0.4929398148148148</v>
       </c>
       <c r="J9" s="5">
-        <v>17</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K9" s="6">
         <v>0.54722222222222205</v>
@@ -3030,34 +3354,36 @@
         <v>10</v>
       </c>
       <c r="Q9" s="6">
-        <v>0.57222222222222197</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="R9" s="7">
-        <v>0.58194444444444415</v>
+        <v>0.58201388888888894</v>
       </c>
       <c r="S9" s="5">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="T9" s="6">
-        <v>0.56736111111111098</v>
+        <v>0.56763888888888892</v>
       </c>
       <c r="U9" s="7">
-        <v>0.56874999999999987</v>
+        <v>0.56892361111111112</v>
       </c>
       <c r="V9" s="5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W9" s="6">
         <v>0.64236111111111105</v>
       </c>
       <c r="X9" s="7">
-        <v>0.64305555555555549</v>
+        <v>0.64465277777777785</v>
       </c>
       <c r="Y9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3067,7 +3393,7 @@
       <c r="C10" s="7">
         <v>0.55111111111111077</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>3.2</v>
       </c>
       <c r="E10" s="6">
@@ -3076,17 +3402,17 @@
       <c r="F10" s="7">
         <v>0.52895833333333331</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>2.2000000000000002</v>
       </c>
       <c r="H10" s="6">
-        <v>0.49305555555555569</v>
+        <v>0.49317129629629625</v>
       </c>
       <c r="I10" s="7">
-        <v>0.50416666666666676</v>
+        <v>0.50413194444444442</v>
       </c>
       <c r="J10" s="5">
-        <v>16</v>
+        <v>15.78</v>
       </c>
       <c r="K10" s="6">
         <v>0.55555555555555536</v>
@@ -3107,34 +3433,36 @@
         <v>12</v>
       </c>
       <c r="Q10" s="6">
-        <v>0.58402777777777748</v>
+        <v>0.58460648148148142</v>
       </c>
       <c r="R10" s="7">
-        <v>0.59374999999999967</v>
+        <v>0.59423611111111108</v>
       </c>
       <c r="S10" s="5">
-        <v>14</v>
+        <v>13.87</v>
       </c>
       <c r="T10" s="6">
-        <v>0.57083333333333319</v>
+        <v>0.57087962962962957</v>
       </c>
       <c r="U10" s="7">
-        <v>0.57152777777777763</v>
+        <v>0.57182870370370364</v>
       </c>
       <c r="V10" s="5">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="W10" s="6">
         <v>0.64513888888888882</v>
       </c>
       <c r="X10" s="7">
-        <v>0.64722222222222214</v>
+        <v>0.64770833333333333</v>
       </c>
       <c r="Y10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3144,7 +3472,7 @@
       <c r="C11" s="7">
         <v>0.55888888888888855</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>3.2</v>
       </c>
       <c r="E11" s="6">
@@ -3153,17 +3481,17 @@
       <c r="F11" s="7">
         <v>0.53319444444444442</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="11">
         <v>2.1</v>
       </c>
       <c r="H11" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9.375E-2</v>
+        <v>0.50416666666666676</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.51521990740740742</v>
       </c>
       <c r="J11" s="5">
-        <v>15</v>
+        <v>15.92</v>
       </c>
       <c r="K11" s="6">
         <v>0.56527777777777755</v>
@@ -3184,34 +3512,36 @@
         <v>7</v>
       </c>
       <c r="Q11" s="6">
-        <v>0.59583333333333299</v>
+        <v>0.59630787037037036</v>
       </c>
       <c r="R11" s="7">
-        <v>0.6041666666666663</v>
+        <v>0.60428240740740746</v>
       </c>
       <c r="S11" s="5">
-        <v>12</v>
+        <v>11.48</v>
       </c>
       <c r="T11" s="6">
-        <v>0.5743055555555554</v>
+        <v>0.5744097222222222</v>
       </c>
       <c r="U11" s="7">
-        <v>0.57569444444444429</v>
+        <v>0.57589120370370372</v>
       </c>
       <c r="V11" s="5">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="W11" s="6">
         <v>0.64861111111111103</v>
       </c>
       <c r="X11" s="7">
-        <v>0.64999999999999991</v>
+        <v>0.65049768518518525</v>
       </c>
       <c r="Y11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.72</v>
+      </c>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3221,7 +3551,7 @@
       <c r="C12" s="7">
         <v>0.56659722222222186</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>3.1</v>
       </c>
       <c r="E12" s="6">
@@ -3230,17 +3560,17 @@
       <c r="F12" s="7">
         <v>0.53722222222222216</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>1.8</v>
       </c>
       <c r="H12" s="6">
-        <v>9.375E-2</v>
+        <v>9.5277777777777781E-2</v>
       </c>
       <c r="I12" s="7">
-        <v>0.10416666666666667</v>
+        <v>0.10607638888888889</v>
       </c>
       <c r="J12" s="5">
-        <v>15</v>
+        <v>15.55</v>
       </c>
       <c r="K12" s="6">
         <v>0.57291666666666641</v>
@@ -3261,34 +3591,36 @@
         <v>11</v>
       </c>
       <c r="Q12" s="6">
-        <v>0.60624999999999962</v>
+        <v>0.60645833333333332</v>
       </c>
       <c r="R12" s="7">
-        <v>0.61527777777777737</v>
+        <v>0.61559027777777775</v>
       </c>
       <c r="S12" s="5">
-        <v>13</v>
+        <v>13.15</v>
       </c>
       <c r="T12" s="6">
-        <v>0.57777777777777761</v>
+        <v>0.57797453703703705</v>
       </c>
       <c r="U12" s="7">
-        <v>0.58055555555555538</v>
+        <v>0.58103009259259253</v>
       </c>
       <c r="V12" s="5">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W12" s="6">
         <v>0.65069444444444435</v>
       </c>
       <c r="X12" s="7">
-        <v>0.65347222222222212</v>
+        <v>0.6535185185185185</v>
       </c>
       <c r="Y12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4.07</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3298,7 +3630,7 @@
       <c r="C13" s="7">
         <v>0.57409722222222181</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>2.8</v>
       </c>
       <c r="E13" s="6">
@@ -3307,17 +3639,18 @@
       <c r="F13" s="7">
         <v>0.5412499999999999</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="11">
         <v>1.8</v>
       </c>
       <c r="H13" s="6">
-        <v>0.10416666666666667</v>
+        <f t="shared" ref="H13:H18" si="0">I12</f>
+        <v>0.10607638888888889</v>
       </c>
       <c r="I13" s="7">
-        <v>0.11458333333333334</v>
+        <v>0.11756944444444445</v>
       </c>
       <c r="J13" s="5">
-        <v>15</v>
+        <v>16.55</v>
       </c>
       <c r="K13" s="6">
         <v>0.58124999999999971</v>
@@ -3338,34 +3671,36 @@
         <v>12</v>
       </c>
       <c r="Q13" s="6">
-        <v>0.61736111111111069</v>
+        <v>0.61741898148148155</v>
       </c>
       <c r="R13" s="7">
-        <v>0.62708333333333288</v>
+        <v>0.62717592592592586</v>
       </c>
       <c r="S13" s="5">
-        <v>14</v>
+        <v>14.05</v>
       </c>
       <c r="T13" s="6">
-        <v>0.58263888888888871</v>
+        <v>0.58277777777777773</v>
       </c>
       <c r="U13" s="7">
-        <v>0.58472222222222203</v>
+        <v>0.58498842592592593</v>
       </c>
       <c r="V13" s="5">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="W13" s="6">
         <v>0.65555555555555545</v>
       </c>
       <c r="X13" s="7">
-        <v>0.65833333333333321</v>
+        <v>0.65848379629629628</v>
       </c>
       <c r="Y13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4.22</v>
+      </c>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3375,7 +3710,7 @@
       <c r="C14" s="7">
         <v>0.58131944444444406</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <v>3.4</v>
       </c>
       <c r="E14" s="6">
@@ -3384,17 +3719,18 @@
       <c r="F14" s="7">
         <v>0.54499999999999993</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="11">
         <v>2.4</v>
       </c>
       <c r="H14" s="6">
-        <v>0.11458333333333334</v>
+        <f t="shared" si="0"/>
+        <v>0.11756944444444445</v>
       </c>
       <c r="I14" s="7">
-        <v>0.125</v>
+        <v>0.12811342592592592</v>
       </c>
       <c r="J14" s="5">
-        <v>15</v>
+        <v>15.18</v>
       </c>
       <c r="K14" s="6">
         <v>0.58749999999999969</v>
@@ -3415,34 +3751,36 @@
         <v>11</v>
       </c>
       <c r="Q14" s="6">
-        <v>0.62916666666666621</v>
+        <v>0.62936342592592587</v>
       </c>
       <c r="R14" s="7">
-        <v>0.64027777777777728</v>
+        <v>0.64090277777777771</v>
       </c>
       <c r="S14" s="5">
-        <v>16</v>
+        <v>16.62</v>
       </c>
       <c r="T14" s="6">
-        <v>0.5874999999999998</v>
+        <v>0.58780092592592592</v>
       </c>
       <c r="U14" s="7">
-        <v>0.59097222222222201</v>
+        <v>0.59141203703703704</v>
       </c>
       <c r="V14" s="5">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="W14" s="6">
         <v>0.6597222222222221</v>
       </c>
       <c r="X14" s="7">
-        <v>0.66111111111111098</v>
+        <v>0.66153935185185186</v>
       </c>
       <c r="Y14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.62</v>
+      </c>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3452,7 +3790,7 @@
       <c r="C15" s="7">
         <v>0.58861111111111075</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
         <v>3.5</v>
       </c>
       <c r="E15" s="6">
@@ -3461,17 +3799,18 @@
       <c r="F15" s="7">
         <v>0.5495833333333332</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="11">
         <v>2.6</v>
       </c>
       <c r="H15" s="6">
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.12811342592592592</v>
       </c>
       <c r="I15" s="7">
-        <v>0.13472222222222222</v>
+        <v>0.14071759259259259</v>
       </c>
       <c r="J15" s="5">
-        <v>14</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="K15" s="6">
         <v>0.59722222222222188</v>
@@ -3492,34 +3831,36 @@
         <v>9</v>
       </c>
       <c r="Q15" s="6">
-        <v>0.64305555555555505</v>
+        <v>0.64332175925925927</v>
       </c>
       <c r="R15" s="7">
-        <v>0.64305555555555505</v>
+        <v>0.65219907407407407</v>
       </c>
       <c r="S15" s="5">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="T15" s="6">
-        <v>0.59305555555555534</v>
+        <v>0.5930671296296296</v>
       </c>
       <c r="U15" s="7">
-        <v>0.59513888888888866</v>
+        <v>0.59547453703703701</v>
       </c>
       <c r="V15" s="5">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="W15" s="6">
         <v>0.66249999999999987</v>
       </c>
       <c r="X15" s="7">
-        <v>0.66319444444444431</v>
+        <v>0.66469907407407403</v>
       </c>
       <c r="Y15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.17</v>
+      </c>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3529,7 +3870,7 @@
       <c r="C16" s="7">
         <v>0.59569444444444408</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="11">
         <v>3.2</v>
       </c>
       <c r="E16" s="6">
@@ -3538,17 +3879,18 @@
       <c r="F16" s="7">
         <v>0.55305555555555541</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="11">
         <v>2</v>
       </c>
       <c r="H16" s="6">
-        <v>0.13472222222222222</v>
+        <f t="shared" si="0"/>
+        <v>0.14071759259259259</v>
       </c>
       <c r="I16" s="7">
-        <v>0.14652777777777776</v>
+        <v>0.15262731481481481</v>
       </c>
       <c r="J16" s="5">
-        <v>17</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="K16" s="6">
         <v>0.60833333333333295</v>
@@ -3572,25 +3914,33 @@
         <v>0.64513888888888837</v>
       </c>
       <c r="R16" s="7">
-        <v>0.64513888888888837</v>
+        <v>0.65504629629629585</v>
       </c>
       <c r="S16" s="5">
-        <v>0</v>
+        <v>14.27</v>
       </c>
       <c r="T16" s="6">
-        <v>0.59791666666666643</v>
+        <v>0.59798611111111111</v>
       </c>
       <c r="U16" s="7">
-        <v>0.59999999999999976</v>
+        <v>0.60015046296296293</v>
       </c>
       <c r="V16" s="5">
-        <v>3</v>
-      </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.12</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0.66557870370370364</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3600,7 +3950,7 @@
       <c r="C17" s="7">
         <v>0.60236111111111068</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>2.6</v>
       </c>
       <c r="E17" s="6">
@@ -3609,17 +3959,18 @@
       <c r="F17" s="7">
         <v>0.55638888888888871</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <v>1.8</v>
       </c>
       <c r="H17" s="6">
-        <v>0.14652777777777776</v>
+        <f t="shared" si="0"/>
+        <v>0.15262731481481481</v>
       </c>
       <c r="I17" s="7">
-        <v>0.15624999999999997</v>
+        <v>0.16398148148148148</v>
       </c>
       <c r="J17" s="5">
-        <v>14</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="K17" s="6">
         <v>0.61458333333333293</v>
@@ -3634,34 +3985,34 @@
         <v>0.63333333333333286</v>
       </c>
       <c r="O17" s="7">
-        <v>0.63749999999999951</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="P17" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="6">
-        <v>0.64791666666666614</v>
+        <v>0.6480555555555555</v>
       </c>
       <c r="R17" s="7">
-        <v>0.64791666666666614</v>
+        <v>0.65848379629629616</v>
       </c>
       <c r="S17" s="5">
-        <v>0</v>
+        <v>15.02</v>
       </c>
       <c r="T17" s="6">
         <v>0.60277777777777752</v>
       </c>
       <c r="U17" s="7">
-        <v>0.60555555555555529</v>
+        <v>0.60609953703703701</v>
       </c>
       <c r="V17" s="5">
-        <v>4</v>
+        <v>4.78</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3671,7 +4022,7 @@
       <c r="C18" s="7">
         <v>0.60888888888888848</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="11">
         <v>2.4</v>
       </c>
       <c r="E18" s="6">
@@ -3680,17 +4031,18 @@
       <c r="F18" s="7">
         <v>0.56104166666666644</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <v>2.7</v>
       </c>
       <c r="H18" s="6">
-        <v>0.15624999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.16398148148148148</v>
       </c>
       <c r="I18" s="7">
-        <v>0.16805555555555554</v>
+        <v>0.17563657407407407</v>
       </c>
       <c r="J18" s="5">
-        <v>17</v>
+        <v>16.78</v>
       </c>
       <c r="K18" s="6">
         <v>0.62291666666666623</v>
@@ -3705,34 +4057,34 @@
         <v>0.64027777777777728</v>
       </c>
       <c r="O18" s="7">
-        <v>0.64444444444444393</v>
+        <v>0.64722222222222225</v>
       </c>
       <c r="P18" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="6">
-        <v>0.65069444444444391</v>
+        <v>0.65079861111111115</v>
       </c>
       <c r="R18" s="7">
-        <v>0.65069444444444391</v>
+        <v>0.6589236111111112</v>
       </c>
       <c r="S18" s="5">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="T18" s="6">
-        <v>0.60763888888888862</v>
+        <v>0.60803240740740738</v>
       </c>
       <c r="U18" s="7">
-        <v>0.60833333333333306</v>
+        <v>0.60881944444444447</v>
       </c>
       <c r="V18" s="5">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3742,7 +4094,7 @@
       <c r="C19" s="7">
         <v>0.61638888888888843</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <v>2.8</v>
       </c>
       <c r="E19" s="6">
@@ -3751,17 +4103,17 @@
       <c r="F19" s="7">
         <v>0.56423611111111083</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="11">
         <v>1.6</v>
       </c>
       <c r="H19" s="6">
-        <v>0.16805555555555551</v>
+        <v>0.17579861111111109</v>
       </c>
       <c r="I19" s="7">
-        <v>0.17847222222222217</v>
+        <v>0.18662037037037038</v>
       </c>
       <c r="J19" s="5">
-        <v>15</v>
+        <v>15.58</v>
       </c>
       <c r="K19" s="6">
         <v>0.63263888888888842</v>
@@ -3776,34 +4128,34 @@
         <v>0.6472222222222217</v>
       </c>
       <c r="O19" s="7">
-        <v>0.65069444444444391</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="P19" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q19" s="6">
-        <v>0.65277777777777724</v>
+        <v>0.65296296296296297</v>
       </c>
       <c r="R19" s="7">
-        <v>0.65277777777777724</v>
+        <v>0.66303240740740743</v>
       </c>
       <c r="S19" s="5">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="T19" s="6">
-        <v>0.61111111111111083</v>
+        <v>0.61116898148148147</v>
       </c>
       <c r="U19" s="7">
-        <v>0.61249999999999971</v>
+        <v>0.6130092592592592</v>
       </c>
       <c r="V19" s="5">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3813,7 +4165,7 @@
       <c r="C20" s="7">
         <v>0.62368055555555513</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="11">
         <v>2.5</v>
       </c>
       <c r="E20" s="6">
@@ -3822,17 +4174,17 @@
       <c r="F20" s="7">
         <v>0.56749999999999967</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="11">
         <v>1.7</v>
       </c>
       <c r="H20" s="6">
-        <v>0.17847222222222217</v>
+        <v>0.18688657407407408</v>
       </c>
       <c r="I20" s="7">
-        <v>0.18749999999999994</v>
+        <v>0.19766203703703702</v>
       </c>
       <c r="J20" s="5">
-        <v>13</v>
+        <v>15.52</v>
       </c>
       <c r="K20" s="6">
         <v>0.64027777777777728</v>
@@ -3844,37 +4196,37 @@
         <v>7</v>
       </c>
       <c r="N20" s="6">
-        <v>0.65277777777777724</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="O20" s="7">
-        <v>0.65972222222222165</v>
+        <v>0.66041666666666665</v>
       </c>
       <c r="P20" s="4">
         <v>10</v>
       </c>
       <c r="Q20" s="6">
-        <v>0.65486111111111056</v>
+        <v>0.65545138888888888</v>
       </c>
       <c r="R20" s="7">
-        <v>0.65486111111111056</v>
+        <v>0.66481481481481475</v>
       </c>
       <c r="S20" s="5">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="T20" s="6">
-        <v>0.61527777777777748</v>
+        <v>0.61564814814814817</v>
       </c>
       <c r="U20" s="7">
-        <v>0.61666666666666636</v>
+        <v>0.61677083333333338</v>
       </c>
       <c r="V20" s="5">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3884,7 +4236,7 @@
       <c r="C21" s="7">
         <v>0.63118055555555508</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="11">
         <v>2.8</v>
       </c>
       <c r="E21" s="6">
@@ -3893,17 +4245,17 @@
       <c r="F21" s="7">
         <v>0.57187499999999969</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="H21" s="6">
-        <v>0.18749999999999994</v>
+        <v>0.1980787037037037</v>
       </c>
       <c r="I21" s="7">
-        <v>0.19861111111111104</v>
+        <v>0.21004629629629631</v>
       </c>
       <c r="J21" s="5">
-        <v>16</v>
+        <v>17.23</v>
       </c>
       <c r="K21" s="6">
         <v>0.6472222222222217</v>
@@ -3918,28 +4270,28 @@
       <c r="O21" s="7"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="6">
-        <v>0.65763888888888833</v>
+        <v>0.65800925925925924</v>
       </c>
       <c r="R21" s="7">
-        <v>0.65763888888888833</v>
+        <v>0.66752314814814817</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="T21" s="6">
-        <v>0.61944444444444413</v>
+        <v>0.61964120370370368</v>
       </c>
       <c r="U21" s="7">
-        <v>0.62083333333333302</v>
+        <v>0.6209837962962963</v>
       </c>
       <c r="V21" s="5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3949,7 +4301,7 @@
       <c r="C22" s="7">
         <v>0.63847222222222177</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <v>2.5</v>
       </c>
       <c r="E22" s="6">
@@ -3958,7 +4310,7 @@
       <c r="F22" s="7">
         <v>0.57513888888888853</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="11">
         <v>1.7</v>
       </c>
       <c r="H22" s="6"/>
@@ -3977,13 +4329,13 @@
       <c r="O22" s="7"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="6">
-        <v>0.6604166666666661</v>
+        <v>0.66046296296296292</v>
       </c>
       <c r="R22" s="7">
-        <v>0.6604166666666661</v>
+        <v>0.66939814814814813</v>
       </c>
       <c r="S22" s="5">
-        <v>0</v>
+        <v>13.87</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="7"/>
@@ -3992,7 +4344,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4002,7 +4354,7 @@
       <c r="C23" s="7">
         <v>0.64541666666666619</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="11">
         <v>3</v>
       </c>
       <c r="E23" s="6">
@@ -4011,11 +4363,11 @@
       <c r="F23" s="7">
         <v>0.57951388888888855</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6">
         <v>0.66180555555555498</v>
@@ -4030,13 +4382,13 @@
       <c r="O23" s="7"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="6">
-        <v>0.66249999999999942</v>
+        <v>0.66274305555555557</v>
       </c>
       <c r="R23" s="7">
-        <v>0.66249999999999942</v>
+        <v>0.67071759259259267</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="7"/>
@@ -4045,7 +4397,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4055,7 +4407,7 @@
       <c r="C24" s="7">
         <v>0.65270833333333289</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="11">
         <v>3.5</v>
       </c>
       <c r="E24" s="6">
@@ -4064,7 +4416,7 @@
       <c r="F24" s="7">
         <v>0.58347222222222184</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="11">
         <v>1.7</v>
       </c>
       <c r="H24" s="6"/>
@@ -4077,13 +4429,13 @@
       <c r="O24" s="7"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="6">
-        <v>0.66527777777777719</v>
+        <v>0.66530092592592593</v>
       </c>
       <c r="R24" s="7">
-        <v>0.66527777777777719</v>
+        <v>0.67435185185185187</v>
       </c>
       <c r="S24" s="5">
-        <v>0</v>
+        <v>13.15</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
@@ -4092,7 +4444,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4102,7 +4454,7 @@
       <c r="C25" s="7">
         <v>0.66041666666666621</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="11">
         <v>3.1</v>
       </c>
       <c r="E25" s="6">
@@ -4111,7 +4463,7 @@
       <c r="F25" s="7">
         <v>0.58708333333333296</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="11">
         <v>2.2000000000000002</v>
       </c>
       <c r="H25" s="6"/>
@@ -4133,20 +4485,20 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="6">
         <v>0.58916666666666628</v>
       </c>
       <c r="F26" s="7">
         <v>0.59048611111111071</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="11">
         <v>1.9</v>
       </c>
       <c r="H26" s="6"/>
@@ -4168,20 +4520,20 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="6">
         <v>0.59256944444444404</v>
       </c>
       <c r="F27" s="7">
         <v>0.59416666666666629</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="H27" s="6"/>
@@ -4203,23 +4555,23 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="6">
         <v>0.59694444444444406</v>
       </c>
       <c r="F28" s="7">
         <v>0.59868055555555522</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="11">
         <v>2.5</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="7"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -4238,20 +4590,20 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="6">
         <v>0.60145833333333298</v>
       </c>
       <c r="F29" s="7">
         <v>0.60277777777777741</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>1.9</v>
       </c>
       <c r="H29" s="6"/>
@@ -4273,7 +4625,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4286,7 +4638,7 @@
       <c r="F30" s="7">
         <v>0.60638888888888853</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="11">
         <v>2.2000000000000002</v>
       </c>
       <c r="H30" s="6"/>
@@ -4308,7 +4660,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4321,7 +4673,7 @@
       <c r="F31" s="7">
         <v>0.60944444444444412</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="11">
         <v>1.4</v>
       </c>
       <c r="H31" s="6"/>
@@ -4343,7 +4695,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4356,7 +4708,7 @@
       <c r="F32" s="7">
         <v>0.61284722222222188</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="11">
         <v>1.9</v>
       </c>
       <c r="H32" s="6"/>
@@ -4378,7 +4730,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4391,7 +4743,7 @@
       <c r="F33" s="7">
         <v>0.61673611111111071</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="11">
         <v>1.6</v>
       </c>
       <c r="H33" s="6"/>
@@ -4413,7 +4765,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4426,7 +4778,7 @@
       <c r="F34" s="7">
         <v>0.62097222222222181</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="11">
         <v>2.1</v>
       </c>
       <c r="H34" s="6"/>
@@ -4448,7 +4800,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4461,7 +4813,7 @@
       <c r="F35" s="7">
         <v>0.62513888888888847</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="11">
         <v>2</v>
       </c>
       <c r="H35" s="6"/>
@@ -4483,7 +4835,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4496,7 +4848,7 @@
       <c r="F36" s="7">
         <v>0.62923611111111066</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="11">
         <v>1.9</v>
       </c>
       <c r="H36" s="6"/>
@@ -4518,14 +4870,14 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
       <c r="J37" s="5"/>
@@ -4545,14 +4897,14 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
@@ -4572,7 +4924,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="16" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -4599,16 +4951,123 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R40">
-        <v>25</v>
-      </c>
-      <c r="S40">
-        <v>28</v>
-      </c>
-      <c r="T40">
-        <v>18</v>
-      </c>
+    <row r="41" spans="1:25">
+      <c r="I41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="16"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="I42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="16"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="I43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="16"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="I44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="16"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="I45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="16"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="I46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="16"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="I47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="16"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="I48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="16"/>
+    </row>
+    <row r="49" spans="9:19">
+      <c r="I49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="16"/>
+    </row>
+    <row r="50" spans="9:19">
+      <c r="I50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" spans="9:19">
+      <c r="I51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="9:19">
+      <c r="I52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" spans="9:19">
+      <c r="I53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="9:19">
+      <c r="I54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="9:19">
+      <c r="I55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" spans="9:19">
+      <c r="I56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="9:19">
+      <c r="I57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="16"/>
+    </row>
+    <row r="58" spans="9:19">
+      <c r="I58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="16"/>
+    </row>
+    <row r="59" spans="9:19">
+      <c r="I59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="16"/>
+    </row>
+    <row r="60" spans="9:19">
+      <c r="I60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="16"/>
+    </row>
+    <row r="61" spans="9:19">
+      <c r="I61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="16"/>
+    </row>
+    <row r="62" spans="9:19">
+      <c r="R62" s="15"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" spans="9:19">
+      <c r="R63" s="15"/>
+    </row>
+    <row r="64" spans="9:19">
+      <c r="R64" s="15"/>
+    </row>
+    <row r="65" spans="18:18">
+      <c r="R65" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4627,136 +5086,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:28" ht="16" thickBot="1">
+      <c r="A2" s="22"/>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="W2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4782,16 +5241,16 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="I3" s="7">
-        <v>0.30902777777777779</v>
+        <v>0.30917824074074074</v>
       </c>
       <c r="J3" s="5">
-        <v>15</v>
+        <v>15.22</v>
       </c>
       <c r="K3" s="6">
-        <v>0.40049768518518519</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="L3" s="7">
-        <v>0.40466435185185184</v>
+        <v>0.40416666666666662</v>
       </c>
       <c r="M3" s="5">
         <v>6</v>
@@ -4809,31 +5268,33 @@
         <v>0.3125</v>
       </c>
       <c r="R3" s="7">
-        <v>0.32222222222222224</v>
+        <v>0.32248842592592591</v>
       </c>
       <c r="S3" s="5">
-        <v>14</v>
+        <v>14.38</v>
       </c>
       <c r="T3" s="6">
-        <v>0.35416666666666669</v>
+        <v>0.35423611111111114</v>
       </c>
       <c r="U3" s="7">
-        <v>0.35555555555555557</v>
+        <v>0.35575231481481479</v>
       </c>
       <c r="V3" s="5">
-        <v>2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="W3" s="6">
-        <v>0.42625000000000002</v>
+        <v>0.42575231481481479</v>
       </c>
       <c r="X3" s="7">
         <v>0.42833333333333329</v>
       </c>
-      <c r="Y3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y3" s="11">
+        <v>3.72</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4859,16 +5320,16 @@
         <v>0.30974537037037037</v>
       </c>
       <c r="I4" s="7">
-        <v>0.32016203703703705</v>
+        <v>0.32062499999999999</v>
       </c>
       <c r="J4" s="5">
-        <v>15</v>
+        <v>15.67</v>
       </c>
       <c r="K4" s="6">
-        <v>0.40466435185185184</v>
+        <v>0.40416666666666662</v>
       </c>
       <c r="L4" s="7">
-        <v>0.41021990740740738</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="M4" s="5">
         <v>8</v>
@@ -4886,31 +5347,33 @@
         <v>0.32293981481481482</v>
       </c>
       <c r="R4" s="7">
-        <v>0.3333564814814815</v>
+        <v>0.33398148148148149</v>
       </c>
       <c r="S4" s="5">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="T4" s="6">
         <v>0.3562731481481482</v>
       </c>
       <c r="U4" s="7">
-        <v>0.35905092592592597</v>
+        <v>0.35930555555555554</v>
       </c>
       <c r="V4" s="5">
-        <v>4</v>
+        <v>4.37</v>
       </c>
       <c r="W4" s="6">
-        <v>0.4383333333333333</v>
+        <v>0.43851851851851853</v>
       </c>
       <c r="X4" s="7">
         <v>0.44111111111111106</v>
       </c>
-      <c r="Y4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y4" s="11">
+        <v>3.73</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4936,16 +5399,16 @@
         <v>0.32086805555555559</v>
       </c>
       <c r="I5" s="7">
-        <v>0.33128472222222222</v>
+        <v>0.33179398148148148</v>
       </c>
       <c r="J5" s="5">
-        <v>15</v>
+        <v>15.73</v>
       </c>
       <c r="K5" s="6">
-        <v>0.41021990740740738</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="L5" s="7">
-        <v>0.41577546296296292</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="M5" s="5">
         <v>8</v>
@@ -4963,31 +5426,33 @@
         <v>0.33406249999999998</v>
       </c>
       <c r="R5" s="7">
-        <v>0.34239583333333329</v>
+        <v>0.34281249999999996</v>
       </c>
       <c r="S5" s="5">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="T5" s="6">
         <v>0.36047453703703702</v>
       </c>
       <c r="U5" s="7">
-        <v>0.36325231481481479</v>
+        <v>0.36321759259259262</v>
       </c>
       <c r="V5" s="5">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="W5" s="6">
-        <v>0.45396990740740745</v>
+        <v>0.45366898148148144</v>
       </c>
       <c r="X5" s="7">
-        <v>0.45466435185185183</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.45535879629629633</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Z5" s="17"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5013,16 +5478,16 @@
         <v>0.33200231481481485</v>
       </c>
       <c r="I6" s="7">
-        <v>0.34311342592592592</v>
+        <v>0.34346064814814814</v>
       </c>
       <c r="J6" s="5">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="K6" s="6">
-        <v>0.41577546296296292</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="L6" s="7">
-        <v>0.42063657407407407</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="M6" s="5">
         <v>7</v>
@@ -5040,31 +5505,33 @@
         <v>0.34383101851851849</v>
       </c>
       <c r="R6" s="7">
-        <v>0.35355324074074074</v>
+        <v>0.35378472222222218</v>
       </c>
       <c r="S6" s="5">
-        <v>14</v>
+        <v>14.33</v>
       </c>
       <c r="T6" s="6">
         <v>0.36325231481481479</v>
       </c>
       <c r="U6" s="7">
-        <v>0.36464120370370368</v>
+        <v>0.3649074074074074</v>
       </c>
       <c r="V6" s="5">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W6" s="6">
-        <v>0.45680555555555552</v>
+        <v>0.45667824074074076</v>
       </c>
       <c r="X6" s="7">
         <v>0.4588888888888889</v>
       </c>
-      <c r="Y6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y6" s="11">
+        <v>3.18</v>
+      </c>
+      <c r="Z6" s="17"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5090,16 +5557,16 @@
         <v>0.34383101851851849</v>
       </c>
       <c r="I7" s="7">
-        <v>0.35355324074074074</v>
+        <v>0.35366898148148151</v>
       </c>
       <c r="J7" s="5">
-        <v>14</v>
+        <v>14.17</v>
       </c>
       <c r="K7" s="6">
-        <v>0.42063657407407407</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="L7" s="7">
-        <v>0.4268865740740741</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="M7" s="5">
         <v>9</v>
@@ -5117,31 +5584,33 @@
         <v>0.35427083333333331</v>
       </c>
       <c r="R7" s="7">
-        <v>0.3646875</v>
+        <v>0.36517361111111107</v>
       </c>
       <c r="S7" s="5">
-        <v>15</v>
+        <v>15.7</v>
       </c>
       <c r="T7" s="6">
         <v>0.36607638888888888</v>
       </c>
       <c r="U7" s="7">
-        <v>0.36815972222222221</v>
+        <v>0.36821759259259257</v>
       </c>
       <c r="V7" s="5">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="W7" s="6">
-        <v>0.46817129629629628</v>
+        <v>0.46810185185185182</v>
       </c>
       <c r="X7" s="7">
         <v>0.47164351851851855</v>
       </c>
-      <c r="Y7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z7" s="17"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5167,16 +5636,16 @@
         <v>0.35355324074074074</v>
       </c>
       <c r="I8" s="7">
-        <v>0.36327546296296293</v>
+        <v>0.364224537037037</v>
       </c>
       <c r="J8" s="5">
-        <v>14</v>
+        <v>15.37</v>
       </c>
       <c r="K8" s="6">
-        <v>0.4268865740740741</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="L8" s="7">
-        <v>0.43174768518518519</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="M8" s="5">
         <v>7</v>
@@ -5194,31 +5663,33 @@
         <v>0.36611111111111111</v>
       </c>
       <c r="R8" s="7">
-        <v>0.37513888888888891</v>
+        <v>0.37524305555555554</v>
       </c>
       <c r="S8" s="5">
-        <v>13</v>
+        <v>13.15</v>
       </c>
       <c r="T8" s="6">
         <v>0.36958333333333332</v>
       </c>
       <c r="U8" s="7">
-        <v>0.37166666666666665</v>
+        <v>0.37185185185185188</v>
       </c>
       <c r="V8" s="5">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="W8" s="6">
-        <v>0.47736111111111112</v>
+        <v>0.47770833333333335</v>
       </c>
       <c r="X8" s="7">
         <v>0.48083333333333328</v>
       </c>
-      <c r="Y8" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Z8" s="17"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5244,16 +5715,16 @@
         <v>0.36399305555555556</v>
       </c>
       <c r="I9" s="7">
-        <v>0.37440972222222224</v>
+        <v>0.37444444444444441</v>
       </c>
       <c r="J9" s="5">
-        <v>15</v>
+        <v>15.05</v>
       </c>
       <c r="K9" s="6">
-        <v>0.43174768518518519</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="L9" s="7">
-        <v>0.43660879629629629</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="M9" s="5">
         <v>7</v>
@@ -5271,31 +5742,33 @@
         <v>0.37585648148148149</v>
       </c>
       <c r="R9" s="7">
-        <v>0.387662037037037</v>
+        <v>0.38789351851851855</v>
       </c>
       <c r="S9" s="5">
-        <v>17</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="T9" s="6">
         <v>0.37238425925925928</v>
       </c>
       <c r="U9" s="7">
-        <v>0.37585648148148149</v>
+        <v>0.3758333333333333</v>
       </c>
       <c r="V9" s="5">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="W9" s="6">
-        <v>0.4872569444444444</v>
+        <v>0.48701388888888886</v>
       </c>
       <c r="X9" s="7">
         <v>0.48864583333333328</v>
       </c>
-      <c r="Y9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="11">
+        <v>2.35</v>
+      </c>
+      <c r="Z9" s="17"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5321,16 +5794,16 @@
         <v>0.37440972222222224</v>
       </c>
       <c r="I10" s="7">
-        <v>0.38413194444444443</v>
+        <v>0.38459490740740737</v>
       </c>
       <c r="J10" s="5">
-        <v>14</v>
+        <v>14.67</v>
       </c>
       <c r="K10" s="6">
-        <v>0.43660879629629629</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="L10" s="7">
-        <v>0.44077546296296299</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="M10" s="5">
         <v>6</v>
@@ -5348,31 +5821,33 @@
         <v>0.38908564814814817</v>
       </c>
       <c r="R10" s="7">
-        <v>0.39880787037037035</v>
+        <v>0.39906250000000004</v>
       </c>
       <c r="S10" s="5">
-        <v>14</v>
+        <v>14.37</v>
       </c>
       <c r="T10" s="6">
-        <v>0.37585648148148149</v>
+        <v>0.37589120370370371</v>
       </c>
       <c r="U10" s="7">
-        <v>0.37655092592592593</v>
+        <v>0.37675925925925924</v>
       </c>
       <c r="V10" s="5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="W10" s="6">
-        <v>0.49579861111111106</v>
+        <v>0.49559027777777781</v>
       </c>
       <c r="X10" s="7">
-        <v>0.49718749999999995</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.49788194444444445</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="Z10" s="17"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5398,19 +5873,19 @@
         <v>0.38413194444444443</v>
       </c>
       <c r="I11" s="7">
-        <v>0.39385416666666667</v>
+        <v>0.3946527777777778</v>
       </c>
       <c r="J11" s="5">
-        <v>14</v>
+        <v>15.15</v>
       </c>
       <c r="K11" s="6">
-        <v>0.44077546296296299</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="L11" s="7">
-        <v>0.44424768518518515</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="M11" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N11" s="6">
         <v>0.35163194444444446</v>
@@ -5425,31 +5900,33 @@
         <v>0.40024305555555556</v>
       </c>
       <c r="R11" s="7">
-        <v>0.40857638888888892</v>
+        <v>0.40865740740740741</v>
       </c>
       <c r="S11" s="5">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="T11" s="6">
         <v>0.37797453703703704</v>
       </c>
       <c r="U11" s="7">
-        <v>0.38075231481481481</v>
+        <v>0.38068287037037035</v>
       </c>
       <c r="V11" s="5">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="W11" s="6">
-        <v>0.51146990740740739</v>
+        <v>0.51137731481481474</v>
       </c>
       <c r="X11" s="7">
         <v>0.51424768518518515</v>
       </c>
-      <c r="Y11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="11">
+        <v>4.13</v>
+      </c>
+      <c r="Z11" s="17"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5475,16 +5952,16 @@
         <v>0.39456018518518521</v>
       </c>
       <c r="I12" s="7">
-        <v>0.4042824074074074</v>
+        <v>0.40712962962962962</v>
       </c>
       <c r="J12" s="5">
-        <v>14</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K12" s="6">
-        <v>0.44424768518518515</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="L12" s="7">
-        <v>0.4498032407407408</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="M12" s="5">
         <v>8</v>
@@ -5502,31 +5979,33 @@
         <v>0.40928240740740746</v>
       </c>
       <c r="R12" s="7">
-        <v>0.41969907407407409</v>
+        <v>0.41981481481481481</v>
       </c>
       <c r="S12" s="5">
-        <v>15</v>
+        <v>15.17</v>
       </c>
       <c r="T12" s="6">
         <v>0.38075231481481481</v>
       </c>
       <c r="U12" s="7">
-        <v>0.38353009259259258</v>
+        <v>0.38339120370370372</v>
       </c>
       <c r="V12" s="5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="W12" s="6">
-        <v>0.52067129629629627</v>
+        <v>0.52031250000000007</v>
       </c>
       <c r="X12" s="7">
-        <v>0.52136574074074071</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.5227546296296296</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>3.52</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5549,19 +6028,19 @@
         <v>1.9</v>
       </c>
       <c r="H13" s="6">
-        <v>0.4042824074074074</v>
+        <v>0.40706018518518516</v>
       </c>
       <c r="I13" s="7">
-        <v>0.41539351851851852</v>
+        <v>0.41814814814814816</v>
       </c>
       <c r="J13" s="5">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="K13" s="6">
-        <v>0.4498032407407408</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="L13" s="7">
-        <v>0.45396990740740745</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="M13" s="5">
         <v>6</v>
@@ -5579,31 +6058,33 @@
         <v>0.42113425925925929</v>
       </c>
       <c r="R13" s="7">
-        <v>0.43155092592592598</v>
+        <v>0.43131944444444442</v>
       </c>
       <c r="S13" s="5">
-        <v>15</v>
+        <v>14.67</v>
       </c>
       <c r="T13" s="6">
         <v>0.38496527777777773</v>
       </c>
       <c r="U13" s="7">
-        <v>0.38913194444444449</v>
+        <v>0.38903935185185184</v>
       </c>
       <c r="V13" s="5">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="W13" s="6">
-        <v>0.53136574074074072</v>
+        <v>0.5315509259259259</v>
       </c>
       <c r="X13" s="7">
         <v>0.53414351851851849</v>
       </c>
-      <c r="Y13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13" s="11">
+        <v>3.73</v>
+      </c>
+      <c r="Z13" s="17"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5626,19 +6107,19 @@
         <v>1.7</v>
       </c>
       <c r="H14" s="6">
-        <v>0.4161111111111111</v>
+        <v>0.41817129629629629</v>
       </c>
       <c r="I14" s="7">
-        <v>0.42652777777777778</v>
+        <v>0.42853009259259256</v>
       </c>
       <c r="J14" s="5">
-        <v>15</v>
+        <v>14.92</v>
       </c>
       <c r="K14" s="6">
-        <v>0.45396990740740745</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="L14" s="7">
-        <v>0.45674768518518521</v>
+        <v>0.45902777777777781</v>
       </c>
       <c r="M14" s="5">
         <v>4</v>
@@ -5656,31 +6137,33 @@
         <v>0.43297453703703703</v>
       </c>
       <c r="R14" s="7">
-        <v>0.44130787037037034</v>
+        <v>0.44153935185185184</v>
       </c>
       <c r="S14" s="5">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="T14" s="6">
         <v>0.38983796296296297</v>
       </c>
       <c r="U14" s="7">
-        <v>0.39331018518518518</v>
+        <v>0.39346064814814818</v>
       </c>
       <c r="V14" s="5">
-        <v>5</v>
+        <v>5.22</v>
       </c>
       <c r="W14" s="6">
-        <v>0.54057870370370364</v>
+        <v>0.54038194444444443</v>
       </c>
       <c r="X14" s="7">
         <v>0.54196759259259253</v>
       </c>
-      <c r="Y14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" s="11">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Z14" s="17"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5703,22 +6186,22 @@
         <v>1.9</v>
       </c>
       <c r="H15" s="6">
-        <v>0.42652777777777778</v>
+        <v>0.42861111111111111</v>
       </c>
       <c r="I15" s="7">
-        <v>0.43555555555555553</v>
+        <v>0.43753472222222217</v>
       </c>
       <c r="J15" s="5">
-        <v>13</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.45674768518518521</v>
+        <v>12.85</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.45902777777777781</v>
       </c>
       <c r="L15" s="7">
-        <v>0.46021990740740742</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="M15" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N15" s="6">
         <v>0.37539351851851849</v>
@@ -5733,31 +6216,33 @@
         <v>0.44202546296296297</v>
       </c>
       <c r="R15" s="7">
-        <v>0.45105324074074077</v>
+        <v>0.45112268518518522</v>
       </c>
       <c r="S15" s="5">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="T15" s="6">
         <v>0.39402777777777781</v>
       </c>
       <c r="U15" s="7">
-        <v>0.39611111111111108</v>
+        <v>0.39620370370370367</v>
       </c>
       <c r="V15" s="5">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="W15" s="6">
-        <v>0.55625000000000002</v>
+        <v>0.55666666666666664</v>
       </c>
       <c r="X15" s="7">
-        <v>0.55763888888888891</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="Z15" s="17"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5780,19 +6265,19 @@
         <v>1.8</v>
       </c>
       <c r="H16" s="6">
-        <v>0.43627314814814816</v>
+        <v>0.43763888888888891</v>
       </c>
       <c r="I16" s="7">
-        <v>0.44738425925925923</v>
+        <v>0.44872685185185185</v>
       </c>
       <c r="J16" s="5">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.46021990740740742</v>
+        <v>15.97</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.46527777777777773</v>
       </c>
       <c r="L16" s="7">
-        <v>0.46785879629629629</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="M16" s="5">
         <v>11</v>
@@ -5810,31 +6295,33 @@
         <v>0.45177083333333329</v>
       </c>
       <c r="R16" s="7">
-        <v>0.4601041666666667</v>
+        <v>0.45998842592592593</v>
       </c>
       <c r="S16" s="5">
-        <v>12</v>
+        <v>11.83</v>
       </c>
       <c r="T16" s="6">
         <v>0.39753472222222225</v>
       </c>
       <c r="U16" s="7">
-        <v>0.39822916666666663</v>
+        <v>0.39826388888888892</v>
       </c>
       <c r="V16" s="5">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="W16" s="6">
-        <v>0.55978009259259254</v>
+        <v>0.56024305555555554</v>
       </c>
       <c r="X16" s="7">
-        <v>0.56116898148148142</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.56325231481481486</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>4.33</v>
+      </c>
+      <c r="Z16" s="17"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5857,19 +6344,19 @@
         <v>1.8</v>
       </c>
       <c r="H17" s="6">
-        <v>0.44809027777777777</v>
+        <v>0.44877314814814812</v>
       </c>
       <c r="I17" s="7">
-        <v>0.45850694444444445</v>
+        <v>0.45905092592592589</v>
       </c>
       <c r="J17" s="5">
-        <v>15</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.46785879629629629</v>
+        <v>14.8</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.47291666666666665</v>
       </c>
       <c r="L17" s="7">
-        <v>0.47480324074074076</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="M17" s="5">
         <v>10</v>
@@ -5887,31 +6374,33 @@
         <v>0.46081018518518518</v>
       </c>
       <c r="R17" s="7">
-        <v>0.46983796296296299</v>
+        <v>0.47006944444444443</v>
       </c>
       <c r="S17" s="5">
-        <v>13</v>
+        <v>13.33</v>
       </c>
       <c r="T17" s="6">
         <v>0.39966435185185184</v>
       </c>
       <c r="U17" s="7">
-        <v>0.40035879629629628</v>
+        <v>0.4004861111111111</v>
       </c>
       <c r="V17" s="5">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="W17" s="6">
         <v>0.5690277777777778</v>
       </c>
       <c r="X17" s="7">
-        <v>0.57111111111111112</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.57241898148148151</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>4.88</v>
+      </c>
+      <c r="Z17" s="17"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5928,19 +6417,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6">
-        <v>0.45850694444444445</v>
+        <v>0.4592013888888889</v>
       </c>
       <c r="I18" s="7">
-        <v>0.47031249999999997</v>
+        <v>0.47099537037037037</v>
       </c>
       <c r="J18" s="5">
-        <v>17</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0.47480324074074076</v>
+        <v>16.98</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.47986111111111113</v>
       </c>
       <c r="L18" s="7">
-        <v>0.4803587962962963</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="M18" s="5">
         <v>8</v>
@@ -5949,34 +6438,42 @@
         <v>0.39424768518518521</v>
       </c>
       <c r="O18" s="7">
-        <v>0.39841435185185187</v>
+        <v>0.40049768518518519</v>
       </c>
       <c r="P18" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="6">
         <v>0.47055555555555556</v>
       </c>
       <c r="R18" s="7">
-        <v>0.47958333333333331</v>
+        <v>0.479525462962963</v>
       </c>
       <c r="S18" s="5">
-        <v>13</v>
+        <v>12.92</v>
       </c>
       <c r="T18" s="6">
         <v>0.40107638888888886</v>
       </c>
       <c r="U18" s="7">
-        <v>0.40315972222222224</v>
+        <v>0.40307870370370374</v>
       </c>
       <c r="V18" s="5">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.88</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0.57280092592592591</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.57554398148148145</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>3.95</v>
+      </c>
+      <c r="Z18" s="17"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5993,13 +6490,13 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6">
-        <v>0.4710300925925926</v>
+        <v>0.47089120370370369</v>
       </c>
       <c r="I19" s="7">
-        <v>0.48075231481481479</v>
+        <v>0.48204861111111108</v>
       </c>
       <c r="J19" s="5">
-        <v>14</v>
+        <v>16.07</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
@@ -6011,25 +6508,25 @@
         <v>0.48030092592592594</v>
       </c>
       <c r="R19" s="7">
-        <v>0.49002314814814812</v>
+        <v>0.48989583333333336</v>
       </c>
       <c r="S19" s="5">
-        <v>14</v>
+        <v>13.82</v>
       </c>
       <c r="T19" s="6">
         <v>0.40386574074074072</v>
       </c>
       <c r="U19" s="7">
-        <v>0.4059490740740741</v>
+        <v>0.40587962962962965</v>
       </c>
       <c r="V19" s="5">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6046,13 +6543,13 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6">
-        <v>0.48075231481481479</v>
+        <v>0.48206018518518517</v>
       </c>
       <c r="I20" s="7">
-        <v>0.49047453703703708</v>
+        <v>0.49322916666666666</v>
       </c>
       <c r="J20" s="5">
-        <v>14</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
@@ -6064,25 +6561,25 @@
         <v>0.49072916666666666</v>
       </c>
       <c r="R20" s="7">
-        <v>0.50045138888888896</v>
+        <v>0.50037037037037035</v>
       </c>
       <c r="S20" s="5">
-        <v>14</v>
+        <v>13.88</v>
       </c>
       <c r="T20" s="6">
         <v>0.40666666666666668</v>
       </c>
       <c r="U20" s="7">
-        <v>0.40805555555555556</v>
+        <v>0.40785879629629629</v>
       </c>
       <c r="V20" s="5">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6093,13 +6590,13 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6">
-        <v>0.49047453703703708</v>
+        <v>0.49309027777777775</v>
       </c>
       <c r="I21" s="7">
-        <v>0.50228009259259265</v>
+        <v>0.505</v>
       </c>
       <c r="J21" s="5">
-        <v>17</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
@@ -6111,25 +6608,25 @@
         <v>0.50188657407407411</v>
       </c>
       <c r="R21" s="7">
-        <v>0.50952546296296297</v>
+        <v>0.50943287037037044</v>
       </c>
       <c r="S21" s="5">
-        <v>11</v>
+        <v>10.87</v>
       </c>
       <c r="T21" s="6">
         <v>0.40805555555555556</v>
       </c>
       <c r="U21" s="7">
-        <v>0.40944444444444444</v>
+        <v>0.40942129629629626</v>
       </c>
       <c r="V21" s="5">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6140,13 +6637,13 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6">
-        <v>0.50228009259259265</v>
+        <v>0.5050810185185185</v>
       </c>
       <c r="I22" s="7">
-        <v>0.51200231481481484</v>
+        <v>0.51545138888888886</v>
       </c>
       <c r="J22" s="5">
-        <v>14</v>
+        <v>14.93</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
@@ -6158,25 +6655,25 @@
         <v>0.51094907407407408</v>
       </c>
       <c r="R22" s="7">
-        <v>0.52067129629629627</v>
+        <v>0.52047453703703705</v>
       </c>
       <c r="S22" s="5">
-        <v>14</v>
+        <v>13.72</v>
       </c>
       <c r="T22" s="6">
         <v>0.40944444444444444</v>
       </c>
       <c r="U22" s="7">
-        <v>0.41013888888888889</v>
+        <v>0.41038194444444448</v>
       </c>
       <c r="V22" s="5">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6187,13 +6684,13 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6">
-        <v>0.51271990740740747</v>
+        <v>0.51547453703703705</v>
       </c>
       <c r="I23" s="7">
-        <v>0.5231365740740741</v>
+        <v>0.52615740740740746</v>
       </c>
       <c r="J23" s="5">
-        <v>15</v>
+        <v>15.38</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
@@ -6205,25 +6702,25 @@
         <v>0.5213888888888889</v>
       </c>
       <c r="R23" s="7">
-        <v>0.52972222222222221</v>
+        <v>0.52959490740740744</v>
       </c>
       <c r="S23" s="5">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="T23" s="6">
         <v>0.41085648148148146</v>
       </c>
       <c r="U23" s="7">
-        <v>0.41224537037037035</v>
+        <v>0.41229166666666667</v>
       </c>
       <c r="V23" s="5">
-        <v>2</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6234,13 +6731,13 @@
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6">
-        <v>0.5231365740740741</v>
+        <v>0.52656249999999993</v>
       </c>
       <c r="I24" s="7">
-        <v>0.53285879629629629</v>
+        <v>0.53881944444444441</v>
       </c>
       <c r="J24" s="5">
-        <v>14</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
@@ -6252,25 +6749,25 @@
         <v>0.53043981481481484</v>
       </c>
       <c r="R24" s="7">
-        <v>0.54016203703703702</v>
+        <v>0.53967592592592595</v>
       </c>
       <c r="S24" s="5">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="T24" s="6">
         <v>0.41366898148148151</v>
       </c>
       <c r="U24" s="7">
-        <v>0.41644675925925928</v>
+        <v>0.41641203703703705</v>
       </c>
       <c r="V24" s="5">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6281,13 +6778,13 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6">
-        <v>0.53285879629629629</v>
+        <v>0.53900462962962969</v>
       </c>
       <c r="I25" s="7">
-        <v>0.54327546296296292</v>
+        <v>0.55019675925925926</v>
       </c>
       <c r="J25" s="5">
-        <v>15</v>
+        <v>16.12</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
@@ -6302,16 +6799,16 @@
         <v>0.41788194444444443</v>
       </c>
       <c r="U25" s="7">
-        <v>0.41927083333333331</v>
+        <v>0.41935185185185181</v>
       </c>
       <c r="V25" s="5">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6322,13 +6819,13 @@
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6">
-        <v>0.54327546296296292</v>
+        <v>0.55032407407407413</v>
       </c>
       <c r="I26" s="7">
-        <v>0.55230324074074078</v>
+        <v>0.56148148148148147</v>
       </c>
       <c r="J26" s="5">
-        <v>13</v>
+        <v>16.07</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="4"/>
@@ -6343,16 +6840,16 @@
         <v>0.41997685185185185</v>
       </c>
       <c r="U26" s="7">
-        <v>0.42275462962962962</v>
+        <v>0.42271990740740745</v>
       </c>
       <c r="V26" s="5">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6378,16 +6875,16 @@
         <v>0.42347222222222225</v>
       </c>
       <c r="U27" s="7">
-        <v>0.42625000000000002</v>
+        <v>0.42611111111111111</v>
       </c>
       <c r="V27" s="5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6416,7 +6913,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6445,7 +6942,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="16" thickBot="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6474,6 +6971,150 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
     </row>
+    <row r="32" spans="1:28">
+      <c r="I32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33" spans="9:20">
+      <c r="I33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34" spans="9:20">
+      <c r="I34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="9:20">
+      <c r="I35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="9:20">
+      <c r="I36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="16"/>
+    </row>
+    <row r="37" spans="9:20">
+      <c r="I37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="16"/>
+    </row>
+    <row r="38" spans="9:20">
+      <c r="I38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="16"/>
+    </row>
+    <row r="39" spans="9:20">
+      <c r="I39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40" spans="9:20">
+      <c r="I40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="16"/>
+    </row>
+    <row r="41" spans="9:20">
+      <c r="I41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="16"/>
+    </row>
+    <row r="42" spans="9:20">
+      <c r="I42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="16"/>
+    </row>
+    <row r="43" spans="9:20">
+      <c r="I43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="16"/>
+    </row>
+    <row r="44" spans="9:20">
+      <c r="I44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="16"/>
+    </row>
+    <row r="45" spans="9:20">
+      <c r="I45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="16"/>
+    </row>
+    <row r="46" spans="9:20">
+      <c r="I46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="16"/>
+    </row>
+    <row r="47" spans="9:20">
+      <c r="I47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="16"/>
+    </row>
+    <row r="48" spans="9:20">
+      <c r="I48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="16"/>
+    </row>
+    <row r="49" spans="9:20">
+      <c r="I49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="16"/>
+    </row>
+    <row r="50" spans="9:20">
+      <c r="I50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="16"/>
+    </row>
+    <row r="51" spans="9:20">
+      <c r="I51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="16"/>
+    </row>
+    <row r="52" spans="9:20">
+      <c r="I52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="16"/>
+    </row>
+    <row r="53" spans="9:20">
+      <c r="I53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="16"/>
+    </row>
+    <row r="54" spans="9:20">
+      <c r="I54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="16"/>
+    </row>
+    <row r="55" spans="9:20">
+      <c r="I55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="16"/>
+    </row>
+    <row r="56" spans="9:20">
+      <c r="I56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="16"/>
+    </row>
+    <row r="57" spans="9:20">
+      <c r="I57" s="15"/>
+      <c r="S57" s="15"/>
+    </row>
+    <row r="58" spans="9:20">
+      <c r="I58" s="15"/>
+      <c r="S58" s="15"/>
+    </row>
+    <row r="59" spans="9:20">
+      <c r="I59" s="15"/>
+      <c r="S59" s="15"/>
+    </row>
+    <row r="60" spans="9:20">
+      <c r="I60" s="15"/>
+      <c r="S60" s="15"/>
+    </row>
+    <row r="61" spans="9:20">
+      <c r="I61" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="Q1:S1"/>

--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlospenaloza/Universidad/Simulación/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026838F-1DA7-444C-8262-2477544B3930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28CE927-FBCD-B74D-BED4-FFB96DA2481E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlospenaloza/Universidad/Simulación/SimulationProject/AnalisisDeEntrada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasacevedo/Desktop/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28CE927-FBCD-B74D-BED4-FFB96DA2481E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B79BF9E-014A-4E4A-8141-F7A471340A00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Toma1y2" sheetId="2" r:id="rId2"/>
     <sheet name="Toma3y4" sheetId="3" r:id="rId3"/>
+    <sheet name="Profesiogramas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Recepción2</t>
   </si>
@@ -103,15 +104,97 @@
   <si>
     <t>Weibull</t>
   </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>Enfermera</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Solo médico</t>
+  </si>
+  <si>
+    <t>Médico, laboratorio</t>
+  </si>
+  <si>
+    <t>Médico, laboratorio,optometría, audiometría</t>
+  </si>
+  <si>
+    <t>Médico, audiometría, optometría y espirometría</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesiograma </t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Médico con enfásis en Osteomuscular</t>
+  </si>
+  <si>
+    <t>Serología</t>
+  </si>
+  <si>
+    <t>Visiometría</t>
+  </si>
+  <si>
+    <t>Prueba de drogas</t>
+  </si>
+  <si>
+    <t>Vacuna antitetanica</t>
+  </si>
+  <si>
+    <t>RA test</t>
+  </si>
+  <si>
+    <t>Koh de uñas</t>
+  </si>
+  <si>
+    <t>Frotis de garganta</t>
+  </si>
+  <si>
+    <t>Corpológico</t>
+  </si>
+  <si>
+    <t>Certifación de alimentos</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Exámenes de los pacientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estaciones por las que pasa un paciente </t>
+  </si>
+  <si>
+    <t>Ruta a la que pertenece el paciente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +335,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -435,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -667,6 +756,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -712,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -751,6 +855,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,13 +1195,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1192,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1236,7 +1357,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1280,7 +1401,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1330,7 +1451,7 @@
         <v>4.360474</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1380,7 +1501,7 @@
         <v>3.7475960000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1418,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1468,7 +1589,7 @@
         <v>0.98660530000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1518,7 +1639,7 @@
         <v>0.47770590000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1553,7 +1674,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1588,7 +1709,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1623,7 +1744,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1658,7 +1779,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1693,7 +1814,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1728,7 +1849,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1763,7 +1884,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1798,7 +1919,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1833,7 +1954,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1868,7 +1989,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1903,7 +2024,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1938,7 +2059,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1973,7 +2094,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2008,7 +2129,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2043,7 +2164,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2078,7 +2199,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2113,7 +2234,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2148,7 +2269,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2183,7 +2304,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2218,7 +2339,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2253,7 +2374,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2288,7 +2409,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2320,7 +2441,7 @@
       </c>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2352,7 +2473,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2384,7 +2505,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2416,7 +2537,7 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2443,7 +2564,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2470,7 +2591,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2497,7 +2618,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2520,7 +2641,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2543,7 +2664,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2566,7 +2687,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2589,7 +2710,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2612,7 +2733,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2632,7 +2753,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2648,7 +2769,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2657,7 +2778,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2666,7 +2787,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2675,7 +2796,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2684,7 +2805,7 @@
       </c>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2705,12 +2826,12 @@
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
@@ -2755,7 +2876,7 @@
       <c r="X1" s="24"/>
       <c r="Y1" s="25"/>
     </row>
-    <row r="2" spans="1:27" ht="16" thickBot="1">
+    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
@@ -2830,7 +2951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2909,7 +3030,7 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2988,7 +3109,7 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3067,7 +3188,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3146,7 +3267,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3225,7 +3346,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3304,7 +3425,7 @@
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3383,7 +3504,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3462,7 +3583,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3541,7 +3662,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3620,7 +3741,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3700,7 +3821,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3780,7 +3901,7 @@
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3860,7 +3981,7 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3940,7 +4061,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4012,7 +4133,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4084,7 +4205,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4155,7 +4276,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4226,7 +4347,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4291,7 +4412,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4344,7 +4465,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4397,7 +4518,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4444,7 +4565,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4485,7 +4606,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4520,7 +4641,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4555,7 +4676,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4590,7 +4711,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4625,7 +4746,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4660,7 +4781,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4695,7 +4816,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4730,7 +4851,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4765,7 +4886,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4800,7 +4921,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4835,7 +4956,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4870,7 +4991,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -4897,7 +5018,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -4924,7 +5045,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="16" thickBot="1">
+    <row r="39" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -4951,122 +5072,122 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="16"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="9:19">
+    <row r="49" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="9:19">
+    <row r="50" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="9:19">
+    <row r="51" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="9:19">
+    <row r="52" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I52" s="15"/>
       <c r="R52" s="15"/>
       <c r="S52" s="16"/>
     </row>
-    <row r="53" spans="9:19">
+    <row r="53" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I53" s="15"/>
       <c r="R53" s="15"/>
       <c r="S53" s="16"/>
     </row>
-    <row r="54" spans="9:19">
+    <row r="54" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="9:19">
+    <row r="55" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="16"/>
     </row>
-    <row r="56" spans="9:19">
+    <row r="56" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I56" s="15"/>
       <c r="R56" s="15"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="9:19">
+    <row r="57" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I57" s="15"/>
       <c r="R57" s="15"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="9:19">
+    <row r="58" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I58" s="15"/>
       <c r="R58" s="15"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="9:19">
+    <row r="59" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I59" s="15"/>
       <c r="R59" s="15"/>
       <c r="S59" s="16"/>
     </row>
-    <row r="60" spans="9:19">
+    <row r="60" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I60" s="15"/>
       <c r="R60" s="15"/>
       <c r="S60" s="16"/>
     </row>
-    <row r="61" spans="9:19">
+    <row r="61" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="16"/>
     </row>
-    <row r="62" spans="9:19">
+    <row r="62" spans="9:19" x14ac:dyDescent="0.2">
       <c r="R62" s="15"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="9:19">
+    <row r="63" spans="9:19" x14ac:dyDescent="0.2">
       <c r="R63" s="15"/>
     </row>
-    <row r="64" spans="9:19">
+    <row r="64" spans="9:19" x14ac:dyDescent="0.2">
       <c r="R64" s="15"/>
     </row>
-    <row r="65" spans="18:18">
+    <row r="65" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R65" s="15"/>
     </row>
   </sheetData>
@@ -5093,9 +5214,9 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
@@ -5140,7 +5261,7 @@
       <c r="X1" s="24"/>
       <c r="Y1" s="25"/>
     </row>
-    <row r="2" spans="1:28" ht="16" thickBot="1">
+    <row r="2" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
@@ -5215,7 +5336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5294,7 +5415,7 @@
       <c r="Z3" s="17"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5373,7 +5494,7 @@
       <c r="Z4" s="17"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5452,7 +5573,7 @@
       <c r="Z5" s="17"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5531,7 +5652,7 @@
       <c r="Z6" s="17"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5610,7 +5731,7 @@
       <c r="Z7" s="17"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5689,7 +5810,7 @@
       <c r="Z8" s="17"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5768,7 +5889,7 @@
       <c r="Z9" s="17"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5847,7 +5968,7 @@
       <c r="Z10" s="17"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5926,7 +6047,7 @@
       <c r="Z11" s="17"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6005,7 +6126,7 @@
       <c r="Z12" s="17"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6084,7 +6205,7 @@
       <c r="Z13" s="17"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6163,7 +6284,7 @@
       <c r="Z14" s="17"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6242,7 +6363,7 @@
       <c r="Z15" s="17"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6321,7 +6442,7 @@
       <c r="Z16" s="17"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6400,7 +6521,7 @@
       <c r="Z17" s="17"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6473,7 +6594,7 @@
       <c r="Z18" s="17"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6526,7 +6647,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6579,7 +6700,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6626,7 +6747,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6673,7 +6794,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6720,7 +6841,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6767,7 +6888,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6808,7 +6929,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6849,7 +6970,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6884,7 +7005,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6913,7 +7034,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6942,7 +7063,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="16" thickBot="1">
+    <row r="30" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6971,148 +7092,148 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="9:20">
+    <row r="33" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="9:20">
+    <row r="34" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="9:20">
+    <row r="35" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="9:20">
+    <row r="36" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="9:20">
+    <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="9:20">
+    <row r="38" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="9:20">
+    <row r="39" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="9:20">
+    <row r="40" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="9:20">
+    <row r="41" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I41" s="15"/>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="9:20">
+    <row r="42" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="9:20">
+    <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="9:20">
+    <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="9:20">
+    <row r="45" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
     </row>
-    <row r="46" spans="9:20">
+    <row r="46" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="9:20">
+    <row r="47" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="9:20">
+    <row r="48" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="9:20">
+    <row r="49" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="9:20">
+    <row r="50" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="9:20">
+    <row r="51" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="9:20">
+    <row r="52" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="9:20">
+    <row r="53" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="9:20">
+    <row r="54" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="9:20">
+    <row r="55" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="9:20">
+    <row r="56" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="9:20">
+    <row r="57" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I57" s="15"/>
       <c r="S57" s="15"/>
     </row>
-    <row r="58" spans="9:20">
+    <row r="58" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I58" s="15"/>
       <c r="S58" s="15"/>
     </row>
-    <row r="59" spans="9:20">
+    <row r="59" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I59" s="15"/>
       <c r="S59" s="15"/>
     </row>
-    <row r="60" spans="9:20">
+    <row r="60" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I60" s="15"/>
       <c r="S60" s="15"/>
     </row>
-    <row r="61" spans="9:20">
+    <row r="61" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I61" s="15"/>
     </row>
   </sheetData>
@@ -7129,4 +7250,3099 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB26D70-89A7-EA4A-9E0A-F8C3AC05801A}">
+  <dimension ref="A1:AI96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB56" sqref="AB56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="P1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="X1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:35" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="32"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="P3" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>1</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27">
+        <v>0</v>
+      </c>
+      <c r="U3" s="27">
+        <v>0</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0</v>
+      </c>
+      <c r="X3" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="P4" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>1</v>
+      </c>
+      <c r="R4" s="27">
+        <v>1</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27">
+        <v>1</v>
+      </c>
+      <c r="U4" s="27">
+        <v>0</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1</v>
+      </c>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="27"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="P5" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1</v>
+      </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27">
+        <v>0</v>
+      </c>
+      <c r="U5" s="27">
+        <v>0</v>
+      </c>
+      <c r="V5" s="27">
+        <v>1</v>
+      </c>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="P6" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>1</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27">
+        <v>0</v>
+      </c>
+      <c r="U6" s="27">
+        <v>0</v>
+      </c>
+      <c r="V6" s="27">
+        <v>1</v>
+      </c>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="P7" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>1</v>
+      </c>
+      <c r="R7" s="27">
+        <v>1</v>
+      </c>
+      <c r="S7" s="27">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>1</v>
+      </c>
+      <c r="U7" s="27">
+        <v>0</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29">
+        <v>1</v>
+      </c>
+      <c r="L8" s="29">
+        <v>1</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1</v>
+      </c>
+      <c r="N8" s="29">
+        <v>1</v>
+      </c>
+      <c r="P8" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>1</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <v>1</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="X8" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="P9" s="27">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>1</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27">
+        <v>0</v>
+      </c>
+      <c r="U9" s="27">
+        <v>0</v>
+      </c>
+      <c r="V9" s="27">
+        <v>1</v>
+      </c>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="P10" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>1</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27">
+        <v>0</v>
+      </c>
+      <c r="U10" s="27">
+        <v>0</v>
+      </c>
+      <c r="V10" s="27">
+        <v>1</v>
+      </c>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="P11" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27">
+        <v>0</v>
+      </c>
+      <c r="U11" s="27">
+        <v>0</v>
+      </c>
+      <c r="V11" s="27">
+        <v>0</v>
+      </c>
+      <c r="X11" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="P12" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>1</v>
+      </c>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27">
+        <v>0</v>
+      </c>
+      <c r="U12" s="27">
+        <v>0</v>
+      </c>
+      <c r="V12" s="27">
+        <v>0</v>
+      </c>
+      <c r="X12" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="P13" s="27">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>1</v>
+      </c>
+      <c r="R13" s="27">
+        <v>1</v>
+      </c>
+      <c r="S13" s="27">
+        <v>1</v>
+      </c>
+      <c r="T13" s="27">
+        <v>1</v>
+      </c>
+      <c r="U13" s="27">
+        <v>0</v>
+      </c>
+      <c r="V13" s="27">
+        <v>0</v>
+      </c>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="P14" s="27">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>1</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27">
+        <v>0</v>
+      </c>
+      <c r="U14" s="27">
+        <v>0</v>
+      </c>
+      <c r="V14" s="27">
+        <v>1</v>
+      </c>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="P15" s="27">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>1</v>
+      </c>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27">
+        <v>0</v>
+      </c>
+      <c r="U15" s="27">
+        <v>0</v>
+      </c>
+      <c r="V15" s="27">
+        <v>1</v>
+      </c>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="P16" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>1</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27">
+        <v>1</v>
+      </c>
+      <c r="U16" s="27">
+        <v>0</v>
+      </c>
+      <c r="V16" s="27">
+        <v>1</v>
+      </c>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="27"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="P17" s="27">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>1</v>
+      </c>
+      <c r="R17" s="27">
+        <v>1</v>
+      </c>
+      <c r="S17" s="27">
+        <v>1</v>
+      </c>
+      <c r="T17" s="27">
+        <v>1</v>
+      </c>
+      <c r="U17" s="27">
+        <v>0</v>
+      </c>
+      <c r="V17" s="27">
+        <v>0</v>
+      </c>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="P18" s="27">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>1</v>
+      </c>
+      <c r="R18" s="27">
+        <v>1</v>
+      </c>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27">
+        <v>1</v>
+      </c>
+      <c r="U18" s="27">
+        <v>0</v>
+      </c>
+      <c r="V18" s="27">
+        <v>1</v>
+      </c>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="27"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="P19" s="27">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>1</v>
+      </c>
+      <c r="R19" s="27">
+        <v>1</v>
+      </c>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27">
+        <v>1</v>
+      </c>
+      <c r="U19" s="27">
+        <v>0</v>
+      </c>
+      <c r="V19" s="27">
+        <v>1</v>
+      </c>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="27"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29">
+        <v>1</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29">
+        <v>1</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="P20" s="27">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>1</v>
+      </c>
+      <c r="R20" s="27">
+        <v>1</v>
+      </c>
+      <c r="S20" s="27">
+        <v>1</v>
+      </c>
+      <c r="T20" s="27">
+        <v>1</v>
+      </c>
+      <c r="U20" s="27">
+        <v>0</v>
+      </c>
+      <c r="V20" s="27">
+        <v>0</v>
+      </c>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="P21" s="27">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>1</v>
+      </c>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27">
+        <v>0</v>
+      </c>
+      <c r="U21" s="27">
+        <v>0</v>
+      </c>
+      <c r="V21" s="27">
+        <v>1</v>
+      </c>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="P22" s="27">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>1</v>
+      </c>
+      <c r="R22" s="27">
+        <v>1</v>
+      </c>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27">
+        <v>1</v>
+      </c>
+      <c r="U22" s="27">
+        <v>0</v>
+      </c>
+      <c r="V22" s="27">
+        <v>1</v>
+      </c>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="27"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29">
+        <v>1</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="P23" s="27">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>1</v>
+      </c>
+      <c r="R23" s="27">
+        <v>1</v>
+      </c>
+      <c r="S23" s="27">
+        <v>1</v>
+      </c>
+      <c r="T23" s="27">
+        <v>1</v>
+      </c>
+      <c r="U23" s="27">
+        <v>0</v>
+      </c>
+      <c r="V23" s="27">
+        <v>0</v>
+      </c>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="P24" s="27">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>1</v>
+      </c>
+      <c r="R24" s="27">
+        <v>1</v>
+      </c>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27">
+        <v>1</v>
+      </c>
+      <c r="U24" s="27">
+        <v>0</v>
+      </c>
+      <c r="V24" s="27">
+        <v>1</v>
+      </c>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="27"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29">
+        <v>1</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29">
+        <v>1</v>
+      </c>
+      <c r="J25" s="29">
+        <v>1</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="P25" s="27">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>1</v>
+      </c>
+      <c r="R25" s="27">
+        <v>1</v>
+      </c>
+      <c r="S25" s="27">
+        <v>1</v>
+      </c>
+      <c r="T25" s="27">
+        <v>1</v>
+      </c>
+      <c r="U25" s="27">
+        <v>0</v>
+      </c>
+      <c r="V25" s="27">
+        <v>0</v>
+      </c>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29">
+        <v>1</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="P26" s="27">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>1</v>
+      </c>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27">
+        <v>0</v>
+      </c>
+      <c r="U26" s="27">
+        <v>0</v>
+      </c>
+      <c r="V26" s="27">
+        <v>1</v>
+      </c>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>25</v>
+      </c>
+      <c r="B27" s="29">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29">
+        <v>1</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="P27" s="27">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>1</v>
+      </c>
+      <c r="R27" s="27">
+        <v>1</v>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27">
+        <v>1</v>
+      </c>
+      <c r="U27" s="27">
+        <v>0</v>
+      </c>
+      <c r="V27" s="27">
+        <v>1</v>
+      </c>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="27"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29">
+        <v>1</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29">
+        <v>1</v>
+      </c>
+      <c r="L28" s="29">
+        <v>1</v>
+      </c>
+      <c r="M28" s="29">
+        <v>1</v>
+      </c>
+      <c r="N28" s="29">
+        <v>1</v>
+      </c>
+      <c r="P28" s="27">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>1</v>
+      </c>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27">
+        <v>0</v>
+      </c>
+      <c r="U28" s="27">
+        <v>1</v>
+      </c>
+      <c r="V28" s="27">
+        <v>0</v>
+      </c>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="P29" s="27">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>1</v>
+      </c>
+      <c r="R29" s="27">
+        <v>1</v>
+      </c>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27">
+        <v>1</v>
+      </c>
+      <c r="U29" s="27">
+        <v>0</v>
+      </c>
+      <c r="V29" s="27">
+        <v>1</v>
+      </c>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="27"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29">
+        <v>1</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29">
+        <v>1</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29">
+        <v>1</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="P30" s="27">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>1</v>
+      </c>
+      <c r="R30" s="27">
+        <v>1</v>
+      </c>
+      <c r="S30" s="27">
+        <v>1</v>
+      </c>
+      <c r="T30" s="27">
+        <v>1</v>
+      </c>
+      <c r="U30" s="27">
+        <v>0</v>
+      </c>
+      <c r="V30" s="27">
+        <v>0</v>
+      </c>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29">
+        <v>1</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="P31" s="27">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>1</v>
+      </c>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27">
+        <v>0</v>
+      </c>
+      <c r="U31" s="27">
+        <v>0</v>
+      </c>
+      <c r="V31" s="27">
+        <v>1</v>
+      </c>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="29">
+        <v>1</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="P32" s="27">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="27">
+        <v>1</v>
+      </c>
+      <c r="R32" s="27">
+        <v>1</v>
+      </c>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27">
+        <v>1</v>
+      </c>
+      <c r="U32" s="27">
+        <v>0</v>
+      </c>
+      <c r="V32" s="27">
+        <v>1</v>
+      </c>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="27"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29">
+        <v>1</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>1</v>
+      </c>
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="P33" s="27">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="27">
+        <v>1</v>
+      </c>
+      <c r="R33" s="27">
+        <v>1</v>
+      </c>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27">
+        <v>1</v>
+      </c>
+      <c r="U33" s="27">
+        <v>0</v>
+      </c>
+      <c r="V33" s="27">
+        <v>1</v>
+      </c>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="27"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29">
+        <v>1</v>
+      </c>
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
+        <v>1</v>
+      </c>
+      <c r="F34" s="29">
+        <v>1</v>
+      </c>
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="P34" s="27">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>1</v>
+      </c>
+      <c r="R34" s="27">
+        <v>1</v>
+      </c>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27">
+        <v>1</v>
+      </c>
+      <c r="U34" s="27">
+        <v>0</v>
+      </c>
+      <c r="V34" s="27">
+        <v>1</v>
+      </c>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="27"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29">
+        <v>1</v>
+      </c>
+      <c r="C35" s="29">
+        <v>1</v>
+      </c>
+      <c r="D35" s="29">
+        <v>1</v>
+      </c>
+      <c r="E35" s="29">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29">
+        <v>1</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="P35" s="27">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>1</v>
+      </c>
+      <c r="R35" s="27">
+        <v>1</v>
+      </c>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27">
+        <v>1</v>
+      </c>
+      <c r="U35" s="27">
+        <v>0</v>
+      </c>
+      <c r="V35" s="27">
+        <v>1</v>
+      </c>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="27"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36" s="29">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29">
+        <v>1</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>1</v>
+      </c>
+      <c r="J36" s="29">
+        <v>1</v>
+      </c>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="P36" s="27">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="27">
+        <v>1</v>
+      </c>
+      <c r="R36" s="27">
+        <v>1</v>
+      </c>
+      <c r="S36" s="27">
+        <v>1</v>
+      </c>
+      <c r="T36" s="27">
+        <v>1</v>
+      </c>
+      <c r="U36" s="27">
+        <v>0</v>
+      </c>
+      <c r="V36" s="27">
+        <v>0</v>
+      </c>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29">
+        <v>1</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
+        <v>1</v>
+      </c>
+      <c r="J37" s="29">
+        <v>1</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="P37" s="27">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>1</v>
+      </c>
+      <c r="R37" s="27">
+        <v>1</v>
+      </c>
+      <c r="S37" s="27">
+        <v>1</v>
+      </c>
+      <c r="T37" s="27">
+        <v>1</v>
+      </c>
+      <c r="U37" s="27">
+        <v>0</v>
+      </c>
+      <c r="V37" s="27">
+        <v>0</v>
+      </c>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29">
+        <v>1</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
+        <v>1</v>
+      </c>
+      <c r="J38" s="29">
+        <v>1</v>
+      </c>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="P38" s="27">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="27">
+        <v>1</v>
+      </c>
+      <c r="R38" s="27">
+        <v>1</v>
+      </c>
+      <c r="S38" s="27">
+        <v>1</v>
+      </c>
+      <c r="T38" s="27">
+        <v>1</v>
+      </c>
+      <c r="U38" s="27">
+        <v>0</v>
+      </c>
+      <c r="V38" s="27">
+        <v>0</v>
+      </c>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29">
+        <v>1</v>
+      </c>
+      <c r="C39" s="29">
+        <v>1</v>
+      </c>
+      <c r="D39" s="29">
+        <v>1</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1</v>
+      </c>
+      <c r="F39" s="29">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29">
+        <v>1</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="P39" s="27">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>1</v>
+      </c>
+      <c r="R39" s="27">
+        <v>1</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27">
+        <v>1</v>
+      </c>
+      <c r="U39" s="27">
+        <v>0</v>
+      </c>
+      <c r="V39" s="27">
+        <v>1</v>
+      </c>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="27"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29">
+        <v>1</v>
+      </c>
+      <c r="C40" s="29">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29">
+        <v>1</v>
+      </c>
+      <c r="E40" s="29">
+        <v>1</v>
+      </c>
+      <c r="F40" s="29">
+        <v>1</v>
+      </c>
+      <c r="G40" s="29">
+        <v>1</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="P40" s="27">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="27">
+        <v>1</v>
+      </c>
+      <c r="R40" s="27">
+        <v>1</v>
+      </c>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27">
+        <v>1</v>
+      </c>
+      <c r="U40" s="27">
+        <v>0</v>
+      </c>
+      <c r="V40" s="27">
+        <v>1</v>
+      </c>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="27"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29">
+        <v>1</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="P41" s="27">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>1</v>
+      </c>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27">
+        <v>0</v>
+      </c>
+      <c r="U41" s="27">
+        <v>0</v>
+      </c>
+      <c r="V41" s="27">
+        <v>1</v>
+      </c>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29">
+        <v>1</v>
+      </c>
+      <c r="C42" s="29">
+        <v>1</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="P42" s="27">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>1</v>
+      </c>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27">
+        <v>0</v>
+      </c>
+      <c r="U42" s="27">
+        <v>0</v>
+      </c>
+      <c r="V42" s="27">
+        <v>1</v>
+      </c>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43" s="29">
+        <v>41</v>
+      </c>
+      <c r="B43" s="29">
+        <v>1</v>
+      </c>
+      <c r="C43" s="29">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29">
+        <v>1</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="P43" s="27">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>1</v>
+      </c>
+      <c r="R43" s="27">
+        <v>1</v>
+      </c>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27">
+        <v>1</v>
+      </c>
+      <c r="U43" s="27">
+        <v>0</v>
+      </c>
+      <c r="V43" s="27">
+        <v>1</v>
+      </c>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="27"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44" s="29">
+        <v>42</v>
+      </c>
+      <c r="B44" s="29">
+        <v>1</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29">
+        <v>1</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29">
+        <v>1</v>
+      </c>
+      <c r="J44" s="29">
+        <v>1</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="P44" s="27">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="27">
+        <v>1</v>
+      </c>
+      <c r="R44" s="27">
+        <v>1</v>
+      </c>
+      <c r="S44" s="27">
+        <v>1</v>
+      </c>
+      <c r="T44" s="27">
+        <v>1</v>
+      </c>
+      <c r="U44" s="27">
+        <v>0</v>
+      </c>
+      <c r="V44" s="27">
+        <v>0</v>
+      </c>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45" s="29">
+        <v>43</v>
+      </c>
+      <c r="B45" s="29">
+        <v>1</v>
+      </c>
+      <c r="C45" s="29">
+        <v>1</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29">
+        <v>1</v>
+      </c>
+      <c r="F45" s="29">
+        <v>1</v>
+      </c>
+      <c r="G45" s="29">
+        <v>1</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="P45" s="27">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="27">
+        <v>1</v>
+      </c>
+      <c r="R45" s="27">
+        <v>1</v>
+      </c>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27">
+        <v>1</v>
+      </c>
+      <c r="U45" s="27">
+        <v>0</v>
+      </c>
+      <c r="V45" s="27">
+        <v>1</v>
+      </c>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="27"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>44</v>
+      </c>
+      <c r="B46" s="29">
+        <v>1</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29">
+        <v>1</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29">
+        <v>1</v>
+      </c>
+      <c r="J46" s="29">
+        <v>1</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="P46" s="27">
+        <v>44</v>
+      </c>
+      <c r="Q46" s="27">
+        <v>1</v>
+      </c>
+      <c r="R46" s="27">
+        <v>1</v>
+      </c>
+      <c r="S46" s="27">
+        <v>1</v>
+      </c>
+      <c r="T46" s="27">
+        <v>1</v>
+      </c>
+      <c r="U46" s="27">
+        <v>0</v>
+      </c>
+      <c r="V46" s="27">
+        <v>0</v>
+      </c>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>45</v>
+      </c>
+      <c r="B47" s="29">
+        <v>1</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29">
+        <v>1</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29">
+        <v>1</v>
+      </c>
+      <c r="J47" s="29">
+        <v>1</v>
+      </c>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="P47" s="27">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="27">
+        <v>1</v>
+      </c>
+      <c r="R47" s="27">
+        <v>1</v>
+      </c>
+      <c r="S47" s="27">
+        <v>1</v>
+      </c>
+      <c r="T47" s="27">
+        <v>1</v>
+      </c>
+      <c r="U47" s="27">
+        <v>0</v>
+      </c>
+      <c r="V47" s="27">
+        <v>0</v>
+      </c>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29">
+        <f>SUM(B3:B47)</f>
+        <v>45</v>
+      </c>
+      <c r="C48" s="29">
+        <f t="shared" ref="C48:N48" si="0">SUM(C3:C47)</f>
+        <v>24</v>
+      </c>
+      <c r="D48" s="29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F48" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G48" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I48" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J48" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K48" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L48" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M48" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N48" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X48" s="27">
+        <f>SUM(X3:X47)</f>
+        <v>4</v>
+      </c>
+      <c r="Y48" s="27">
+        <f t="shared" ref="Y48:AA48" si="1">SUM(Y3:Y47)</f>
+        <v>11</v>
+      </c>
+      <c r="Z48" s="27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AA48" s="27">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AB48" s="27">
+        <f>SUM(X48:AA48)</f>
+        <v>44</v>
+      </c>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="X51" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y51" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA51" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="X52" s="34">
+        <f>X48/$AB$48</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Y52" s="34">
+        <f t="shared" ref="Y52:AA52" si="2">Y48/$AB$48</f>
+        <v>0.25</v>
+      </c>
+      <c r="Z52" s="34">
+        <f t="shared" si="2"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AA52" s="34">
+        <f t="shared" si="2"/>
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="AE52" s="26"/>
+      <c r="AF52" s="26"/>
+      <c r="AG52" s="26"/>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="26"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="26"/>
+      <c r="AG53" s="26"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="26"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="26"/>
+      <c r="AG54" s="26"/>
+      <c r="AH54" s="26"/>
+      <c r="AI54" s="26"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="26"/>
+      <c r="AG55" s="26"/>
+      <c r="AH55" s="26"/>
+      <c r="AI55" s="26"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="26"/>
+      <c r="AI58" s="26"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="26"/>
+      <c r="AG59" s="26"/>
+      <c r="AH59" s="26"/>
+      <c r="AI59" s="26"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE60" s="26"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="26"/>
+      <c r="AI60" s="26"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE61" s="26"/>
+      <c r="AF61" s="26"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="26"/>
+      <c r="AI61" s="26"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="26"/>
+      <c r="AI62" s="26"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="26"/>
+      <c r="AI63" s="26"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE64" s="26"/>
+      <c r="AF64" s="26"/>
+      <c r="AG64" s="26"/>
+      <c r="AH64" s="26"/>
+      <c r="AI64" s="26"/>
+    </row>
+    <row r="65" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE65" s="26"/>
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="26"/>
+      <c r="AH65" s="26"/>
+      <c r="AI65" s="26"/>
+    </row>
+    <row r="66" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE66" s="26"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="26"/>
+      <c r="AI66" s="26"/>
+    </row>
+    <row r="67" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE67" s="26"/>
+      <c r="AF67" s="26"/>
+      <c r="AG67" s="26"/>
+      <c r="AH67" s="26"/>
+      <c r="AI67" s="26"/>
+    </row>
+    <row r="68" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="26"/>
+      <c r="AI68" s="26"/>
+    </row>
+    <row r="69" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="26"/>
+      <c r="AI69" s="26"/>
+    </row>
+    <row r="70" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE70" s="26"/>
+      <c r="AF70" s="26"/>
+      <c r="AG70" s="26"/>
+      <c r="AH70" s="26"/>
+      <c r="AI70" s="26"/>
+    </row>
+    <row r="71" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE71" s="26"/>
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="26"/>
+      <c r="AH71" s="26"/>
+      <c r="AI71" s="26"/>
+    </row>
+    <row r="72" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE72" s="26"/>
+      <c r="AF72" s="26"/>
+      <c r="AG72" s="26"/>
+      <c r="AH72" s="26"/>
+      <c r="AI72" s="26"/>
+    </row>
+    <row r="73" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE73" s="26"/>
+      <c r="AF73" s="26"/>
+      <c r="AG73" s="26"/>
+      <c r="AH73" s="26"/>
+      <c r="AI73" s="26"/>
+    </row>
+    <row r="74" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE74" s="26"/>
+      <c r="AF74" s="26"/>
+      <c r="AG74" s="26"/>
+      <c r="AH74" s="26"/>
+      <c r="AI74" s="26"/>
+    </row>
+    <row r="75" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="26"/>
+      <c r="AH75" s="26"/>
+      <c r="AI75" s="26"/>
+    </row>
+    <row r="76" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE76" s="26"/>
+      <c r="AF76" s="26"/>
+      <c r="AG76" s="26"/>
+      <c r="AH76" s="26"/>
+      <c r="AI76" s="26"/>
+    </row>
+    <row r="77" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE77" s="26"/>
+      <c r="AF77" s="26"/>
+      <c r="AG77" s="26"/>
+      <c r="AH77" s="26"/>
+      <c r="AI77" s="26"/>
+    </row>
+    <row r="78" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE78" s="26"/>
+      <c r="AF78" s="26"/>
+      <c r="AG78" s="26"/>
+      <c r="AH78" s="26"/>
+      <c r="AI78" s="26"/>
+    </row>
+    <row r="79" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE79" s="26"/>
+      <c r="AF79" s="26"/>
+      <c r="AG79" s="26"/>
+      <c r="AH79" s="26"/>
+      <c r="AI79" s="26"/>
+    </row>
+    <row r="80" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE80" s="26"/>
+      <c r="AF80" s="26"/>
+      <c r="AG80" s="26"/>
+      <c r="AH80" s="26"/>
+      <c r="AI80" s="26"/>
+    </row>
+    <row r="81" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE81" s="26"/>
+      <c r="AF81" s="26"/>
+      <c r="AG81" s="26"/>
+      <c r="AH81" s="26"/>
+      <c r="AI81" s="26"/>
+    </row>
+    <row r="82" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE82" s="26"/>
+      <c r="AF82" s="26"/>
+      <c r="AH82" s="26"/>
+      <c r="AI82" s="26"/>
+    </row>
+    <row r="83" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE83" s="26"/>
+      <c r="AF83" s="26"/>
+      <c r="AH83" s="26"/>
+      <c r="AI83" s="26"/>
+    </row>
+    <row r="84" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE84" s="26"/>
+      <c r="AF84" s="26"/>
+      <c r="AH84" s="26"/>
+      <c r="AI84" s="26"/>
+    </row>
+    <row r="85" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE85" s="26"/>
+      <c r="AF85" s="26"/>
+      <c r="AH85" s="26"/>
+      <c r="AI85" s="26"/>
+    </row>
+    <row r="86" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AE86" s="26"/>
+      <c r="AF86" s="26"/>
+      <c r="AH86" s="26"/>
+      <c r="AI86" s="26"/>
+    </row>
+    <row r="87" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF87" s="26"/>
+      <c r="AH87" s="26"/>
+      <c r="AI87" s="26"/>
+    </row>
+    <row r="88" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF88" s="26"/>
+      <c r="AH88" s="26"/>
+      <c r="AI88" s="26"/>
+    </row>
+    <row r="89" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF89" s="26"/>
+      <c r="AH89" s="26"/>
+      <c r="AI89" s="26"/>
+    </row>
+    <row r="90" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF90" s="26"/>
+      <c r="AH90" s="26"/>
+      <c r="AI90" s="26"/>
+    </row>
+    <row r="91" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF91" s="26"/>
+      <c r="AH91" s="26"/>
+      <c r="AI91" s="26"/>
+    </row>
+    <row r="92" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF92" s="26"/>
+      <c r="AI92" s="26"/>
+    </row>
+    <row r="93" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF93" s="26"/>
+      <c r="AI93" s="26"/>
+    </row>
+    <row r="94" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AF94" s="26"/>
+      <c r="AI94" s="26"/>
+    </row>
+    <row r="95" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AI95" s="26"/>
+    </row>
+    <row r="96" spans="31:35" x14ac:dyDescent="0.2">
+      <c r="AI96" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="X1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasacevedo/Desktop/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B79BF9E-014A-4E4A-8141-F7A471340A00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BE1E3-6688-2D41-837C-D6E41E1604F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7256,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB26D70-89A7-EA4A-9E0A-F8C3AC05801A}">
   <dimension ref="A1:AI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB56" sqref="AB56"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasacevedo/Desktop/SimulationProject/AnalisisDeEntrada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibianagambas/Documents/Universidad de Los Andes/Octavo Semestre/Simulación de Eventos Discretos/Proyecto/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BE1E3-6688-2D41-837C-D6E41E1604F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3755E2-9DAF-BE42-A07B-552506ED3AB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Toma1y2" sheetId="2" r:id="rId2"/>
-    <sheet name="Toma3y4" sheetId="3" r:id="rId3"/>
-    <sheet name="Profesiogramas" sheetId="4" r:id="rId4"/>
+    <sheet name="EntregaExámenes" sheetId="5" r:id="rId2"/>
+    <sheet name="Toma1y2" sheetId="2" r:id="rId3"/>
+    <sheet name="Toma3y4" sheetId="3" r:id="rId4"/>
+    <sheet name="Profesiogramas" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Recepción2</t>
   </si>
@@ -185,6 +186,45 @@
   <si>
     <t>Ruta a la que pertenece el paciente</t>
   </si>
+  <si>
+    <t>normalMean</t>
+  </si>
+  <si>
+    <t>normalStdDev</t>
+  </si>
+  <si>
+    <t>0.02216292</t>
+  </si>
+  <si>
+    <t>0.1158785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.4257172</t>
+  </si>
+  <si>
+    <t>0.2404876</t>
+  </si>
+  <si>
+    <t>0.7089099</t>
+  </si>
+  <si>
+    <t>0.1236851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.1187945</t>
+  </si>
+  <si>
+    <t>0.458932</t>
+  </si>
+  <si>
+    <t>Hora de arribo</t>
+  </si>
+  <si>
+    <t>Tiempo entre Arribos</t>
+  </si>
+  <si>
+    <t>Tiempo entre Arribo (minutos)</t>
+  </si>
 </sst>
 </file>
 
@@ -192,9 +232,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +383,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +561,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -816,7 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -840,6 +886,17 @@
     </xf>
     <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,23 +912,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1195,13 +1246,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1313,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1357,7 +1411,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1401,7 +1455,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1438,20 +1492,20 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="35">
         <v>167.19970000000001</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="35">
         <v>3.9979619999999998</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="35">
         <v>101.38073900000001</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="35">
         <v>4.360474</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1488,20 +1542,20 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="35">
         <v>10.5906</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="35">
         <v>9.5546209999999991</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="35">
         <v>7.4195859999999998</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="35">
         <v>3.7475960000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1539,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1589,7 +1643,7 @@
         <v>0.98660530000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1639,7 +1693,7 @@
         <v>0.47770590000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1674,7 +1728,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1708,8 +1762,27 @@
         <f>Toma1y2!Y12</f>
         <v>4.07</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="35">
+        <f>LN((L8^2)/(SQRT((L8^2)+(L9^2))))</f>
+        <v>2.216310606917998E-2</v>
+      </c>
+      <c r="M11" s="35">
+        <f t="shared" ref="M11:R11" si="0">LN((M8^2)/(SQRT((M8^2)+(M9^2))))</f>
+        <v>-0.4257171517316703</v>
+      </c>
+      <c r="O11" s="35">
+        <f t="shared" si="0"/>
+        <v>0.7089098707291297</v>
+      </c>
+      <c r="R11" s="35">
+        <f t="shared" si="0"/>
+        <v>-0.11879450171208296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1743,8 +1816,27 @@
         <f>Toma1y2!Y13</f>
         <v>4.22</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="35">
+        <f>SQRT(LN(1+L9^2/L8^2))</f>
+        <v>0.11587847437038727</v>
+      </c>
+      <c r="M12" s="35">
+        <f>SQRT(LN(1+M9^2/M8^2))</f>
+        <v>0.24048760042794193</v>
+      </c>
+      <c r="O12" s="35">
+        <f t="shared" ref="N12:R12" si="1">SQRT(LN(1+O9^2/O8^2))</f>
+        <v>0.12368512307829335</v>
+      </c>
+      <c r="R12" s="35">
+        <f t="shared" si="1"/>
+        <v>0.45893198515629369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1779,7 +1871,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1813,8 +1905,23 @@
         <f>Toma1y2!Y15</f>
         <v>3.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1848,8 +1955,23 @@
         <f>Toma1y2!Y16</f>
         <v>1.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1884,7 +2006,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1919,7 +2041,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1954,7 +2076,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1989,7 +2111,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2024,7 +2146,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2059,7 +2181,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2094,7 +2216,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2129,7 +2251,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2164,7 +2286,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2199,7 +2321,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2234,7 +2356,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2269,7 +2391,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2304,7 +2426,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2339,7 +2461,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2374,7 +2496,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2409,7 +2531,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2441,7 +2563,7 @@
       </c>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2473,7 +2595,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2505,7 +2627,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2537,7 +2659,7 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2564,7 +2686,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2591,7 +2713,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2618,7 +2740,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2641,7 +2763,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2664,7 +2786,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2687,7 +2809,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2710,7 +2832,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2733,7 +2855,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2753,7 +2875,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2769,7 +2891,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2778,7 +2900,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2787,7 +2909,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2796,7 +2918,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2805,7 +2927,7 @@
       </c>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2819,6 +2941,674 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27785034-BCD8-A449-A6C2-32FB7E6399EB}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="48">
+      <c r="A1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="37">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="37">
+        <f>A2+(C3/1440)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B3" s="37">
+        <f>A3-A2</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="37">
+        <f t="shared" ref="A4:A51" si="0">A3+(C4/1440)</f>
+        <v>0.30347222222222225</v>
+      </c>
+      <c r="B4" s="37">
+        <f t="shared" ref="B4:B51" si="1">A4-A3</f>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="37">
+        <f t="shared" si="0"/>
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="B5" s="37">
+        <f t="shared" si="1"/>
+        <v>9.0277777777778012E-3</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="B6" s="37">
+        <f t="shared" si="1"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.32708333333333339</v>
+      </c>
+      <c r="B7" s="37">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.32777777777777783</v>
+      </c>
+      <c r="B8" s="37">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3305555555555556</v>
+      </c>
+      <c r="B9" s="37">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="37">
+        <f t="shared" si="0"/>
+        <v>0.35625000000000007</v>
+      </c>
+      <c r="B10" s="37">
+        <f t="shared" si="1"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="C10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.35902777777777783</v>
+      </c>
+      <c r="B11" s="37">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.35902777777777783</v>
+      </c>
+      <c r="B12" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.37222222222222229</v>
+      </c>
+      <c r="B13" s="37">
+        <f t="shared" si="1"/>
+        <v>1.3194444444444453E-2</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="37">
+        <f t="shared" si="0"/>
+        <v>0.38611111111111118</v>
+      </c>
+      <c r="B14" s="37">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="37">
+        <f t="shared" si="0"/>
+        <v>0.38819444444444451</v>
+      </c>
+      <c r="B15" s="37">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="37">
+        <f t="shared" si="0"/>
+        <v>0.39930555555555564</v>
+      </c>
+      <c r="B16" s="37">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111127E-2</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="37">
+        <f t="shared" si="0"/>
+        <v>0.40277777777777785</v>
+      </c>
+      <c r="B17" s="37">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="37">
+        <f t="shared" si="0"/>
+        <v>0.40763888888888894</v>
+      </c>
+      <c r="B18" s="37">
+        <f t="shared" si="1"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="37">
+        <f t="shared" si="0"/>
+        <v>0.42013888888888895</v>
+      </c>
+      <c r="B19" s="37">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="37">
+        <f t="shared" si="0"/>
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="B20" s="37">
+        <f t="shared" si="1"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="37">
+        <f t="shared" si="0"/>
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="B21" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="37">
+        <f t="shared" si="0"/>
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="B22" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="37">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="B23" s="37">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="37">
+        <f t="shared" si="0"/>
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="B24" s="37">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="37">
+        <f t="shared" si="0"/>
+        <v>0.45069444444444451</v>
+      </c>
+      <c r="B25" s="37">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="37">
+        <f t="shared" si="0"/>
+        <v>0.45486111111111116</v>
+      </c>
+      <c r="B26" s="37">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="37">
+        <f t="shared" si="0"/>
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="B27" s="37">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="37">
+        <f t="shared" si="0"/>
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="B28" s="37">
+        <f t="shared" si="1"/>
+        <v>9.0277777777778012E-3</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="37">
+        <f t="shared" si="0"/>
+        <v>0.47152777777777782</v>
+      </c>
+      <c r="B29" s="37">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="37">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333339</v>
+      </c>
+      <c r="B30" s="37">
+        <f t="shared" si="1"/>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="37">
+        <f t="shared" si="0"/>
+        <v>0.48750000000000004</v>
+      </c>
+      <c r="B31" s="37">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="37">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B32" s="37">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="37">
+        <f t="shared" si="0"/>
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="B33" s="37">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="37">
+        <f t="shared" si="0"/>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="B34" s="37">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="37">
+        <f t="shared" si="0"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="B35" s="37">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="37">
+        <f t="shared" si="0"/>
+        <v>0.51805555555555549</v>
+      </c>
+      <c r="B36" s="37">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="37">
+        <f t="shared" si="0"/>
+        <v>0.51944444444444438</v>
+      </c>
+      <c r="B37" s="37">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="37">
+        <f t="shared" si="0"/>
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="B38" s="37">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666718E-2</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="37">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B39" s="37">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="37">
+        <f t="shared" si="0"/>
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B40" s="37">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="37">
+        <f t="shared" si="0"/>
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B41" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="37">
+        <f t="shared" si="0"/>
+        <v>0.55486111111111103</v>
+      </c>
+      <c r="B42" s="37">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="37">
+        <f t="shared" si="0"/>
+        <v>0.56736111111111098</v>
+      </c>
+      <c r="B43" s="37">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="37">
+        <f t="shared" si="0"/>
+        <v>0.57222222222222208</v>
+      </c>
+      <c r="B44" s="37">
+        <f t="shared" si="1"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="37">
+        <f t="shared" si="0"/>
+        <v>0.58194444444444426</v>
+      </c>
+      <c r="B45" s="37">
+        <f t="shared" si="1"/>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="37">
+        <f t="shared" si="0"/>
+        <v>0.59097222222222201</v>
+      </c>
+      <c r="B46" s="37">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="37">
+        <f t="shared" si="0"/>
+        <v>0.59652777777777755</v>
+      </c>
+      <c r="B47" s="37">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="37">
+        <f t="shared" si="0"/>
+        <v>0.60555555555555529</v>
+      </c>
+      <c r="B48" s="37">
+        <f t="shared" si="1"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="37">
+        <f t="shared" si="0"/>
+        <v>0.60694444444444418</v>
+      </c>
+      <c r="B49" s="37">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="37">
+        <f t="shared" si="0"/>
+        <v>0.61527777777777748</v>
+      </c>
+      <c r="B50" s="37">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="37">
+        <f t="shared" si="0"/>
+        <v>0.61736111111111081</v>
+      </c>
+      <c r="B51" s="37">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
@@ -2826,58 +3616,58 @@
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="23" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="23" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="25"/>
-    </row>
-    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" thickBot="1">
+      <c r="A2" s="29"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -2951,7 +3741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3030,7 +3820,7 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3109,7 +3899,7 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3188,7 +3978,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3267,7 +4057,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3346,7 +4136,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3425,7 +4215,7 @@
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3504,7 +4294,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3583,7 +4373,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3662,7 +4452,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3741,7 +4531,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3821,7 +4611,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3901,7 +4691,7 @@
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3981,7 +4771,7 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4061,7 +4851,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4133,7 +4923,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4205,7 +4995,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4276,7 +5066,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4347,7 +5137,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4412,7 +5202,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4465,7 +5255,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4518,7 +5308,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4565,7 +5355,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4606,7 +5396,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4641,7 +5431,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4676,7 +5466,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4711,7 +5501,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4746,7 +5536,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4781,7 +5571,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4816,7 +5606,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4851,7 +5641,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4886,7 +5676,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4921,7 +5711,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4956,7 +5746,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4991,7 +5781,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -5018,7 +5808,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -5045,7 +5835,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="16" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -5072,122 +5862,122 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="I41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="16"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="I42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="I43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="I44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="I45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="I46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="I47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="I48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:19">
       <c r="I49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:19">
       <c r="I50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:19">
       <c r="I51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:19">
       <c r="I52" s="15"/>
       <c r="R52" s="15"/>
       <c r="S52" s="16"/>
     </row>
-    <row r="53" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:19">
       <c r="I53" s="15"/>
       <c r="R53" s="15"/>
       <c r="S53" s="16"/>
     </row>
-    <row r="54" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:19">
       <c r="I54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:19">
       <c r="I55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="16"/>
     </row>
-    <row r="56" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:19">
       <c r="I56" s="15"/>
       <c r="R56" s="15"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:19">
       <c r="I57" s="15"/>
       <c r="R57" s="15"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:19">
       <c r="I58" s="15"/>
       <c r="R58" s="15"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:19">
       <c r="I59" s="15"/>
       <c r="R59" s="15"/>
       <c r="S59" s="16"/>
     </row>
-    <row r="60" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:19">
       <c r="I60" s="15"/>
       <c r="R60" s="15"/>
       <c r="S60" s="16"/>
     </row>
-    <row r="61" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:19">
       <c r="I61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="16"/>
     </row>
-    <row r="62" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:19">
       <c r="R62" s="15"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:19">
       <c r="R63" s="15"/>
     </row>
-    <row r="64" spans="9:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:19">
       <c r="R64" s="15"/>
     </row>
-    <row r="65" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="18:18">
       <c r="R65" s="15"/>
     </row>
   </sheetData>
@@ -5206,7 +5996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
@@ -5214,55 +6004,55 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="23" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="23" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="23" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="23" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="25"/>
-    </row>
-    <row r="2" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32"/>
+    </row>
+    <row r="2" spans="1:28" ht="16" thickBot="1">
+      <c r="A2" s="29"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -5336,7 +6126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5415,7 +6205,7 @@
       <c r="Z3" s="17"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5494,7 +6284,7 @@
       <c r="Z4" s="17"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5573,7 +6363,7 @@
       <c r="Z5" s="17"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5652,7 +6442,7 @@
       <c r="Z6" s="17"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5731,7 +6521,7 @@
       <c r="Z7" s="17"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5810,7 +6600,7 @@
       <c r="Z8" s="17"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5889,7 +6679,7 @@
       <c r="Z9" s="17"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5968,7 +6758,7 @@
       <c r="Z10" s="17"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6047,7 +6837,7 @@
       <c r="Z11" s="17"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6126,7 +6916,7 @@
       <c r="Z12" s="17"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6205,7 +6995,7 @@
       <c r="Z13" s="17"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6284,7 +7074,7 @@
       <c r="Z14" s="17"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6363,7 +7153,7 @@
       <c r="Z15" s="17"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6442,7 +7232,7 @@
       <c r="Z16" s="17"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6521,7 +7311,7 @@
       <c r="Z17" s="17"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6594,7 +7384,7 @@
       <c r="Z18" s="17"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6647,7 +7437,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6700,7 +7490,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6747,7 +7537,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6794,7 +7584,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6841,7 +7631,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6888,7 +7678,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6929,7 +7719,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6970,7 +7760,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7005,7 +7795,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7034,7 +7824,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7063,7 +7853,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="16" thickBot="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -7092,148 +7882,148 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="I32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:20">
       <c r="I33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:20">
       <c r="I34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:20">
       <c r="I35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:20">
       <c r="I36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:20">
       <c r="I37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:20">
       <c r="I38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:20">
       <c r="I39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:20">
       <c r="I40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:20">
       <c r="I41" s="15"/>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:20">
       <c r="I42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:20">
       <c r="I43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:20">
       <c r="I44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:20">
       <c r="I45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
     </row>
-    <row r="46" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:20">
       <c r="I46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:20">
       <c r="I47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:20">
       <c r="I48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:20">
       <c r="I49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:20">
       <c r="I50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:20">
       <c r="I51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:20">
       <c r="I52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:20">
       <c r="I53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:20">
       <c r="I54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:20">
       <c r="I55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:20">
       <c r="I56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:20">
       <c r="I57" s="15"/>
       <c r="S57" s="15"/>
     </row>
-    <row r="58" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:20">
       <c r="I58" s="15"/>
       <c r="S58" s="15"/>
     </row>
-    <row r="59" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:20">
       <c r="I59" s="15"/>
       <c r="S59" s="15"/>
     </row>
-    <row r="60" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:20">
       <c r="I60" s="15"/>
       <c r="S60" s="15"/>
     </row>
-    <row r="61" spans="9:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:20">
       <c r="I61" s="15"/>
     </row>
   </sheetData>
@@ -7252,15 +8042,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB26D70-89A7-EA4A-9E0A-F8C3AC05801A}">
   <dimension ref="A1:AI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="O34" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -7269,3073 +8059,3073 @@
     <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="P1" s="31" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="X1" s="30" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="X1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-    </row>
-    <row r="2" spans="1:35" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+    </row>
+    <row r="2" spans="1:35" ht="80">
+      <c r="A2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="32"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="P3" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>1</v>
-      </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27">
+      <c r="AB2" s="25"/>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="P3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>1</v>
+      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22">
         <v>0</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="22">
         <v>0</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="22">
         <v>0</v>
       </c>
-      <c r="X3" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="X3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="P4" s="27">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="P4" s="22">
         <v>2</v>
       </c>
-      <c r="Q4" s="27">
-        <v>1</v>
-      </c>
-      <c r="R4" s="27">
-        <v>1</v>
-      </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27">
-        <v>1</v>
-      </c>
-      <c r="U4" s="27">
+      <c r="Q4" s="22">
+        <v>1</v>
+      </c>
+      <c r="R4" s="22">
+        <v>1</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22">
+        <v>1</v>
+      </c>
+      <c r="U4" s="22">
         <v>0</v>
       </c>
-      <c r="V4" s="27">
-        <v>1</v>
-      </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="27"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="V4" s="22">
+        <v>1</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="22"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="P5" s="27">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="P5" s="22">
         <v>3</v>
       </c>
-      <c r="Q5" s="27">
-        <v>1</v>
-      </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27">
+      <c r="Q5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22">
         <v>0</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="22">
         <v>0</v>
       </c>
-      <c r="V5" s="27">
-        <v>1</v>
-      </c>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="V5" s="22">
+        <v>1</v>
+      </c>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="P6" s="27">
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="P6" s="22">
         <v>4</v>
       </c>
-      <c r="Q6" s="27">
-        <v>1</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27">
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22">
         <v>0</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="22">
         <v>0</v>
       </c>
-      <c r="V6" s="27">
-        <v>1</v>
-      </c>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="V6" s="22">
+        <v>1</v>
+      </c>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29">
-        <v>1</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="P7" s="27">
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="P7" s="22">
         <v>5</v>
       </c>
-      <c r="Q7" s="27">
-        <v>1</v>
-      </c>
-      <c r="R7" s="27">
-        <v>1</v>
-      </c>
-      <c r="S7" s="27">
-        <v>1</v>
-      </c>
-      <c r="T7" s="27">
-        <v>1</v>
-      </c>
-      <c r="U7" s="27">
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22">
+        <v>1</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1</v>
+      </c>
+      <c r="T7" s="22">
+        <v>1</v>
+      </c>
+      <c r="U7" s="22">
         <v>0</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="22">
         <v>0</v>
       </c>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29">
-        <v>1</v>
-      </c>
-      <c r="L8" s="29">
-        <v>1</v>
-      </c>
-      <c r="M8" s="29">
-        <v>1</v>
-      </c>
-      <c r="N8" s="29">
-        <v>1</v>
-      </c>
-      <c r="P8" s="27">
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24">
+        <v>1</v>
+      </c>
+      <c r="M8" s="24">
+        <v>1</v>
+      </c>
+      <c r="N8" s="24">
+        <v>1</v>
+      </c>
+      <c r="P8" s="22">
         <v>6</v>
       </c>
-      <c r="Q8" s="27">
-        <v>1</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27">
+      <c r="Q8" s="22">
+        <v>1</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22">
         <v>0</v>
       </c>
-      <c r="U8" s="27">
-        <v>1</v>
-      </c>
-      <c r="V8" s="27">
+      <c r="U8" s="22">
+        <v>1</v>
+      </c>
+      <c r="V8" s="22">
         <v>0</v>
       </c>
-      <c r="X8" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="X8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="29">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="P9" s="27">
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="P9" s="22">
         <v>7</v>
       </c>
-      <c r="Q9" s="27">
-        <v>1</v>
-      </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27">
+      <c r="Q9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22">
         <v>0</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="22">
         <v>0</v>
       </c>
-      <c r="V9" s="27">
-        <v>1</v>
-      </c>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="V9" s="22">
+        <v>1</v>
+      </c>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
-        <v>1</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="P10" s="27">
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="P10" s="22">
         <v>8</v>
       </c>
-      <c r="Q10" s="27">
-        <v>1</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27">
+      <c r="Q10" s="22">
+        <v>1</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22">
         <v>0</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="22">
         <v>0</v>
       </c>
-      <c r="V10" s="27">
-        <v>1</v>
-      </c>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="V10" s="22">
+        <v>1</v>
+      </c>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="P11" s="27">
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="P11" s="22">
         <v>9</v>
       </c>
-      <c r="Q11" s="27">
-        <v>1</v>
-      </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27">
+      <c r="Q11" s="22">
+        <v>1</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22">
         <v>0</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="22">
         <v>0</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="22">
         <v>0</v>
       </c>
-      <c r="X11" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="X11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="24">
         <v>10</v>
       </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="P12" s="27">
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="P12" s="22">
         <v>10</v>
       </c>
-      <c r="Q12" s="27">
-        <v>1</v>
-      </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27">
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22">
         <v>0</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="22">
         <v>0</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="22">
         <v>0</v>
       </c>
-      <c r="X12" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="X12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29">
-        <v>1</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="P13" s="27">
+      <c r="B13" s="24">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="P13" s="22">
         <v>11</v>
       </c>
-      <c r="Q13" s="27">
-        <v>1</v>
-      </c>
-      <c r="R13" s="27">
-        <v>1</v>
-      </c>
-      <c r="S13" s="27">
-        <v>1</v>
-      </c>
-      <c r="T13" s="27">
-        <v>1</v>
-      </c>
-      <c r="U13" s="27">
+      <c r="Q13" s="22">
+        <v>1</v>
+      </c>
+      <c r="R13" s="22">
+        <v>1</v>
+      </c>
+      <c r="S13" s="22">
+        <v>1</v>
+      </c>
+      <c r="T13" s="22">
+        <v>1</v>
+      </c>
+      <c r="U13" s="22">
         <v>0</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="22">
         <v>0</v>
       </c>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="24">
         <v>12</v>
       </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="P14" s="27">
+      <c r="B14" s="24">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="P14" s="22">
         <v>12</v>
       </c>
-      <c r="Q14" s="27">
-        <v>1</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27">
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22">
         <v>0</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="22">
         <v>0</v>
       </c>
-      <c r="V14" s="27">
-        <v>1</v>
-      </c>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="V14" s="22">
+        <v>1</v>
+      </c>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="24">
         <v>13</v>
       </c>
-      <c r="B15" s="29">
-        <v>1</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="P15" s="27">
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="P15" s="22">
         <v>13</v>
       </c>
-      <c r="Q15" s="27">
-        <v>1</v>
-      </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27">
+      <c r="Q15" s="22">
+        <v>1</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22">
         <v>0</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="22">
         <v>0</v>
       </c>
-      <c r="V15" s="27">
-        <v>1</v>
-      </c>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="V15" s="22">
+        <v>1</v>
+      </c>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="24">
         <v>14</v>
       </c>
-      <c r="B16" s="29">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29">
-        <v>1</v>
-      </c>
-      <c r="G16" s="29">
-        <v>1</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="P16" s="27">
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="P16" s="22">
         <v>14</v>
       </c>
-      <c r="Q16" s="27">
-        <v>1</v>
-      </c>
-      <c r="R16" s="27">
-        <v>1</v>
-      </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27">
-        <v>1</v>
-      </c>
-      <c r="U16" s="27">
+      <c r="Q16" s="22">
+        <v>1</v>
+      </c>
+      <c r="R16" s="22">
+        <v>1</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22">
+        <v>1</v>
+      </c>
+      <c r="U16" s="22">
         <v>0</v>
       </c>
-      <c r="V16" s="27">
-        <v>1</v>
-      </c>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="27"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="V16" s="22">
+        <v>1</v>
+      </c>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="22"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="24">
         <v>15</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="29">
-        <v>1</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="P17" s="27">
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="P17" s="22">
         <v>15</v>
       </c>
-      <c r="Q17" s="27">
-        <v>1</v>
-      </c>
-      <c r="R17" s="27">
-        <v>1</v>
-      </c>
-      <c r="S17" s="27">
-        <v>1</v>
-      </c>
-      <c r="T17" s="27">
-        <v>1</v>
-      </c>
-      <c r="U17" s="27">
+      <c r="Q17" s="22">
+        <v>1</v>
+      </c>
+      <c r="R17" s="22">
+        <v>1</v>
+      </c>
+      <c r="S17" s="22">
+        <v>1</v>
+      </c>
+      <c r="T17" s="22">
+        <v>1</v>
+      </c>
+      <c r="U17" s="22">
         <v>0</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="22">
         <v>0</v>
       </c>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="24">
         <v>16</v>
       </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="29">
-        <v>1</v>
-      </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="E18" s="29">
-        <v>1</v>
-      </c>
-      <c r="F18" s="29">
-        <v>1</v>
-      </c>
-      <c r="G18" s="29">
-        <v>1</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="P18" s="27">
+      <c r="B18" s="24">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="P18" s="22">
         <v>16</v>
       </c>
-      <c r="Q18" s="27">
-        <v>1</v>
-      </c>
-      <c r="R18" s="27">
-        <v>1</v>
-      </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27">
-        <v>1</v>
-      </c>
-      <c r="U18" s="27">
+      <c r="Q18" s="22">
+        <v>1</v>
+      </c>
+      <c r="R18" s="22">
+        <v>1</v>
+      </c>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22">
+        <v>1</v>
+      </c>
+      <c r="U18" s="22">
         <v>0</v>
       </c>
-      <c r="V18" s="27">
-        <v>1</v>
-      </c>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="27"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="V18" s="22">
+        <v>1</v>
+      </c>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="22"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="E19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29">
-        <v>1</v>
-      </c>
-      <c r="G19" s="29">
-        <v>1</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="P19" s="27">
+      <c r="B19" s="24">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="P19" s="22">
         <v>17</v>
       </c>
-      <c r="Q19" s="27">
-        <v>1</v>
-      </c>
-      <c r="R19" s="27">
-        <v>1</v>
-      </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27">
-        <v>1</v>
-      </c>
-      <c r="U19" s="27">
+      <c r="Q19" s="22">
+        <v>1</v>
+      </c>
+      <c r="R19" s="22">
+        <v>1</v>
+      </c>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22">
+        <v>1</v>
+      </c>
+      <c r="U19" s="22">
         <v>0</v>
       </c>
-      <c r="V19" s="27">
-        <v>1</v>
-      </c>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="27"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="V19" s="22">
+        <v>1</v>
+      </c>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="22"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" s="24">
         <v>18</v>
       </c>
-      <c r="B20" s="29">
-        <v>1</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29">
-        <v>1</v>
-      </c>
-      <c r="J20" s="29">
-        <v>1</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="P20" s="27">
+      <c r="B20" s="24">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24">
+        <v>1</v>
+      </c>
+      <c r="J20" s="24">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="P20" s="22">
         <v>18</v>
       </c>
-      <c r="Q20" s="27">
-        <v>1</v>
-      </c>
-      <c r="R20" s="27">
-        <v>1</v>
-      </c>
-      <c r="S20" s="27">
-        <v>1</v>
-      </c>
-      <c r="T20" s="27">
-        <v>1</v>
-      </c>
-      <c r="U20" s="27">
+      <c r="Q20" s="22">
+        <v>1</v>
+      </c>
+      <c r="R20" s="22">
+        <v>1</v>
+      </c>
+      <c r="S20" s="22">
+        <v>1</v>
+      </c>
+      <c r="T20" s="22">
+        <v>1</v>
+      </c>
+      <c r="U20" s="22">
         <v>0</v>
       </c>
-      <c r="V20" s="27">
+      <c r="V20" s="22">
         <v>0</v>
       </c>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="24">
         <v>19</v>
       </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="P21" s="27">
+      <c r="B21" s="24">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="P21" s="22">
         <v>19</v>
       </c>
-      <c r="Q21" s="27">
-        <v>1</v>
-      </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27">
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22">
         <v>0</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="22">
         <v>0</v>
       </c>
-      <c r="V21" s="27">
-        <v>1</v>
-      </c>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="V21" s="22">
+        <v>1</v>
+      </c>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="24">
         <v>20</v>
       </c>
-      <c r="B22" s="29">
-        <v>1</v>
-      </c>
-      <c r="C22" s="29">
-        <v>1</v>
-      </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
-        <v>1</v>
-      </c>
-      <c r="F22" s="29">
-        <v>1</v>
-      </c>
-      <c r="G22" s="29">
-        <v>1</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="P22" s="27">
+      <c r="B22" s="24">
+        <v>1</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="P22" s="22">
         <v>20</v>
       </c>
-      <c r="Q22" s="27">
-        <v>1</v>
-      </c>
-      <c r="R22" s="27">
-        <v>1</v>
-      </c>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27">
-        <v>1</v>
-      </c>
-      <c r="U22" s="27">
+      <c r="Q22" s="22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="22">
         <v>0</v>
       </c>
-      <c r="V22" s="27">
-        <v>1</v>
-      </c>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="27"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="V22" s="22">
+        <v>1</v>
+      </c>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="22"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="24">
         <v>21</v>
       </c>
-      <c r="B23" s="29">
-        <v>1</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29">
-        <v>1</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29">
-        <v>1</v>
-      </c>
-      <c r="J23" s="29">
-        <v>1</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="P23" s="27">
+      <c r="B23" s="24">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
+        <v>1</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="P23" s="22">
         <v>21</v>
       </c>
-      <c r="Q23" s="27">
-        <v>1</v>
-      </c>
-      <c r="R23" s="27">
-        <v>1</v>
-      </c>
-      <c r="S23" s="27">
-        <v>1</v>
-      </c>
-      <c r="T23" s="27">
-        <v>1</v>
-      </c>
-      <c r="U23" s="27">
+      <c r="Q23" s="22">
+        <v>1</v>
+      </c>
+      <c r="R23" s="22">
+        <v>1</v>
+      </c>
+      <c r="S23" s="22">
+        <v>1</v>
+      </c>
+      <c r="T23" s="22">
+        <v>1</v>
+      </c>
+      <c r="U23" s="22">
         <v>0</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="22">
         <v>0</v>
       </c>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="24">
         <v>22</v>
       </c>
-      <c r="B24" s="29">
-        <v>1</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1</v>
-      </c>
-      <c r="D24" s="29">
-        <v>1</v>
-      </c>
-      <c r="E24" s="29">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29">
-        <v>1</v>
-      </c>
-      <c r="G24" s="29">
-        <v>1</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="P24" s="27">
+      <c r="B24" s="24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="P24" s="22">
         <v>22</v>
       </c>
-      <c r="Q24" s="27">
-        <v>1</v>
-      </c>
-      <c r="R24" s="27">
-        <v>1</v>
-      </c>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27">
-        <v>1</v>
-      </c>
-      <c r="U24" s="27">
+      <c r="Q24" s="22">
+        <v>1</v>
+      </c>
+      <c r="R24" s="22">
+        <v>1</v>
+      </c>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22">
+        <v>1</v>
+      </c>
+      <c r="U24" s="22">
         <v>0</v>
       </c>
-      <c r="V24" s="27">
-        <v>1</v>
-      </c>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="27"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="V24" s="22">
+        <v>1</v>
+      </c>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="22"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="24">
         <v>23</v>
       </c>
-      <c r="B25" s="29">
-        <v>1</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29">
-        <v>1</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29">
-        <v>1</v>
-      </c>
-      <c r="J25" s="29">
-        <v>1</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="P25" s="27">
+      <c r="B25" s="24">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24">
+        <v>1</v>
+      </c>
+      <c r="J25" s="24">
+        <v>1</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="P25" s="22">
         <v>23</v>
       </c>
-      <c r="Q25" s="27">
-        <v>1</v>
-      </c>
-      <c r="R25" s="27">
-        <v>1</v>
-      </c>
-      <c r="S25" s="27">
-        <v>1</v>
-      </c>
-      <c r="T25" s="27">
-        <v>1</v>
-      </c>
-      <c r="U25" s="27">
+      <c r="Q25" s="22">
+        <v>1</v>
+      </c>
+      <c r="R25" s="22">
+        <v>1</v>
+      </c>
+      <c r="S25" s="22">
+        <v>1</v>
+      </c>
+      <c r="T25" s="22">
+        <v>1</v>
+      </c>
+      <c r="U25" s="22">
         <v>0</v>
       </c>
-      <c r="V25" s="27">
+      <c r="V25" s="22">
         <v>0</v>
       </c>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="24">
         <v>24</v>
       </c>
-      <c r="B26" s="29">
-        <v>1</v>
-      </c>
-      <c r="C26" s="29">
-        <v>1</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="P26" s="27">
+      <c r="B26" s="24">
+        <v>1</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="P26" s="22">
         <v>24</v>
       </c>
-      <c r="Q26" s="27">
-        <v>1</v>
-      </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27">
+      <c r="Q26" s="22">
+        <v>1</v>
+      </c>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22">
         <v>0</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="22">
         <v>0</v>
       </c>
-      <c r="V26" s="27">
-        <v>1</v>
-      </c>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="V26" s="22">
+        <v>1</v>
+      </c>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="24">
         <v>25</v>
       </c>
-      <c r="B27" s="29">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29">
-        <v>1</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1</v>
-      </c>
-      <c r="E27" s="29">
-        <v>1</v>
-      </c>
-      <c r="F27" s="29">
-        <v>1</v>
-      </c>
-      <c r="G27" s="29">
-        <v>1</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="P27" s="27">
+      <c r="B27" s="24">
+        <v>1</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="P27" s="22">
         <v>25</v>
       </c>
-      <c r="Q27" s="27">
-        <v>1</v>
-      </c>
-      <c r="R27" s="27">
-        <v>1</v>
-      </c>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27">
-        <v>1</v>
-      </c>
-      <c r="U27" s="27">
+      <c r="Q27" s="22">
+        <v>1</v>
+      </c>
+      <c r="R27" s="22">
+        <v>1</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22">
+        <v>1</v>
+      </c>
+      <c r="U27" s="22">
         <v>0</v>
       </c>
-      <c r="V27" s="27">
-        <v>1</v>
-      </c>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="27"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="V27" s="22">
+        <v>1</v>
+      </c>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="22"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="24">
         <v>26</v>
       </c>
-      <c r="B28" s="29">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29">
-        <v>1</v>
-      </c>
-      <c r="L28" s="29">
-        <v>1</v>
-      </c>
-      <c r="M28" s="29">
-        <v>1</v>
-      </c>
-      <c r="N28" s="29">
-        <v>1</v>
-      </c>
-      <c r="P28" s="27">
+      <c r="B28" s="24">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24">
+        <v>1</v>
+      </c>
+      <c r="L28" s="24">
+        <v>1</v>
+      </c>
+      <c r="M28" s="24">
+        <v>1</v>
+      </c>
+      <c r="N28" s="24">
+        <v>1</v>
+      </c>
+      <c r="P28" s="22">
         <v>26</v>
       </c>
-      <c r="Q28" s="27">
-        <v>1</v>
-      </c>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27">
+      <c r="Q28" s="22">
+        <v>1</v>
+      </c>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22">
         <v>0</v>
       </c>
-      <c r="U28" s="27">
-        <v>1</v>
-      </c>
-      <c r="V28" s="27">
+      <c r="U28" s="22">
+        <v>1</v>
+      </c>
+      <c r="V28" s="22">
         <v>0</v>
       </c>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="24">
         <v>27</v>
       </c>
-      <c r="B29" s="29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="29">
-        <v>1</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="P29" s="27">
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="P29" s="22">
         <v>27</v>
       </c>
-      <c r="Q29" s="27">
-        <v>1</v>
-      </c>
-      <c r="R29" s="27">
-        <v>1</v>
-      </c>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27">
-        <v>1</v>
-      </c>
-      <c r="U29" s="27">
+      <c r="Q29" s="22">
+        <v>1</v>
+      </c>
+      <c r="R29" s="22">
+        <v>1</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22">
+        <v>1</v>
+      </c>
+      <c r="U29" s="22">
         <v>0</v>
       </c>
-      <c r="V29" s="27">
-        <v>1</v>
-      </c>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="27"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="V29" s="22">
+        <v>1</v>
+      </c>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="22"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="24">
         <v>28</v>
       </c>
-      <c r="B30" s="29">
-        <v>1</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29">
-        <v>1</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29">
-        <v>1</v>
-      </c>
-      <c r="J30" s="29">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="P30" s="27">
+      <c r="B30" s="24">
+        <v>1</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24">
+        <v>1</v>
+      </c>
+      <c r="J30" s="24">
+        <v>1</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="P30" s="22">
         <v>28</v>
       </c>
-      <c r="Q30" s="27">
-        <v>1</v>
-      </c>
-      <c r="R30" s="27">
-        <v>1</v>
-      </c>
-      <c r="S30" s="27">
-        <v>1</v>
-      </c>
-      <c r="T30" s="27">
-        <v>1</v>
-      </c>
-      <c r="U30" s="27">
+      <c r="Q30" s="22">
+        <v>1</v>
+      </c>
+      <c r="R30" s="22">
+        <v>1</v>
+      </c>
+      <c r="S30" s="22">
+        <v>1</v>
+      </c>
+      <c r="T30" s="22">
+        <v>1</v>
+      </c>
+      <c r="U30" s="22">
         <v>0</v>
       </c>
-      <c r="V30" s="27">
+      <c r="V30" s="22">
         <v>0</v>
       </c>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" s="24">
         <v>29</v>
       </c>
-      <c r="B31" s="29">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29">
-        <v>1</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="P31" s="27">
+      <c r="B31" s="24">
+        <v>1</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="P31" s="22">
         <v>29</v>
       </c>
-      <c r="Q31" s="27">
-        <v>1</v>
-      </c>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27">
+      <c r="Q31" s="22">
+        <v>1</v>
+      </c>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22">
         <v>0</v>
       </c>
-      <c r="U31" s="27">
+      <c r="U31" s="22">
         <v>0</v>
       </c>
-      <c r="V31" s="27">
-        <v>1</v>
-      </c>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="V31" s="22">
+        <v>1</v>
+      </c>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="24">
         <v>30</v>
       </c>
-      <c r="B32" s="29">
-        <v>1</v>
-      </c>
-      <c r="C32" s="29">
-        <v>1</v>
-      </c>
-      <c r="D32" s="29">
-        <v>1</v>
-      </c>
-      <c r="E32" s="29">
-        <v>1</v>
-      </c>
-      <c r="F32" s="29">
-        <v>1</v>
-      </c>
-      <c r="G32" s="29">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="P32" s="27">
+      <c r="B32" s="24">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24">
+        <v>1</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24">
+        <v>1</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="P32" s="22">
         <v>30</v>
       </c>
-      <c r="Q32" s="27">
-        <v>1</v>
-      </c>
-      <c r="R32" s="27">
-        <v>1</v>
-      </c>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27">
-        <v>1</v>
-      </c>
-      <c r="U32" s="27">
+      <c r="Q32" s="22">
+        <v>1</v>
+      </c>
+      <c r="R32" s="22">
+        <v>1</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22">
+        <v>1</v>
+      </c>
+      <c r="U32" s="22">
         <v>0</v>
       </c>
-      <c r="V32" s="27">
-        <v>1</v>
-      </c>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="27"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="V32" s="22">
+        <v>1</v>
+      </c>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="22"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" s="24">
         <v>31</v>
       </c>
-      <c r="B33" s="29">
-        <v>1</v>
-      </c>
-      <c r="C33" s="29">
-        <v>1</v>
-      </c>
-      <c r="D33" s="29">
-        <v>1</v>
-      </c>
-      <c r="E33" s="29">
-        <v>1</v>
-      </c>
-      <c r="F33" s="29">
-        <v>1</v>
-      </c>
-      <c r="G33" s="29">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="P33" s="27">
+      <c r="B33" s="24">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="P33" s="22">
         <v>31</v>
       </c>
-      <c r="Q33" s="27">
-        <v>1</v>
-      </c>
-      <c r="R33" s="27">
-        <v>1</v>
-      </c>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27">
-        <v>1</v>
-      </c>
-      <c r="U33" s="27">
+      <c r="Q33" s="22">
+        <v>1</v>
+      </c>
+      <c r="R33" s="22">
+        <v>1</v>
+      </c>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22">
+        <v>1</v>
+      </c>
+      <c r="U33" s="22">
         <v>0</v>
       </c>
-      <c r="V33" s="27">
-        <v>1</v>
-      </c>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="27"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="V33" s="22">
+        <v>1</v>
+      </c>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="22"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="24">
         <v>32</v>
       </c>
-      <c r="B34" s="29">
-        <v>1</v>
-      </c>
-      <c r="C34" s="29">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29">
-        <v>1</v>
-      </c>
-      <c r="E34" s="29">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29">
-        <v>1</v>
-      </c>
-      <c r="G34" s="29">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="P34" s="27">
+      <c r="B34" s="24">
+        <v>1</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="24">
+        <v>1</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="P34" s="22">
         <v>32</v>
       </c>
-      <c r="Q34" s="27">
-        <v>1</v>
-      </c>
-      <c r="R34" s="27">
-        <v>1</v>
-      </c>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27">
-        <v>1</v>
-      </c>
-      <c r="U34" s="27">
+      <c r="Q34" s="22">
+        <v>1</v>
+      </c>
+      <c r="R34" s="22">
+        <v>1</v>
+      </c>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22">
+        <v>1</v>
+      </c>
+      <c r="U34" s="22">
         <v>0</v>
       </c>
-      <c r="V34" s="27">
-        <v>1</v>
-      </c>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="27"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="V34" s="22">
+        <v>1</v>
+      </c>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="22"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="24">
         <v>33</v>
       </c>
-      <c r="B35" s="29">
-        <v>1</v>
-      </c>
-      <c r="C35" s="29">
-        <v>1</v>
-      </c>
-      <c r="D35" s="29">
-        <v>1</v>
-      </c>
-      <c r="E35" s="29">
-        <v>1</v>
-      </c>
-      <c r="F35" s="29">
-        <v>1</v>
-      </c>
-      <c r="G35" s="29">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="P35" s="27">
+      <c r="B35" s="24">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
+        <v>1</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="P35" s="22">
         <v>33</v>
       </c>
-      <c r="Q35" s="27">
-        <v>1</v>
-      </c>
-      <c r="R35" s="27">
-        <v>1</v>
-      </c>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27">
-        <v>1</v>
-      </c>
-      <c r="U35" s="27">
+      <c r="Q35" s="22">
+        <v>1</v>
+      </c>
+      <c r="R35" s="22">
+        <v>1</v>
+      </c>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22">
+        <v>1</v>
+      </c>
+      <c r="U35" s="22">
         <v>0</v>
       </c>
-      <c r="V35" s="27">
-        <v>1</v>
-      </c>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="27"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="V35" s="22">
+        <v>1</v>
+      </c>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="22"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="24">
         <v>34</v>
       </c>
-      <c r="B36" s="29">
-        <v>1</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29">
-        <v>1</v>
-      </c>
-      <c r="J36" s="29">
-        <v>1</v>
-      </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="P36" s="27">
+      <c r="B36" s="24">
+        <v>1</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24">
+        <v>1</v>
+      </c>
+      <c r="J36" s="24">
+        <v>1</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="P36" s="22">
         <v>34</v>
       </c>
-      <c r="Q36" s="27">
-        <v>1</v>
-      </c>
-      <c r="R36" s="27">
-        <v>1</v>
-      </c>
-      <c r="S36" s="27">
-        <v>1</v>
-      </c>
-      <c r="T36" s="27">
-        <v>1</v>
-      </c>
-      <c r="U36" s="27">
+      <c r="Q36" s="22">
+        <v>1</v>
+      </c>
+      <c r="R36" s="22">
+        <v>1</v>
+      </c>
+      <c r="S36" s="22">
+        <v>1</v>
+      </c>
+      <c r="T36" s="22">
+        <v>1</v>
+      </c>
+      <c r="U36" s="22">
         <v>0</v>
       </c>
-      <c r="V36" s="27">
+      <c r="V36" s="22">
         <v>0</v>
       </c>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="24">
         <v>35</v>
       </c>
-      <c r="B37" s="29">
-        <v>1</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29">
-        <v>1</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29">
-        <v>1</v>
-      </c>
-      <c r="J37" s="29">
-        <v>1</v>
-      </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="P37" s="27">
+      <c r="B37" s="24">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24">
+        <v>1</v>
+      </c>
+      <c r="J37" s="24">
+        <v>1</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="P37" s="22">
         <v>35</v>
       </c>
-      <c r="Q37" s="27">
-        <v>1</v>
-      </c>
-      <c r="R37" s="27">
-        <v>1</v>
-      </c>
-      <c r="S37" s="27">
-        <v>1</v>
-      </c>
-      <c r="T37" s="27">
-        <v>1</v>
-      </c>
-      <c r="U37" s="27">
+      <c r="Q37" s="22">
+        <v>1</v>
+      </c>
+      <c r="R37" s="22">
+        <v>1</v>
+      </c>
+      <c r="S37" s="22">
+        <v>1</v>
+      </c>
+      <c r="T37" s="22">
+        <v>1</v>
+      </c>
+      <c r="U37" s="22">
         <v>0</v>
       </c>
-      <c r="V37" s="27">
+      <c r="V37" s="22">
         <v>0</v>
       </c>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="24">
         <v>36</v>
       </c>
-      <c r="B38" s="29">
-        <v>1</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29">
-        <v>1</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29">
-        <v>1</v>
-      </c>
-      <c r="J38" s="29">
-        <v>1</v>
-      </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="P38" s="27">
+      <c r="B38" s="24">
+        <v>1</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24">
+        <v>1</v>
+      </c>
+      <c r="J38" s="24">
+        <v>1</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="P38" s="22">
         <v>36</v>
       </c>
-      <c r="Q38" s="27">
-        <v>1</v>
-      </c>
-      <c r="R38" s="27">
-        <v>1</v>
-      </c>
-      <c r="S38" s="27">
-        <v>1</v>
-      </c>
-      <c r="T38" s="27">
-        <v>1</v>
-      </c>
-      <c r="U38" s="27">
+      <c r="Q38" s="22">
+        <v>1</v>
+      </c>
+      <c r="R38" s="22">
+        <v>1</v>
+      </c>
+      <c r="S38" s="22">
+        <v>1</v>
+      </c>
+      <c r="T38" s="22">
+        <v>1</v>
+      </c>
+      <c r="U38" s="22">
         <v>0</v>
       </c>
-      <c r="V38" s="27">
+      <c r="V38" s="22">
         <v>0</v>
       </c>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="24">
         <v>37</v>
       </c>
-      <c r="B39" s="29">
-        <v>1</v>
-      </c>
-      <c r="C39" s="29">
-        <v>1</v>
-      </c>
-      <c r="D39" s="29">
-        <v>1</v>
-      </c>
-      <c r="E39" s="29">
-        <v>1</v>
-      </c>
-      <c r="F39" s="29">
-        <v>1</v>
-      </c>
-      <c r="G39" s="29">
-        <v>1</v>
-      </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="P39" s="27">
+      <c r="B39" s="24">
+        <v>1</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
+      <c r="E39" s="24">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="P39" s="22">
         <v>37</v>
       </c>
-      <c r="Q39" s="27">
-        <v>1</v>
-      </c>
-      <c r="R39" s="27">
-        <v>1</v>
-      </c>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27">
-        <v>1</v>
-      </c>
-      <c r="U39" s="27">
+      <c r="Q39" s="22">
+        <v>1</v>
+      </c>
+      <c r="R39" s="22">
+        <v>1</v>
+      </c>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22">
+        <v>1</v>
+      </c>
+      <c r="U39" s="22">
         <v>0</v>
       </c>
-      <c r="V39" s="27">
-        <v>1</v>
-      </c>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="27"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
+      <c r="V39" s="22">
+        <v>1</v>
+      </c>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="22"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="24">
         <v>38</v>
       </c>
-      <c r="B40" s="29">
-        <v>1</v>
-      </c>
-      <c r="C40" s="29">
-        <v>1</v>
-      </c>
-      <c r="D40" s="29">
-        <v>1</v>
-      </c>
-      <c r="E40" s="29">
-        <v>1</v>
-      </c>
-      <c r="F40" s="29">
-        <v>1</v>
-      </c>
-      <c r="G40" s="29">
-        <v>1</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="P40" s="27">
+      <c r="B40" s="24">
+        <v>1</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" s="24">
+        <v>1</v>
+      </c>
+      <c r="E40" s="24">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="P40" s="22">
         <v>38</v>
       </c>
-      <c r="Q40" s="27">
-        <v>1</v>
-      </c>
-      <c r="R40" s="27">
-        <v>1</v>
-      </c>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27">
-        <v>1</v>
-      </c>
-      <c r="U40" s="27">
+      <c r="Q40" s="22">
+        <v>1</v>
+      </c>
+      <c r="R40" s="22">
+        <v>1</v>
+      </c>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22">
+        <v>1</v>
+      </c>
+      <c r="U40" s="22">
         <v>0</v>
       </c>
-      <c r="V40" s="27">
-        <v>1</v>
-      </c>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="27"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="V40" s="22">
+        <v>1</v>
+      </c>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="22"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="24">
         <v>39</v>
       </c>
-      <c r="B41" s="29">
-        <v>1</v>
-      </c>
-      <c r="C41" s="29">
-        <v>1</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="P41" s="27">
+      <c r="B41" s="24">
+        <v>1</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="P41" s="22">
         <v>39</v>
       </c>
-      <c r="Q41" s="27">
-        <v>1</v>
-      </c>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27">
+      <c r="Q41" s="22">
+        <v>1</v>
+      </c>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22">
         <v>0</v>
       </c>
-      <c r="U41" s="27">
+      <c r="U41" s="22">
         <v>0</v>
       </c>
-      <c r="V41" s="27">
-        <v>1</v>
-      </c>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="V41" s="22">
+        <v>1</v>
+      </c>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="24">
         <v>40</v>
       </c>
-      <c r="B42" s="29">
-        <v>1</v>
-      </c>
-      <c r="C42" s="29">
-        <v>1</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="P42" s="27">
+      <c r="B42" s="24">
+        <v>1</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="P42" s="22">
         <v>40</v>
       </c>
-      <c r="Q42" s="27">
-        <v>1</v>
-      </c>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27">
+      <c r="Q42" s="22">
+        <v>1</v>
+      </c>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22">
         <v>0</v>
       </c>
-      <c r="U42" s="27">
+      <c r="U42" s="22">
         <v>0</v>
       </c>
-      <c r="V42" s="27">
-        <v>1</v>
-      </c>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
+      <c r="V42" s="22">
+        <v>1</v>
+      </c>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AH42" s="21"/>
+      <c r="AI42" s="21"/>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" s="24">
         <v>41</v>
       </c>
-      <c r="B43" s="29">
-        <v>1</v>
-      </c>
-      <c r="C43" s="29">
-        <v>1</v>
-      </c>
-      <c r="D43" s="29">
-        <v>1</v>
-      </c>
-      <c r="E43" s="29">
-        <v>1</v>
-      </c>
-      <c r="F43" s="29">
-        <v>1</v>
-      </c>
-      <c r="G43" s="29">
-        <v>1</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="P43" s="27">
+      <c r="B43" s="24">
+        <v>1</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="24">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="P43" s="22">
         <v>41</v>
       </c>
-      <c r="Q43" s="27">
-        <v>1</v>
-      </c>
-      <c r="R43" s="27">
-        <v>1</v>
-      </c>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27">
-        <v>1</v>
-      </c>
-      <c r="U43" s="27">
+      <c r="Q43" s="22">
+        <v>1</v>
+      </c>
+      <c r="R43" s="22">
+        <v>1</v>
+      </c>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22">
+        <v>1</v>
+      </c>
+      <c r="U43" s="22">
         <v>0</v>
       </c>
-      <c r="V43" s="27">
-        <v>1</v>
-      </c>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="27"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+      <c r="V43" s="22">
+        <v>1</v>
+      </c>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="22"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="24">
         <v>42</v>
       </c>
-      <c r="B44" s="29">
-        <v>1</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29">
-        <v>1</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29">
-        <v>1</v>
-      </c>
-      <c r="J44" s="29">
-        <v>1</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="P44" s="27">
+      <c r="B44" s="24">
+        <v>1</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24">
+        <v>1</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24">
+        <v>1</v>
+      </c>
+      <c r="J44" s="24">
+        <v>1</v>
+      </c>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="P44" s="22">
         <v>42</v>
       </c>
-      <c r="Q44" s="27">
-        <v>1</v>
-      </c>
-      <c r="R44" s="27">
-        <v>1</v>
-      </c>
-      <c r="S44" s="27">
-        <v>1</v>
-      </c>
-      <c r="T44" s="27">
-        <v>1</v>
-      </c>
-      <c r="U44" s="27">
+      <c r="Q44" s="22">
+        <v>1</v>
+      </c>
+      <c r="R44" s="22">
+        <v>1</v>
+      </c>
+      <c r="S44" s="22">
+        <v>1</v>
+      </c>
+      <c r="T44" s="22">
+        <v>1</v>
+      </c>
+      <c r="U44" s="22">
         <v>0</v>
       </c>
-      <c r="V44" s="27">
+      <c r="V44" s="22">
         <v>0</v>
       </c>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="24">
         <v>43</v>
       </c>
-      <c r="B45" s="29">
-        <v>1</v>
-      </c>
-      <c r="C45" s="29">
-        <v>1</v>
-      </c>
-      <c r="D45" s="29">
-        <v>1</v>
-      </c>
-      <c r="E45" s="29">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29">
-        <v>1</v>
-      </c>
-      <c r="G45" s="29">
-        <v>1</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="P45" s="27">
+      <c r="B45" s="24">
+        <v>1</v>
+      </c>
+      <c r="C45" s="24">
+        <v>1</v>
+      </c>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
+      <c r="E45" s="24">
+        <v>1</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="P45" s="22">
         <v>43</v>
       </c>
-      <c r="Q45" s="27">
-        <v>1</v>
-      </c>
-      <c r="R45" s="27">
-        <v>1</v>
-      </c>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27">
-        <v>1</v>
-      </c>
-      <c r="U45" s="27">
+      <c r="Q45" s="22">
+        <v>1</v>
+      </c>
+      <c r="R45" s="22">
+        <v>1</v>
+      </c>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22">
+        <v>1</v>
+      </c>
+      <c r="U45" s="22">
         <v>0</v>
       </c>
-      <c r="V45" s="27">
-        <v>1</v>
-      </c>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="27"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
+      <c r="V45" s="22">
+        <v>1</v>
+      </c>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="22"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="24">
         <v>44</v>
       </c>
-      <c r="B46" s="29">
-        <v>1</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29">
-        <v>1</v>
-      </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29">
-        <v>1</v>
-      </c>
-      <c r="J46" s="29">
-        <v>1</v>
-      </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="P46" s="27">
+      <c r="B46" s="24">
+        <v>1</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24">
+        <v>1</v>
+      </c>
+      <c r="J46" s="24">
+        <v>1</v>
+      </c>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="P46" s="22">
         <v>44</v>
       </c>
-      <c r="Q46" s="27">
-        <v>1</v>
-      </c>
-      <c r="R46" s="27">
-        <v>1</v>
-      </c>
-      <c r="S46" s="27">
-        <v>1</v>
-      </c>
-      <c r="T46" s="27">
-        <v>1</v>
-      </c>
-      <c r="U46" s="27">
+      <c r="Q46" s="22">
+        <v>1</v>
+      </c>
+      <c r="R46" s="22">
+        <v>1</v>
+      </c>
+      <c r="S46" s="22">
+        <v>1</v>
+      </c>
+      <c r="T46" s="22">
+        <v>1</v>
+      </c>
+      <c r="U46" s="22">
         <v>0</v>
       </c>
-      <c r="V46" s="27">
+      <c r="V46" s="22">
         <v>0</v>
       </c>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="24">
         <v>45</v>
       </c>
-      <c r="B47" s="29">
-        <v>1</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29">
-        <v>1</v>
-      </c>
-      <c r="J47" s="29">
-        <v>1</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="P47" s="27">
+      <c r="B47" s="24">
+        <v>1</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24">
+        <v>1</v>
+      </c>
+      <c r="J47" s="24">
+        <v>1</v>
+      </c>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="P47" s="22">
         <v>45</v>
       </c>
-      <c r="Q47" s="27">
-        <v>1</v>
-      </c>
-      <c r="R47" s="27">
-        <v>1</v>
-      </c>
-      <c r="S47" s="27">
-        <v>1</v>
-      </c>
-      <c r="T47" s="27">
-        <v>1</v>
-      </c>
-      <c r="U47" s="27">
+      <c r="Q47" s="22">
+        <v>1</v>
+      </c>
+      <c r="R47" s="22">
+        <v>1</v>
+      </c>
+      <c r="S47" s="22">
+        <v>1</v>
+      </c>
+      <c r="T47" s="22">
+        <v>1</v>
+      </c>
+      <c r="U47" s="22">
         <v>0</v>
       </c>
-      <c r="V47" s="27">
+      <c r="V47" s="22">
         <v>0</v>
       </c>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="27" t="s">
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21"/>
+      <c r="AI47" s="21"/>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="24">
         <f>SUM(B3:B47)</f>
         <v>45</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="24">
         <f t="shared" ref="C48:N48" si="0">SUM(C3:C47)</f>
         <v>24</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J48" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M48" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N48" s="29">
+      <c r="N48" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="X48" s="27">
+      <c r="X48" s="22">
         <f>SUM(X3:X47)</f>
         <v>4</v>
       </c>
-      <c r="Y48" s="27">
+      <c r="Y48" s="22">
         <f t="shared" ref="Y48:AA48" si="1">SUM(Y3:Y47)</f>
         <v>11</v>
       </c>
-      <c r="Z48" s="27">
+      <c r="Z48" s="22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="AA48" s="27">
+      <c r="AA48" s="22">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AB48" s="27">
+      <c r="AB48" s="22">
         <f>SUM(X48:AA48)</f>
         <v>44</v>
       </c>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="21"/>
+    </row>
+    <row r="50" spans="1:35">
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="X51" s="27" t="s">
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="X51" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Y51" s="27" t="s">
+      <c r="Y51" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="Z51" s="27" t="s">
+      <c r="Z51" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AA51" s="27" t="s">
+      <c r="AA51" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="X52" s="34">
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+    </row>
+    <row r="52" spans="1:35">
+      <c r="X52" s="27">
         <f>X48/$AB$48</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="Y52" s="34">
+      <c r="Y52" s="27">
         <f t="shared" ref="Y52:AA52" si="2">Y48/$AB$48</f>
         <v>0.25</v>
       </c>
-      <c r="Z52" s="34">
+      <c r="Z52" s="27">
         <f t="shared" si="2"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="AA52" s="34">
+      <c r="AA52" s="27">
         <f t="shared" si="2"/>
         <v>0.29545454545454547</v>
       </c>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="26"/>
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="26"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="26"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="26"/>
-      <c r="AI58" s="26"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="26"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="26"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
-      <c r="AG61" s="26"/>
-      <c r="AH61" s="26"/>
-      <c r="AI61" s="26"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="26"/>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE63" s="26"/>
-      <c r="AF63" s="26"/>
-      <c r="AG63" s="26"/>
-      <c r="AH63" s="26"/>
-      <c r="AI63" s="26"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AE64" s="26"/>
-      <c r="AF64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AH64" s="26"/>
-      <c r="AI64" s="26"/>
-    </row>
-    <row r="65" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE65" s="26"/>
-      <c r="AF65" s="26"/>
-      <c r="AG65" s="26"/>
-      <c r="AH65" s="26"/>
-      <c r="AI65" s="26"/>
-    </row>
-    <row r="66" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="26"/>
-      <c r="AI66" s="26"/>
-    </row>
-    <row r="67" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE67" s="26"/>
-      <c r="AF67" s="26"/>
-      <c r="AG67" s="26"/>
-      <c r="AH67" s="26"/>
-      <c r="AI67" s="26"/>
-    </row>
-    <row r="68" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE68" s="26"/>
-      <c r="AF68" s="26"/>
-      <c r="AG68" s="26"/>
-      <c r="AH68" s="26"/>
-      <c r="AI68" s="26"/>
-    </row>
-    <row r="69" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="26"/>
-      <c r="AG69" s="26"/>
-      <c r="AH69" s="26"/>
-      <c r="AI69" s="26"/>
-    </row>
-    <row r="70" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE70" s="26"/>
-      <c r="AF70" s="26"/>
-      <c r="AG70" s="26"/>
-      <c r="AH70" s="26"/>
-      <c r="AI70" s="26"/>
-    </row>
-    <row r="71" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE71" s="26"/>
-      <c r="AF71" s="26"/>
-      <c r="AG71" s="26"/>
-      <c r="AH71" s="26"/>
-      <c r="AI71" s="26"/>
-    </row>
-    <row r="72" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE72" s="26"/>
-      <c r="AF72" s="26"/>
-      <c r="AG72" s="26"/>
-      <c r="AH72" s="26"/>
-      <c r="AI72" s="26"/>
-    </row>
-    <row r="73" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE73" s="26"/>
-      <c r="AF73" s="26"/>
-      <c r="AG73" s="26"/>
-      <c r="AH73" s="26"/>
-      <c r="AI73" s="26"/>
-    </row>
-    <row r="74" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE74" s="26"/>
-      <c r="AF74" s="26"/>
-      <c r="AG74" s="26"/>
-      <c r="AH74" s="26"/>
-      <c r="AI74" s="26"/>
-    </row>
-    <row r="75" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE75" s="26"/>
-      <c r="AF75" s="26"/>
-      <c r="AG75" s="26"/>
-      <c r="AH75" s="26"/>
-      <c r="AI75" s="26"/>
-    </row>
-    <row r="76" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE76" s="26"/>
-      <c r="AF76" s="26"/>
-      <c r="AG76" s="26"/>
-      <c r="AH76" s="26"/>
-      <c r="AI76" s="26"/>
-    </row>
-    <row r="77" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE77" s="26"/>
-      <c r="AF77" s="26"/>
-      <c r="AG77" s="26"/>
-      <c r="AH77" s="26"/>
-      <c r="AI77" s="26"/>
-    </row>
-    <row r="78" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE78" s="26"/>
-      <c r="AF78" s="26"/>
-      <c r="AG78" s="26"/>
-      <c r="AH78" s="26"/>
-      <c r="AI78" s="26"/>
-    </row>
-    <row r="79" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE79" s="26"/>
-      <c r="AF79" s="26"/>
-      <c r="AG79" s="26"/>
-      <c r="AH79" s="26"/>
-      <c r="AI79" s="26"/>
-    </row>
-    <row r="80" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE80" s="26"/>
-      <c r="AF80" s="26"/>
-      <c r="AG80" s="26"/>
-      <c r="AH80" s="26"/>
-      <c r="AI80" s="26"/>
-    </row>
-    <row r="81" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE81" s="26"/>
-      <c r="AF81" s="26"/>
-      <c r="AG81" s="26"/>
-      <c r="AH81" s="26"/>
-      <c r="AI81" s="26"/>
-    </row>
-    <row r="82" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE82" s="26"/>
-      <c r="AF82" s="26"/>
-      <c r="AH82" s="26"/>
-      <c r="AI82" s="26"/>
-    </row>
-    <row r="83" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE83" s="26"/>
-      <c r="AF83" s="26"/>
-      <c r="AH83" s="26"/>
-      <c r="AI83" s="26"/>
-    </row>
-    <row r="84" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE84" s="26"/>
-      <c r="AF84" s="26"/>
-      <c r="AH84" s="26"/>
-      <c r="AI84" s="26"/>
-    </row>
-    <row r="85" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE85" s="26"/>
-      <c r="AF85" s="26"/>
-      <c r="AH85" s="26"/>
-      <c r="AI85" s="26"/>
-    </row>
-    <row r="86" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="26"/>
-      <c r="AH86" s="26"/>
-      <c r="AI86" s="26"/>
-    </row>
-    <row r="87" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF87" s="26"/>
-      <c r="AH87" s="26"/>
-      <c r="AI87" s="26"/>
-    </row>
-    <row r="88" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF88" s="26"/>
-      <c r="AH88" s="26"/>
-      <c r="AI88" s="26"/>
-    </row>
-    <row r="89" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF89" s="26"/>
-      <c r="AH89" s="26"/>
-      <c r="AI89" s="26"/>
-    </row>
-    <row r="90" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF90" s="26"/>
-      <c r="AH90" s="26"/>
-      <c r="AI90" s="26"/>
-    </row>
-    <row r="91" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF91" s="26"/>
-      <c r="AH91" s="26"/>
-      <c r="AI91" s="26"/>
-    </row>
-    <row r="92" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF92" s="26"/>
-      <c r="AI92" s="26"/>
-    </row>
-    <row r="93" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF93" s="26"/>
-      <c r="AI93" s="26"/>
-    </row>
-    <row r="94" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AF94" s="26"/>
-      <c r="AI94" s="26"/>
-    </row>
-    <row r="95" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AI95" s="26"/>
-    </row>
-    <row r="96" spans="31:35" x14ac:dyDescent="0.2">
-      <c r="AI96" s="26"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+    </row>
+    <row r="53" spans="1:35">
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+    </row>
+    <row r="55" spans="1:35">
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+    </row>
+    <row r="56" spans="1:35">
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+    </row>
+    <row r="57" spans="1:35">
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="21"/>
+      <c r="AH58" s="21"/>
+      <c r="AI58" s="21"/>
+    </row>
+    <row r="59" spans="1:35">
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AH59" s="21"/>
+      <c r="AI59" s="21"/>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+    </row>
+    <row r="65" spans="31:35">
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+    </row>
+    <row r="66" spans="31:35">
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+    </row>
+    <row r="67" spans="31:35">
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21"/>
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="21"/>
+    </row>
+    <row r="68" spans="31:35">
+      <c r="AE68" s="21"/>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="21"/>
+      <c r="AH68" s="21"/>
+      <c r="AI68" s="21"/>
+    </row>
+    <row r="69" spans="31:35">
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+    </row>
+    <row r="70" spans="31:35">
+      <c r="AE70" s="21"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="21"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+    </row>
+    <row r="71" spans="31:35">
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+    </row>
+    <row r="72" spans="31:35">
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+    </row>
+    <row r="73" spans="31:35">
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+    </row>
+    <row r="74" spans="31:35">
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+    </row>
+    <row r="75" spans="31:35">
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+    </row>
+    <row r="76" spans="31:35">
+      <c r="AE76" s="21"/>
+      <c r="AF76" s="21"/>
+      <c r="AG76" s="21"/>
+      <c r="AH76" s="21"/>
+      <c r="AI76" s="21"/>
+    </row>
+    <row r="77" spans="31:35">
+      <c r="AE77" s="21"/>
+      <c r="AF77" s="21"/>
+      <c r="AG77" s="21"/>
+      <c r="AH77" s="21"/>
+      <c r="AI77" s="21"/>
+    </row>
+    <row r="78" spans="31:35">
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+    </row>
+    <row r="79" spans="31:35">
+      <c r="AE79" s="21"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="21"/>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+    </row>
+    <row r="80" spans="31:35">
+      <c r="AE80" s="21"/>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21"/>
+      <c r="AH80" s="21"/>
+      <c r="AI80" s="21"/>
+    </row>
+    <row r="81" spans="31:35">
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21"/>
+      <c r="AH81" s="21"/>
+      <c r="AI81" s="21"/>
+    </row>
+    <row r="82" spans="31:35">
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="21"/>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+    </row>
+    <row r="83" spans="31:35">
+      <c r="AE83" s="21"/>
+      <c r="AF83" s="21"/>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+    </row>
+    <row r="84" spans="31:35">
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AH84" s="21"/>
+      <c r="AI84" s="21"/>
+    </row>
+    <row r="85" spans="31:35">
+      <c r="AE85" s="21"/>
+      <c r="AF85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+    </row>
+    <row r="86" spans="31:35">
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+    </row>
+    <row r="87" spans="31:35">
+      <c r="AF87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+    </row>
+    <row r="88" spans="31:35">
+      <c r="AF88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+    </row>
+    <row r="89" spans="31:35">
+      <c r="AF89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+    </row>
+    <row r="90" spans="31:35">
+      <c r="AF90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+    </row>
+    <row r="91" spans="31:35">
+      <c r="AF91" s="21"/>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+    </row>
+    <row r="92" spans="31:35">
+      <c r="AF92" s="21"/>
+      <c r="AI92" s="21"/>
+    </row>
+    <row r="93" spans="31:35">
+      <c r="AF93" s="21"/>
+      <c r="AI93" s="21"/>
+    </row>
+    <row r="94" spans="31:35">
+      <c r="AF94" s="21"/>
+      <c r="AI94" s="21"/>
+    </row>
+    <row r="95" spans="31:35">
+      <c r="AI95" s="21"/>
+    </row>
+    <row r="96" spans="31:35">
+      <c r="AI96" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibianagambas/Documents/Universidad de Los Andes/Octavo Semestre/Simulación de Eventos Discretos/Proyecto/SimulationProject/AnalisisDeEntrada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlospenaloza/Universidad/Simulación/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3755E2-9DAF-BE42-A07B-552506ED3AB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE33975-79BC-B24C-8186-A0385840EB5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="EntregaExámenes" sheetId="5" r:id="rId2"/>
-    <sheet name="Toma1y2" sheetId="2" r:id="rId3"/>
-    <sheet name="Toma3y4" sheetId="3" r:id="rId4"/>
-    <sheet name="Profesiogramas" sheetId="4" r:id="rId5"/>
+    <sheet name="Arribos" sheetId="6" r:id="rId3"/>
+    <sheet name="Toma1y2" sheetId="2" r:id="rId4"/>
+    <sheet name="Toma3y4" sheetId="3" r:id="rId5"/>
+    <sheet name="Profesiogramas" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Recepción2</t>
   </si>
@@ -225,6 +226,12 @@
   <si>
     <t>Tiempo entre Arribo (minutos)</t>
   </si>
+  <si>
+    <t>Franja</t>
+  </si>
+  <si>
+    <t>TiempoEntreArribos</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +241,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +388,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -862,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -897,6 +911,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,11 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1492,16 +1507,16 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="28">
         <v>167.19970000000001</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="28">
         <v>3.9979619999999998</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="28">
         <v>101.38073900000001</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="28">
         <v>4.360474</v>
       </c>
     </row>
@@ -1542,16 +1557,16 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="28">
         <v>10.5906</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="28">
         <v>9.5546209999999991</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="28">
         <v>7.4195859999999998</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="28">
         <v>3.7475960000000001</v>
       </c>
     </row>
@@ -1765,19 +1780,19 @@
       <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="28">
         <f>LN((L8^2)/(SQRT((L8^2)+(L9^2))))</f>
         <v>2.216310606917998E-2</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="28">
         <f t="shared" ref="M11:R11" si="0">LN((M8^2)/(SQRT((M8^2)+(M9^2))))</f>
         <v>-0.4257171517316703</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="28">
         <f t="shared" si="0"/>
         <v>0.7089098707291297</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="28">
         <f t="shared" si="0"/>
         <v>-0.11879450171208296</v>
       </c>
@@ -1819,19 +1834,19 @@
       <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="28">
         <f>SQRT(LN(1+L9^2/L8^2))</f>
         <v>0.11587847437038727</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="28">
         <f>SQRT(LN(1+M9^2/M8^2))</f>
         <v>0.24048760042794193</v>
       </c>
-      <c r="O12" s="35">
-        <f t="shared" ref="N12:R12" si="1">SQRT(LN(1+O9^2/O8^2))</f>
+      <c r="O12" s="28">
+        <f t="shared" ref="O12:R12" si="1">SQRT(LN(1+O9^2/O8^2))</f>
         <v>0.12368512307829335</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="28">
         <f t="shared" si="1"/>
         <v>0.45893198515629369</v>
       </c>
@@ -1908,16 +1923,16 @@
       <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1958,16 +1973,16 @@
       <c r="K15" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="R15" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2944,34 +2959,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27785034-BCD8-A449-A6C2-32FB7E6399EB}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="48">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="37">
+      <c r="A2" s="30">
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="37">
+      <c r="A3" s="30">
         <f>A2+(C3/1440)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="30">
         <f>A3-A2</f>
         <v>0</v>
       </c>
@@ -2980,11 +2995,11 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="37">
+      <c r="A4" s="30">
         <f t="shared" ref="A4:A51" si="0">A3+(C4/1440)</f>
         <v>0.30347222222222225</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="30">
         <f t="shared" ref="B4:B51" si="1">A4-A3</f>
         <v>1.1805555555555569E-2</v>
       </c>
@@ -2993,11 +3008,11 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37">
+      <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="30">
         <f t="shared" si="1"/>
         <v>9.0277777777778012E-3</v>
       </c>
@@ -3006,11 +3021,11 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="37">
+      <c r="A6" s="30">
         <f t="shared" si="0"/>
         <v>0.31736111111111115</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="30">
         <f t="shared" si="1"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -3019,11 +3034,11 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37">
+      <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>0.32708333333333339</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="30">
         <f t="shared" si="1"/>
         <v>9.7222222222222432E-3</v>
       </c>
@@ -3032,11 +3047,11 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="37">
+      <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>0.32777777777777783</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="30">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-4</v>
       </c>
@@ -3045,11 +3060,11 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="37">
+      <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>0.3305555555555556</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="30">
         <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -3058,11 +3073,11 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="37">
+      <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>0.35625000000000007</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="30">
         <f t="shared" si="1"/>
         <v>2.5694444444444464E-2</v>
       </c>
@@ -3071,11 +3086,11 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="37">
+      <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>0.35902777777777783</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="30">
         <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -3084,11 +3099,11 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="37">
+      <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>0.35902777777777783</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3097,11 +3112,11 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="37">
+      <c r="A13" s="30">
         <f t="shared" si="0"/>
         <v>0.37222222222222229</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="30">
         <f t="shared" si="1"/>
         <v>1.3194444444444453E-2</v>
       </c>
@@ -3110,11 +3125,11 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="37">
+      <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>0.38611111111111118</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="30">
         <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
@@ -3123,11 +3138,11 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="37">
+      <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>0.38819444444444451</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="30">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -3136,11 +3151,11 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="37">
+      <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>0.39930555555555564</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="30">
         <f t="shared" si="1"/>
         <v>1.1111111111111127E-2</v>
       </c>
@@ -3149,11 +3164,11 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="37">
+      <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>0.40277777777777785</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="30">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -3162,11 +3177,11 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="37">
+      <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>0.40763888888888894</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="30">
         <f t="shared" si="1"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -3175,11 +3190,11 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="37">
+      <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>0.42013888888888895</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="30">
         <f t="shared" si="1"/>
         <v>1.2500000000000011E-2</v>
       </c>
@@ -3188,11 +3203,11 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="37">
+      <c r="A20" s="30">
         <f t="shared" si="0"/>
         <v>0.42777777777777781</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="30">
         <f t="shared" si="1"/>
         <v>7.6388888888888618E-3</v>
       </c>
@@ -3201,11 +3216,11 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="37">
+      <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>0.42777777777777781</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3214,11 +3229,11 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="37">
+      <c r="A22" s="30">
         <f t="shared" si="0"/>
         <v>0.42777777777777781</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3227,11 +3242,11 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="37">
+      <c r="A23" s="30">
         <f t="shared" si="0"/>
         <v>0.43750000000000006</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="30">
         <f t="shared" si="1"/>
         <v>9.7222222222222432E-3</v>
       </c>
@@ -3240,11 +3255,11 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="37">
+      <c r="A24" s="30">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="30">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -3253,11 +3268,11 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="37">
+      <c r="A25" s="30">
         <f t="shared" si="0"/>
         <v>0.45069444444444451</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="30">
         <f t="shared" si="1"/>
         <v>9.7222222222222432E-3</v>
       </c>
@@ -3266,11 +3281,11 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="37">
+      <c r="A26" s="30">
         <f t="shared" si="0"/>
         <v>0.45486111111111116</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="30">
         <f t="shared" si="1"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -3279,11 +3294,11 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="37">
+      <c r="A27" s="30">
         <f t="shared" si="0"/>
         <v>0.46180555555555558</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="30">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -3292,11 +3307,11 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="37">
+      <c r="A28" s="30">
         <f t="shared" si="0"/>
         <v>0.47083333333333338</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="30">
         <f t="shared" si="1"/>
         <v>9.0277777777778012E-3</v>
       </c>
@@ -3305,11 +3320,11 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="37">
+      <c r="A29" s="30">
         <f t="shared" si="0"/>
         <v>0.47152777777777782</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="30">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-4</v>
       </c>
@@ -3318,11 +3333,11 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="37">
+      <c r="A30" s="30">
         <f t="shared" si="0"/>
         <v>0.48333333333333339</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="30">
         <f t="shared" si="1"/>
         <v>1.1805555555555569E-2</v>
       </c>
@@ -3331,11 +3346,11 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="37">
+      <c r="A31" s="30">
         <f t="shared" si="0"/>
         <v>0.48750000000000004</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="30">
         <f t="shared" si="1"/>
         <v>4.1666666666666519E-3</v>
       </c>
@@ -3344,11 +3359,11 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="37">
+      <c r="A32" s="30">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="30">
         <f t="shared" si="1"/>
         <v>1.2499999999999956E-2</v>
       </c>
@@ -3357,11 +3372,11 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="37">
+      <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>0.50694444444444442</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="30">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -3370,11 +3385,11 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="37">
+      <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>0.51041666666666663</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="30">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -3383,11 +3398,11 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37">
+      <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>0.51249999999999996</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="30">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -3396,11 +3411,11 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37">
+      <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>0.51805555555555549</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="30">
         <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -3409,11 +3424,11 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="37">
+      <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>0.51944444444444438</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="30">
         <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
@@ -3422,11 +3437,11 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="37">
+      <c r="A38" s="30">
         <f t="shared" si="0"/>
         <v>0.53611111111111109</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="30">
         <f t="shared" si="1"/>
         <v>1.6666666666666718E-2</v>
       </c>
@@ -3435,11 +3450,11 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="37">
+      <c r="A39" s="30">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="30">
         <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -3448,11 +3463,11 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="37">
+      <c r="A40" s="30">
         <f t="shared" si="0"/>
         <v>0.54861111111111105</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="30">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -3461,11 +3476,11 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="37">
+      <c r="A41" s="30">
         <f t="shared" si="0"/>
         <v>0.54861111111111105</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3474,11 +3489,11 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="37">
+      <c r="A42" s="30">
         <f t="shared" si="0"/>
         <v>0.55486111111111103</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="30">
         <f t="shared" si="1"/>
         <v>6.2499999999999778E-3</v>
       </c>
@@ -3487,11 +3502,11 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="37">
+      <c r="A43" s="30">
         <f t="shared" si="0"/>
         <v>0.56736111111111098</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="30">
         <f t="shared" si="1"/>
         <v>1.2499999999999956E-2</v>
       </c>
@@ -3500,11 +3515,11 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="37">
+      <c r="A44" s="30">
         <f t="shared" si="0"/>
         <v>0.57222222222222208</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="30">
         <f t="shared" si="1"/>
         <v>4.8611111111110938E-3</v>
       </c>
@@ -3513,11 +3528,11 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37">
+      <c r="A45" s="30">
         <f t="shared" si="0"/>
         <v>0.58194444444444426</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="30">
         <f t="shared" si="1"/>
         <v>9.7222222222221877E-3</v>
       </c>
@@ -3526,11 +3541,11 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37">
+      <c r="A46" s="30">
         <f t="shared" si="0"/>
         <v>0.59097222222222201</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="30">
         <f t="shared" si="1"/>
         <v>9.0277777777777457E-3</v>
       </c>
@@ -3539,11 +3554,11 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37">
+      <c r="A47" s="30">
         <f t="shared" si="0"/>
         <v>0.59652777777777755</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="30">
         <f t="shared" si="1"/>
         <v>5.5555555555555358E-3</v>
       </c>
@@ -3552,11 +3567,11 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37">
+      <c r="A48" s="30">
         <f t="shared" si="0"/>
         <v>0.60555555555555529</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="30">
         <f t="shared" si="1"/>
         <v>9.0277777777777457E-3</v>
       </c>
@@ -3565,11 +3580,11 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="37">
+      <c r="A49" s="30">
         <f t="shared" si="0"/>
         <v>0.60694444444444418</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="30">
         <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
@@ -3578,11 +3593,11 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37">
+      <c r="A50" s="30">
         <f t="shared" si="0"/>
         <v>0.61527777777777748</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="30">
         <f t="shared" si="1"/>
         <v>8.3333333333333037E-3</v>
       </c>
@@ -3591,11 +3606,11 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37">
+      <c r="A51" s="30">
         <f t="shared" si="0"/>
         <v>0.61736111111111081</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="30">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
@@ -3609,6 +3624,605 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33526E96-1937-974E-AD81-131F425CD5B2}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38">
+        <v>12.533333300000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38">
+        <v>15.0166667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38">
+        <v>28.233333300000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38">
+        <v>6.2833333299999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38">
+        <v>5.3666666699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38">
+        <v>20.016666699999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38">
+        <v>14.4166667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38">
+        <v>15.3833333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38">
+        <v>5.3333333300000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38">
+        <v>13.3333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="38">
+        <v>27.1666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="38">
+        <v>7.2666666700000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="38">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="38">
+        <v>26.766666699999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="38">
+        <v>19.3333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="38">
+        <v>14.8666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38">
+        <v>4.0833333300000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="38">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38">
+        <v>21.283333299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="38">
+        <v>12.6166667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="38">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="38">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="38">
+        <v>14.1333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="38">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="38">
+        <v>19.1333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="38">
+        <v>7.7833333299999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="38">
+        <v>4.81666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="38">
+        <v>10.783333300000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="38">
+        <v>9.3833333299999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="38">
+        <v>17.716666700000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="38">
+        <v>6.7166666700000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="38">
+        <v>13.1166667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="38">
+        <v>37.933333300000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="38">
+        <v>66.866666699999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>18.066666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>27.633333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>13.116666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>4.5666666666666664</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>24.183333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>15.016666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>28.233333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>27.166666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>7.2666666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>26.766666666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>14.866666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>21.283333333333335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>12.616666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>14.133333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>20.016666666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>15.383333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>4.8166666666666664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>10.783333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>9.3833333333333329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>14.866666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
@@ -3622,52 +4236,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="30" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="30" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:27" ht="16" thickBot="1">
-      <c r="A2" s="29"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -5996,7 +6610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
@@ -6007,52 +6621,52 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="30" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="30" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:28" ht="16" thickBot="1">
-      <c r="A2" s="29"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -8042,7 +8656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB26D70-89A7-EA4A-9E0A-F8C3AC05801A}">
   <dimension ref="A1:AI96"/>
   <sheetViews>
@@ -8060,37 +8674,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="X1" s="34" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="X1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
     </row>
     <row r="2" spans="1:35" ht="80">
       <c r="A2" s="24" t="s">

--- a/AnalisisDeEntrada/DATA_FINAL.xlsx
+++ b/AnalisisDeEntrada/DATA_FINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlospenaloza/Universidad/Simulación/SimulationProject/AnalisisDeEntrada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasacevedo/Desktop/SimulationProject/AnalisisDeEntrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE33975-79BC-B24C-8186-A0385840EB5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1426CD-457B-E649-A041-7B7C89D937C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Toma1y2" sheetId="2" r:id="rId4"/>
     <sheet name="Toma3y4" sheetId="3" r:id="rId5"/>
     <sheet name="Profesiogramas" sheetId="4" r:id="rId6"/>
+    <sheet name="ArribosF" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>Recepción2</t>
   </si>
@@ -227,10 +228,10 @@
     <t>Tiempo entre Arribo (minutos)</t>
   </si>
   <si>
-    <t>Franja</t>
+    <t>FranjaHoraria</t>
   </si>
   <si>
-    <t>TiempoEntreArribos</t>
+    <t>TiempoEntreArribo</t>
   </si>
 </sst>
 </file>
@@ -241,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +917,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,7 +939,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1265,12 +1266,12 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>-0.42571720000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>4.360474</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>3.7475960000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>0.98660530000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>0.47770590000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>-0.11879450171208296</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>0.45893198515629369</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2578,7 +2579,7 @@
       </c>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2610,7 +2611,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2642,7 +2643,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2674,7 +2675,7 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2915,7 +2916,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2924,7 +2925,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2933,7 +2934,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2942,7 +2943,7 @@
       </c>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2963,9 +2964,9 @@
       <selection sqref="A1:C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="48">
+    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -2976,12 +2977,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <f>A2+(C3/1440)</f>
         <v>0.29166666666666669</v>
@@ -2994,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <f t="shared" ref="A4:A51" si="0">A3+(C4/1440)</f>
         <v>0.30347222222222225</v>
@@ -3007,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <f t="shared" si="0"/>
         <v>0.31250000000000006</v>
@@ -3020,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <f t="shared" si="0"/>
         <v>0.31736111111111115</v>
@@ -3033,7 +3034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>0.32708333333333339</v>
@@ -3046,7 +3047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>0.32777777777777783</v>
@@ -3059,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>0.3305555555555556</v>
@@ -3072,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>0.35625000000000007</v>
@@ -3085,7 +3086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>0.35902777777777783</v>
@@ -3098,7 +3099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>0.35902777777777783</v>
@@ -3111,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <f t="shared" si="0"/>
         <v>0.37222222222222229</v>
@@ -3124,7 +3125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>0.38611111111111118</v>
@@ -3137,7 +3138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>0.38819444444444451</v>
@@ -3150,7 +3151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>0.39930555555555564</v>
@@ -3163,7 +3164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>0.40277777777777785</v>
@@ -3176,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>0.40763888888888894</v>
@@ -3189,7 +3190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>0.42013888888888895</v>
@@ -3202,7 +3203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <f t="shared" si="0"/>
         <v>0.42777777777777781</v>
@@ -3215,7 +3216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>0.42777777777777781</v>
@@ -3228,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <f t="shared" si="0"/>
         <v>0.42777777777777781</v>
@@ -3241,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <f t="shared" si="0"/>
         <v>0.43750000000000006</v>
@@ -3254,7 +3255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <f t="shared" si="0"/>
         <v>0.44097222222222227</v>
@@ -3267,7 +3268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <f t="shared" si="0"/>
         <v>0.45069444444444451</v>
@@ -3280,7 +3281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <f t="shared" si="0"/>
         <v>0.45486111111111116</v>
@@ -3293,7 +3294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <f t="shared" si="0"/>
         <v>0.46180555555555558</v>
@@ -3306,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <f t="shared" si="0"/>
         <v>0.47083333333333338</v>
@@ -3319,7 +3320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <f t="shared" si="0"/>
         <v>0.47152777777777782</v>
@@ -3332,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <f t="shared" si="0"/>
         <v>0.48333333333333339</v>
@@ -3345,7 +3346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <f t="shared" si="0"/>
         <v>0.48750000000000004</v>
@@ -3358,7 +3359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -3371,7 +3372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>0.50694444444444442</v>
@@ -3384,7 +3385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>0.51041666666666663</v>
@@ -3397,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>0.51249999999999996</v>
@@ -3410,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>0.51805555555555549</v>
@@ -3423,7 +3424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>0.51944444444444438</v>
@@ -3436,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <f t="shared" si="0"/>
         <v>0.53611111111111109</v>
@@ -3449,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -3462,7 +3463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <f t="shared" si="0"/>
         <v>0.54861111111111105</v>
@@ -3475,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
         <f t="shared" si="0"/>
         <v>0.54861111111111105</v>
@@ -3488,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <f t="shared" si="0"/>
         <v>0.55486111111111103</v>
@@ -3501,7 +3502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="30">
         <f t="shared" si="0"/>
         <v>0.56736111111111098</v>
@@ -3514,7 +3515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="30">
         <f t="shared" si="0"/>
         <v>0.57222222222222208</v>
@@ -3527,7 +3528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="30">
         <f t="shared" si="0"/>
         <v>0.58194444444444426</v>
@@ -3540,7 +3541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="30">
         <f t="shared" si="0"/>
         <v>0.59097222222222201</v>
@@ -3553,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="30">
         <f t="shared" si="0"/>
         <v>0.59652777777777755</v>
@@ -3566,7 +3567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="30">
         <f t="shared" si="0"/>
         <v>0.60555555555555529</v>
@@ -3579,7 +3580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="30">
         <f t="shared" si="0"/>
         <v>0.60694444444444418</v>
@@ -3592,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="30">
         <f t="shared" si="0"/>
         <v>0.61527777777777748</v>
@@ -3605,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="30">
         <f t="shared" si="0"/>
         <v>0.61736111111111081</v>
@@ -3627,13 +3628,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33526E96-1937-974E-AD81-131F425CD5B2}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3641,559 +3642,559 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="31">
         <v>12.533333300000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="31">
         <v>15.0166667</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="31">
         <v>28.233333300000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="38">
-        <v>6.2833333299999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="38">
-        <v>5.3666666699999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="38">
-        <v>20.016666699999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>18.066666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="38">
-        <v>14.4166667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
+      <c r="B9" s="31">
+        <v>6.2833333299999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="31">
+        <v>5.3666666699999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31">
+        <v>20.016666699999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="31">
+        <v>14.4166667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31">
         <v>15.3833333</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="38">
-        <v>5.3333333300000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="38">
-        <v>13.3333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="38">
-        <v>27.1666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="38">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>27.633333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="38">
-        <v>7.2666666700000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>13.116666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="38">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="38">
-        <v>26.766666699999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4.5666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="38">
-        <v>19.3333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>24.183333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="38">
-        <v>14.8666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16">
+      <c r="B19" s="31">
+        <v>5.3333333300000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="38">
-        <v>4.0833333300000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16">
+      <c r="B20" s="31">
+        <v>13.3333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="38">
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16">
+      <c r="B21" s="31">
+        <v>27.1666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="38">
-        <v>21.283333299999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16">
+      <c r="B22" s="31">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="38">
-        <v>12.6166667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16">
+      <c r="B23" s="31">
+        <v>7.2666666700000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="38">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16">
+      <c r="B24" s="31">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="38">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16">
+      <c r="B25" s="31">
+        <v>26.766666699999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="38">
-        <v>14.1333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16">
+      <c r="B26" s="31">
+        <v>19.3333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="38">
-        <v>23.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16">
+      <c r="B27" s="31">
+        <v>14.8666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" s="38">
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16">
+      <c r="B28" s="31">
+        <v>4.0833333300000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="38">
-        <v>19.1333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16">
+      <c r="B29" s="31">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="31">
+        <v>21.283333299999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="31">
+        <v>12.6166667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="31">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="31">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="31">
+        <v>14.1333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="31">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="31">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="31">
+        <v>19.1333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="31">
         <v>7.7833333299999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" s="38">
-        <v>4.81666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="38">
-        <v>10.783333300000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="38">
-        <v>9.3833333299999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" s="38">
-        <v>17.716666700000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" s="38">
-        <v>6.7166666700000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" s="38">
-        <v>13.1166667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" s="38">
-        <v>37.933333300000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" s="38">
-        <v>66.866666699999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>15.016666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>18.066666666666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>28.233333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>27.633333333333333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>13.116666666666667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>27.166666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>4.5666666666666664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>24.183333333333334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>7.2666666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47">
-        <v>23.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48">
-        <v>15.016666666666667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>26.766666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49">
-        <v>28.233333333333334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50">
-        <v>5.333333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>14.866666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51">
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52">
-        <v>27.166666666666668</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>21.283333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54">
-        <v>7.2666666666666666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>12.616666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56">
-        <v>26.766666666666666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57">
-        <v>19.333333333333332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>14.133333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="B58">
-        <v>14.866666666666667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B58" s="31">
+        <v>4.81666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>4.083333333333333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="31">
+        <v>10.783333300000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B60" s="31">
+        <v>9.3833333299999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>21.283333333333335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B61" s="31">
+        <v>17.716666700000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3</v>
-      </c>
-      <c r="B62">
-        <v>12.616666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B62" s="31">
+        <v>6.7166666700000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>20.016666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>15.383333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>14.133333333333333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>4.8166666666666664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
       <c r="B66">
-        <v>20.016666666666666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>10.783333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
       <c r="B67">
-        <v>15.383333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>9.3833333333333329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>4</v>
-      </c>
-      <c r="B68">
-        <v>4.8166666666666664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="B68" s="31">
+        <v>13.1166667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>10.783333333333333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="B69" s="31">
+        <v>37.933333300000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4</v>
-      </c>
-      <c r="B70">
-        <v>9.3833333333333329</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="B70" s="31">
+        <v>66.866666699999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>19.333333333333332</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5</v>
       </c>
@@ -4218,6 +4219,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
+    <sortCondition ref="A2:A73"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4230,58 +4234,58 @@
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35"/>
-    </row>
-    <row r="2" spans="1:27" ht="16" thickBot="1">
-      <c r="A2" s="32"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4434,7 +4438,7 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4513,7 +4517,7 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4592,7 +4596,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4671,7 +4675,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4750,7 +4754,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4829,7 +4833,7 @@
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4908,7 +4912,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4987,7 +4991,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5066,7 +5070,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5145,7 +5149,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5225,7 +5229,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5385,7 +5389,7 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5465,7 +5469,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5537,7 +5541,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5609,7 +5613,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5680,7 +5684,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5751,7 +5755,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5816,7 +5820,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5869,7 +5873,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5922,7 +5926,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5969,7 +5973,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6010,7 +6014,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6045,7 +6049,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6080,7 +6084,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6115,7 +6119,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6150,7 +6154,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6185,7 +6189,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6220,7 +6224,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6255,7 +6259,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6290,7 +6294,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6325,7 +6329,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6360,7 +6364,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6395,7 +6399,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -6422,7 +6426,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -6449,7 +6453,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="16" thickBot="1">
+    <row r="39" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -6476,122 +6480,122 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I41" s="15"/>
       <c r="R41" s="15"/>
       <c r="S41" s="16"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I42" s="15"/>
       <c r="R42" s="15"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I43" s="15"/>
       <c r="R43" s="15"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I44" s="15"/>
       <c r="R44" s="15"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I45" s="15"/>
       <c r="R45" s="15"/>
       <c r="S45" s="16"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I46" s="15"/>
       <c r="R46" s="15"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="I48" s="15"/>
       <c r="R48" s="15"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="9:19">
+    <row r="49" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="9:19">
+    <row r="50" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="9:19">
+    <row r="51" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="9:19">
+    <row r="52" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I52" s="15"/>
       <c r="R52" s="15"/>
       <c r="S52" s="16"/>
     </row>
-    <row r="53" spans="9:19">
+    <row r="53" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I53" s="15"/>
       <c r="R53" s="15"/>
       <c r="S53" s="16"/>
     </row>
-    <row r="54" spans="9:19">
+    <row r="54" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="9:19">
+    <row r="55" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="16"/>
     </row>
-    <row r="56" spans="9:19">
+    <row r="56" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I56" s="15"/>
       <c r="R56" s="15"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="9:19">
+    <row r="57" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I57" s="15"/>
       <c r="R57" s="15"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="9:19">
+    <row r="58" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I58" s="15"/>
       <c r="R58" s="15"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="9:19">
+    <row r="59" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I59" s="15"/>
       <c r="R59" s="15"/>
       <c r="S59" s="16"/>
     </row>
-    <row r="60" spans="9:19">
+    <row r="60" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I60" s="15"/>
       <c r="R60" s="15"/>
       <c r="S60" s="16"/>
     </row>
-    <row r="61" spans="9:19">
+    <row r="61" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I61" s="15"/>
       <c r="R61" s="15"/>
       <c r="S61" s="16"/>
     </row>
-    <row r="62" spans="9:19">
+    <row r="62" spans="9:19" x14ac:dyDescent="0.2">
       <c r="R62" s="15"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="9:19">
+    <row r="63" spans="9:19" x14ac:dyDescent="0.2">
       <c r="R63" s="15"/>
     </row>
-    <row r="64" spans="9:19">
+    <row r="64" spans="9:19" x14ac:dyDescent="0.2">
       <c r="R64" s="15"/>
     </row>
-    <row r="65" spans="18:18">
+    <row r="65" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R65" s="15"/>
     </row>
   </sheetData>
@@ -6618,55 +6622,55 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="33" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="33" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35"/>
-    </row>
-    <row r="2" spans="1:28" ht="16" thickBot="1">
-      <c r="A2" s="32"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+    </row>
+    <row r="2" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6819,7 +6823,7 @@
       <c r="Z3" s="17"/>
       <c r="AB3" s="7"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6898,7 +6902,7 @@
       <c r="Z4" s="17"/>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6977,7 +6981,7 @@
       <c r="Z5" s="17"/>
       <c r="AB5" s="7"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="Z6" s="17"/>
       <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7135,7 +7139,7 @@
       <c r="Z7" s="17"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7214,7 +7218,7 @@
       <c r="Z8" s="17"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7293,7 +7297,7 @@
       <c r="Z9" s="17"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7372,7 +7376,7 @@
       <c r="Z10" s="17"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7451,7 +7455,7 @@
       <c r="Z11" s="17"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7530,7 +7534,7 @@
       <c r="Z12" s="17"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7609,7 +7613,7 @@
       <c r="Z13" s="17"/>
       <c r="AB13" s="7"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7688,7 +7692,7 @@
       <c r="Z14" s="17"/>
       <c r="AB14" s="7"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7767,7 +7771,7 @@
       <c r="Z15" s="17"/>
       <c r="AB15" s="7"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7846,7 +7850,7 @@
       <c r="Z16" s="17"/>
       <c r="AB16" s="7"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7925,7 +7929,7 @@
       <c r="Z17" s="17"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7998,7 +8002,7 @@
       <c r="Z18" s="17"/>
       <c r="AB18" s="7"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8051,7 +8055,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8104,7 +8108,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8151,7 +8155,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8198,7 +8202,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8245,7 +8249,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8292,7 +8296,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8333,7 +8337,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8374,7 +8378,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8409,7 +8413,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8438,7 +8442,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8467,7 +8471,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="16" thickBot="1">
+    <row r="30" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -8496,148 +8500,148 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="9:20">
+    <row r="33" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="9:20">
+    <row r="34" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="9:20">
+    <row r="35" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="9:20">
+    <row r="36" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="9:20">
+    <row r="37" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="9:20">
+    <row r="38" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="9:20">
+    <row r="39" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="9:20">
+    <row r="40" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="9:20">
+    <row r="41" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I41" s="15"/>
       <c r="S41" s="15"/>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="9:20">
+    <row r="42" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="9:20">
+    <row r="43" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="9:20">
+    <row r="44" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="9:20">
+    <row r="45" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="16"/>
     </row>
-    <row r="46" spans="9:20">
+    <row r="46" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="9:20">
+    <row r="47" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="9:20">
+    <row r="48" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="9:20">
+    <row r="49" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="9:20">
+    <row r="50" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="9:20">
+    <row r="51" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="9:20">
+    <row r="52" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="9:20">
+    <row r="53" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="9:20">
+    <row r="54" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="9:20">
+    <row r="55" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="9:20">
+    <row r="56" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="9:20">
+    <row r="57" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I57" s="15"/>
       <c r="S57" s="15"/>
     </row>
-    <row r="58" spans="9:20">
+    <row r="58" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I58" s="15"/>
       <c r="S58" s="15"/>
     </row>
-    <row r="59" spans="9:20">
+    <row r="59" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I59" s="15"/>
       <c r="S59" s="15"/>
     </row>
-    <row r="60" spans="9:20">
+    <row r="60" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I60" s="15"/>
       <c r="S60" s="15"/>
     </row>
-    <row r="61" spans="9:20">
+    <row r="61" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I61" s="15"/>
     </row>
   </sheetData>
@@ -8664,7 +8668,7 @@
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -8673,40 +8677,40 @@
     <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="P1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="X1" s="37" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="X1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-    </row>
-    <row r="2" spans="1:35" ht="80">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+    </row>
+    <row r="2" spans="1:35" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>36</v>
       </c>
@@ -8784,7 +8788,7 @@
       </c>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -8832,7 +8836,7 @@
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -8892,7 +8896,7 @@
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -8942,7 +8946,7 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -8992,7 +8996,7 @@
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -9050,7 +9054,7 @@
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -9106,7 +9110,7 @@
       <c r="AH8" s="21"/>
       <c r="AI8" s="21"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -9156,7 +9160,7 @@
       <c r="AH9" s="21"/>
       <c r="AI9" s="21"/>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -9206,7 +9210,7 @@
       <c r="AH10" s="21"/>
       <c r="AI10" s="21"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -9254,7 +9258,7 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>10</v>
       </c>
@@ -9302,7 +9306,7 @@
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>11</v>
       </c>
@@ -9360,7 +9364,7 @@
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>12</v>
       </c>
@@ -9410,7 +9414,7 @@
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>13</v>
       </c>
@@ -9460,7 +9464,7 @@
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>14</v>
       </c>
@@ -9520,7 +9524,7 @@
       <c r="AH16" s="21"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -9578,7 +9582,7 @@
       <c r="AH17" s="21"/>
       <c r="AI17" s="21"/>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>16</v>
       </c>
@@ -9638,7 +9642,7 @@
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>17</v>
       </c>
@@ -9698,7 +9702,7 @@
       <c r="AH19" s="21"/>
       <c r="AI19" s="21"/>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -9756,7 +9760,7 @@
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -9806,7 +9810,7 @@
       <c r="AH21" s="21"/>
       <c r="AI21" s="21"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>20</v>
       </c>
@@ -9866,7 +9870,7 @@
       <c r="AH22" s="21"/>
       <c r="AI22" s="21"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>21</v>
       </c>
@@ -9924,7 +9928,7 @@
       <c r="AH23" s="21"/>
       <c r="AI23" s="21"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>22</v>
       </c>
@@ -9984,7 +9988,7 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>23</v>
       </c>
@@ -10042,7 +10046,7 @@
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
         <v>24</v>
       </c>
@@ -10092,7 +10096,7 @@
       <c r="AH26" s="21"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
         <v>25</v>
       </c>
@@ -10152,7 +10156,7 @@
       <c r="AH27" s="21"/>
       <c r="AI27" s="21"/>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
         <v>26</v>
       </c>
@@ -10206,7 +10210,7 @@
       <c r="AH28" s="21"/>
       <c r="AI28" s="21"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
         <v>27</v>
       </c>
@@ -10266,7 +10270,7 @@
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>28</v>
       </c>
@@ -10324,7 +10328,7 @@
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
         <v>29</v>
       </c>
@@ -10374,7 +10378,7 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
         <v>30</v>
       </c>
@@ -10434,7 +10438,7 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <v>31</v>
       </c>
@@ -10494,7 +10498,7 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>32</v>
       </c>
@@ -10554,7 +10558,7 @@
       <c r="AH34" s="21"/>
       <c r="AI34" s="21"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>33</v>
       </c>
@@ -10614,7 +10618,7 @@
       <c r="AH35" s="21"/>
       <c r="AI35" s="21"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>34</v>
       </c>
@@ -10672,7 +10676,7 @@
       <c r="AH36" s="21"/>
       <c r="AI36" s="21"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>35</v>
       </c>
@@ -10730,7 +10734,7 @@
       <c r="AH37" s="21"/>
       <c r="AI37" s="21"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>36</v>
       </c>
@@ -10788,7 +10792,7 @@
       <c r="AH38" s="21"/>
       <c r="AI38" s="21"/>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>37</v>
       </c>
@@ -10848,7 +10852,7 @@
       <c r="AH39" s="21"/>
       <c r="AI39" s="21"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>38</v>
       </c>
@@ -10908,7 +10912,7 @@
       <c r="AH40" s="21"/>
       <c r="AI40" s="21"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>39</v>
       </c>
@@ -10958,7 +10962,7 @@
       <c r="AH41" s="21"/>
       <c r="AI41" s="21"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>40</v>
       </c>
@@ -11008,7 +11012,7 @@
       <c r="AH42" s="21"/>
       <c r="AI42" s="21"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
         <v>41</v>
       </c>
@@ -11068,7 +11072,7 @@
       <c r="AH43" s="21"/>
       <c r="AI43" s="21"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="24">
         <v>42</v>
       </c>
@@ -11126,7 +11130,7 @@
       <c r="AH44" s="21"/>
       <c r="AI44" s="21"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>43</v>
       </c>
@@ -11186,7 +11190,7 @@
       <c r="AH45" s="21"/>
       <c r="AI45" s="21"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="24">
         <v>44</v>
       </c>
@@ -11244,7 +11248,7 @@
       <c r="AH46" s="21"/>
       <c r="AI46" s="21"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="24">
         <v>45</v>
       </c>
@@ -11305,7 +11309,7 @@
       <c r="AH47" s="21"/>
       <c r="AI47" s="21"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>47</v>
       </c>
@@ -11387,7 +11391,7 @@
       <c r="AH48" s="21"/>
       <c r="AI48" s="21"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -11412,7 +11416,7 @@
       <c r="AH49" s="21"/>
       <c r="AI49" s="21"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -11423,7 +11427,7 @@
       <c r="AH50" s="21"/>
       <c r="AI50" s="21"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X51" s="22" t="s">
         <v>31</v>
       </c>
@@ -11442,7 +11446,7 @@
       <c r="AH51" s="21"/>
       <c r="AI51" s="21"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X52" s="27">
         <f>X48/$AB$48</f>
         <v>9.0909090909090912E-2</v>
@@ -11465,280 +11469,280 @@
       <c r="AH52" s="21"/>
       <c r="AI52" s="21"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE53" s="21"/>
       <c r="AF53" s="21"/>
       <c r="AG53" s="21"/>
       <c r="AH53" s="21"/>
       <c r="AI53" s="21"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
       <c r="AG54" s="21"/>
       <c r="AH54" s="21"/>
       <c r="AI54" s="21"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
       <c r="AG55" s="21"/>
       <c r="AH55" s="21"/>
       <c r="AI55" s="21"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
       <c r="AG56" s="21"/>
       <c r="AH56" s="21"/>
       <c r="AI56" s="21"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
       <c r="AG57" s="21"/>
       <c r="AH57" s="21"/>
       <c r="AI57" s="21"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
       <c r="AG58" s="21"/>
       <c r="AH58" s="21"/>
       <c r="AI58" s="21"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
       <c r="AG59" s="21"/>
       <c r="AH59" s="21"/>
       <c r="AI59" s="21"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
       <c r="AG60" s="21"/>
       <c r="AH60" s="21"/>
       <c r="AI60" s="21"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
       <c r="AG61" s="21"/>
       <c r="AH61" s="21"/>
       <c r="AI61" s="21"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE62" s="21"/>
       <c r="AF62" s="21"/>
       <c r="AG62" s="21"/>
       <c r="AH62" s="21"/>
       <c r="AI62" s="21"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE63" s="21"/>
       <c r="AF63" s="21"/>
       <c r="AG63" s="21"/>
       <c r="AH63" s="21"/>
       <c r="AI63" s="21"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE64" s="21"/>
       <c r="AF64" s="21"/>
       <c r="AG64" s="21"/>
       <c r="AH64" s="21"/>
       <c r="AI64" s="21"/>
     </row>
-    <row r="65" spans="31:35">
+    <row r="65" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE65" s="21"/>
       <c r="AF65" s="21"/>
       <c r="AG65" s="21"/>
       <c r="AH65" s="21"/>
       <c r="AI65" s="21"/>
     </row>
-    <row r="66" spans="31:35">
+    <row r="66" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE66" s="21"/>
       <c r="AF66" s="21"/>
       <c r="AG66" s="21"/>
       <c r="AH66" s="21"/>
       <c r="AI66" s="21"/>
     </row>
-    <row r="67" spans="31:35">
+    <row r="67" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE67" s="21"/>
       <c r="AF67" s="21"/>
       <c r="AG67" s="21"/>
       <c r="AH67" s="21"/>
       <c r="AI67" s="21"/>
     </row>
-    <row r="68" spans="31:35">
+    <row r="68" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE68" s="21"/>
       <c r="AF68" s="21"/>
       <c r="AG68" s="21"/>
       <c r="AH68" s="21"/>
       <c r="AI68" s="21"/>
     </row>
-    <row r="69" spans="31:35">
+    <row r="69" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE69" s="21"/>
       <c r="AF69" s="21"/>
       <c r="AG69" s="21"/>
       <c r="AH69" s="21"/>
       <c r="AI69" s="21"/>
     </row>
-    <row r="70" spans="31:35">
+    <row r="70" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE70" s="21"/>
       <c r="AF70" s="21"/>
       <c r="AG70" s="21"/>
       <c r="AH70" s="21"/>
       <c r="AI70" s="21"/>
     </row>
-    <row r="71" spans="31:35">
+    <row r="71" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE71" s="21"/>
       <c r="AF71" s="21"/>
       <c r="AG71" s="21"/>
       <c r="AH71" s="21"/>
       <c r="AI71" s="21"/>
     </row>
-    <row r="72" spans="31:35">
+    <row r="72" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE72" s="21"/>
       <c r="AF72" s="21"/>
       <c r="AG72" s="21"/>
       <c r="AH72" s="21"/>
       <c r="AI72" s="21"/>
     </row>
-    <row r="73" spans="31:35">
+    <row r="73" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE73" s="21"/>
       <c r="AF73" s="21"/>
       <c r="AG73" s="21"/>
       <c r="AH73" s="21"/>
       <c r="AI73" s="21"/>
     </row>
-    <row r="74" spans="31:35">
+    <row r="74" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE74" s="21"/>
       <c r="AF74" s="21"/>
       <c r="AG74" s="21"/>
       <c r="AH74" s="21"/>
       <c r="AI74" s="21"/>
     </row>
-    <row r="75" spans="31:35">
+    <row r="75" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE75" s="21"/>
       <c r="AF75" s="21"/>
       <c r="AG75" s="21"/>
       <c r="AH75" s="21"/>
       <c r="AI75" s="21"/>
     </row>
-    <row r="76" spans="31:35">
+    <row r="76" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE76" s="21"/>
       <c r="AF76" s="21"/>
       <c r="AG76" s="21"/>
       <c r="AH76" s="21"/>
       <c r="AI76" s="21"/>
     </row>
-    <row r="77" spans="31:35">
+    <row r="77" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE77" s="21"/>
       <c r="AF77" s="21"/>
       <c r="AG77" s="21"/>
       <c r="AH77" s="21"/>
       <c r="AI77" s="21"/>
     </row>
-    <row r="78" spans="31:35">
+    <row r="78" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE78" s="21"/>
       <c r="AF78" s="21"/>
       <c r="AG78" s="21"/>
       <c r="AH78" s="21"/>
       <c r="AI78" s="21"/>
     </row>
-    <row r="79" spans="31:35">
+    <row r="79" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE79" s="21"/>
       <c r="AF79" s="21"/>
       <c r="AG79" s="21"/>
       <c r="AH79" s="21"/>
       <c r="AI79" s="21"/>
     </row>
-    <row r="80" spans="31:35">
+    <row r="80" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE80" s="21"/>
       <c r="AF80" s="21"/>
       <c r="AG80" s="21"/>
       <c r="AH80" s="21"/>
       <c r="AI80" s="21"/>
     </row>
-    <row r="81" spans="31:35">
+    <row r="81" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE81" s="21"/>
       <c r="AF81" s="21"/>
       <c r="AG81" s="21"/>
       <c r="AH81" s="21"/>
       <c r="AI81" s="21"/>
     </row>
-    <row r="82" spans="31:35">
+    <row r="82" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE82" s="21"/>
       <c r="AF82" s="21"/>
       <c r="AH82" s="21"/>
       <c r="AI82" s="21"/>
     </row>
-    <row r="83" spans="31:35">
+    <row r="83" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE83" s="21"/>
       <c r="AF83" s="21"/>
       <c r="AH83" s="21"/>
       <c r="AI83" s="21"/>
     </row>
-    <row r="84" spans="31:35">
+    <row r="84" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE84" s="21"/>
       <c r="AF84" s="21"/>
       <c r="AH84" s="21"/>
       <c r="AI84" s="21"/>
     </row>
-    <row r="85" spans="31:35">
+    <row r="85" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE85" s="21"/>
       <c r="AF85" s="21"/>
       <c r="AH85" s="21"/>
       <c r="AI85" s="21"/>
     </row>
-    <row r="86" spans="31:35">
+    <row r="86" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AE86" s="21"/>
       <c r="AF86" s="21"/>
       <c r="AH86" s="21"/>
       <c r="AI86" s="21"/>
     </row>
-    <row r="87" spans="31:35">
+    <row r="87" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF87" s="21"/>
       <c r="AH87" s="21"/>
       <c r="AI87" s="21"/>
     </row>
-    <row r="88" spans="31:35">
+    <row r="88" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF88" s="21"/>
       <c r="AH88" s="21"/>
       <c r="AI88" s="21"/>
     </row>
-    <row r="89" spans="31:35">
+    <row r="89" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF89" s="21"/>
       <c r="AH89" s="21"/>
       <c r="AI89" s="21"/>
     </row>
-    <row r="90" spans="31:35">
+    <row r="90" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF90" s="21"/>
       <c r="AH90" s="21"/>
       <c r="AI90" s="21"/>
     </row>
-    <row r="91" spans="31:35">
+    <row r="91" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF91" s="21"/>
       <c r="AH91" s="21"/>
       <c r="AI91" s="21"/>
     </row>
-    <row r="92" spans="31:35">
+    <row r="92" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF92" s="21"/>
       <c r="AI92" s="21"/>
     </row>
-    <row r="93" spans="31:35">
+    <row r="93" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF93" s="21"/>
       <c r="AI93" s="21"/>
     </row>
-    <row r="94" spans="31:35">
+    <row r="94" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AF94" s="21"/>
       <c r="AI94" s="21"/>
     </row>
-    <row r="95" spans="31:35">
+    <row r="95" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AI95" s="21"/>
     </row>
-    <row r="96" spans="31:35">
+    <row r="96" spans="31:35" x14ac:dyDescent="0.2">
       <c r="AI96" s="21"/>
     </row>
   </sheetData>
@@ -11749,4 +11753,603 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D724D50-D1F8-B84A-8414-182A1CF84941}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31">
+        <v>12.533333300000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31">
+        <v>15.0166667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31">
+        <v>28.233333300000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>18.066666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="31">
+        <v>6.2833333299999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="31">
+        <v>5.3666666699999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31">
+        <v>20.016666699999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="31">
+        <v>14.4166667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31">
+        <v>15.3833333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>27.633333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>13.116666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4.5666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>24.183333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="31">
+        <v>5.3333333300000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="31">
+        <v>13.3333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="31">
+        <v>27.1666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="31">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="31">
+        <v>7.2666666700000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="31">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="31">
+        <v>26.766666699999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="31">
+        <v>19.3333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="31">
+        <v>14.8666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="31">
+        <v>4.0833333300000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="31">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="31">
+        <v>21.283333299999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="31">
+        <v>12.6166667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="31">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="31">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="31">
+        <v>14.1333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="31">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="31">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="31">
+        <v>19.1333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="31">
+        <v>7.7833333299999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>15.016666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>28.233333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>27.166666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>7.2666666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>26.766666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>14.866666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>21.283333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>12.616666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>14.133333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="31">
+        <v>4.81666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="31">
+        <v>10.783333300000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="31">
+        <v>9.3833333299999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" s="31">
+        <v>17.716666700000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" s="31">
+        <v>6.7166666700000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>20.016666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>15.383333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>4.8166666666666664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>10.783333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>9.3833333333333329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="31">
+        <v>13.1166667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="31">
+        <v>37.933333300000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="31">
+        <v>66.866666699999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>14.866666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>